--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mj6O8sGO+JE1JF7nfRaqIQKcUc80g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miToNs+lmHIz71xAWNP1o20zBNBoA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>Car_NFR</t>
   </si>
@@ -45,404 +45,739 @@
  percentile of the total requests done when the system is loaded with 500 concurrent users.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can register to car web app after clicking on registration button from the header of home page and it will redirect him/her 
+to registration page. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can search for cars colors from drop down list after clicking on color button from home page of car web app.  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can search for different cars models after writing the desired car model in the search bar found in home page of car web app.  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can only view list of cars with limited details (color,model,price) from car web app home page.  
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_07</t>
+  </si>
+  <si>
     <t>CAR_CR_01</t>
   </si>
   <si>
     <t>The user can register and login and land on the car listing page with number of currently available cars</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+If the guest clicks on the "see more " button under car image in car web app home page, it will direct him/her to the registration page to sign up first.</t>
+    </r>
+  </si>
+  <si>
     <t>CAR_CR_02</t>
   </si>
   <si>
+    <t>Car_SRS_08</t>
+  </si>
+  <si>
     <t xml:space="preserve">The user can search for cars based on different search criteria </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+If the guest tries to register with used username in registration page, error msg will be displayed as" This username is already taken ,please try again".
+</t>
+    </r>
+  </si>
+  <si>
     <t>CAR_CR_03</t>
   </si>
   <si>
     <t>The user has the option to reserve a car from the available cars</t>
   </si>
   <si>
-    <t xml:space="preserve">Role:Guest
-The guest can register to car web app using (phone number, address, email, and name) after clicking on registration button. 
+    <t>Car_SRS_09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Guest
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can search for cars from car web app based on different criteria after clicking on search button . 
+    </r>
+    <r>
+      <t>If the guest tries to register with used email in registration page, error msg will be displayed as " This email is already taken, please try again" .</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Guest
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can search for cars colors from car web app home page after clicking on search button .  
+    </r>
+    <r>
+      <t xml:space="preserve">
+If the guest tries to register without entering the username or the password in registration page, error msg will be displayed as " All the fields are mandatory, please try again"</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Guest</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+If the guest tries to register with entering all the fields with valid data (username, phone, address, password, and confirm password) the guest will be redirected from registration page
+ to the user home page after clicking on register button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_12</t>
+  </si>
+  <si>
+    <t>Registration page shall contain : "User name, Phone, Address, Email, Password and Confirm password fields".</t>
+  </si>
+  <si>
+    <t>Car_SRS_13</t>
+  </si>
+  <si>
+    <t>Username field shall accept all characters and numbers with maximum size 20 characters.</t>
+  </si>
+  <si>
+    <t>Car_SRS_14</t>
+  </si>
+  <si>
+    <t>Password field shall accept upper case, lowercase and special characters,size shall be more than 8 characters.</t>
+  </si>
+  <si>
+    <t>Car_SRS_15</t>
+  </si>
+  <si>
+    <t>Phone number field shall accept only 11 numbers.</t>
+  </si>
+  <si>
+    <t>Car_SRS_16</t>
+  </si>
+  <si>
+    <t>Address field shall accept all characters and numbers with maximum size 100 characters .</t>
+  </si>
+  <si>
+    <t>Car_SRS_17</t>
+  </si>
+  <si>
+    <t>Email field shall take the pattern as"email@example.com"</t>
+  </si>
+  <si>
+    <t>Car_SRS_18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can login using valid username and password after clicking on "login" button from the header of car home page and the user will be redirect 
+to the user home page.
+    </t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can logout from user home page any time he/she wants after clicking on "logout" button from the header of user home page and it will redirect the user to car home page. 
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can search for cars prices from high to low from car web app home page after clicking on search button . 
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can view all cars details and it may includes( the model year, engine CC , gear transmission , condition(new or used) , 
+kilometers(for used cars) when he/she clicks on "see more" button under car image from user home page .
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can search for cars prices from low from high from car web app home page after clicking on search button . 
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:User
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can search for cars models from car web app home page after clicking on search button . 
+    </r>
+    <r>
+      <t>The user can search for cars colors from drop down list after clicking on color button from home page of car web app.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can only view cars with limited details (color,model,price from high to low,price from low to high) from car web app home page.  
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-The guest can not reserve any cars from car web app home page until he/she register first.  
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can search for different cars models after writing the desired car model in the search bar found in home page of car web app. 
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_09</t>
-  </si>
-  <si>
-    <t>Role:Guest
-If the guest click on the "see more " button, it will direct him/her to the page where the user will be asked to either sign up or sign in.</t>
-  </si>
-  <si>
-    <t>Car_SRS_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:Guest
-If the guest tries to register with used username, " This username is already taken. Please try again" Error message appears in red color
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can edit his/her personal information (phone number-address) from "My profile" page after clicking on" my profile button" from user home page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can reserve the car he/she wants after clicking on "see more" button from user home page under the car image and description and the user will be redirected to
+"see more" page to reserve the car after clicking on "reserve" button.
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_11</t>
-  </si>
-  <si>
-    <t>Role:Guest
-If the guest tries to register with used email, " This email is already taken. Please try again" Error message appears in red color</t>
-  </si>
-  <si>
-    <t>Car_SRS_12</t>
-  </si>
-  <si>
-    <t>Role:Guest
-If the guest tries to register without entering the username or the password, " All the fields are mandatory. Please try again"
-Error message appears in red color.</t>
-  </si>
-  <si>
-    <t>Car_SRS_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration form shall contain : user name, phone, address, password and confirm password fields </t>
-  </si>
-  <si>
-    <t>Car_SRS_14</t>
-  </si>
-  <si>
-    <t>Username field shall accept all characters and numbers with maximum size 20 characters</t>
-  </si>
-  <si>
-    <t>Car_SRS_15</t>
-  </si>
-  <si>
-    <t>Password field shall accept upper case, lower case and special characters,size shall be more than 8 characters</t>
-  </si>
-  <si>
-    <t>Car_SRS_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone number field shall accept only 11 numbers </t>
-  </si>
-  <si>
-    <t>Car_SRS_17</t>
-  </si>
-  <si>
-    <t>Address field maximum size shall be 100 characters</t>
-  </si>
-  <si>
-    <t>Car_SRS_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can login to car web app home page using valid username and password after clicking on login button.
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+The user can see his/her reserved cars after clicking on "reserved cars" button from user home page it will redirect the user to reserved car page. 
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can logout from car web app any time he/she wants after clicking on logout button.
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+When the user clicks on the " see more" button from user home page, it will direct the user to "see more" page displays all car details. 
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can view all cars details such as( the model year, engine CC , color , gear transmission , condition(new or used) , 
-kilometers(for used cars) when he/she clicks on see more button from car web app home page .
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+If the user tries to login with invalid username or password, error msg will be displayed as "The fields you entered did not match our records. 
+please try again" </t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+If the user tries to login without entering the username or the password, error msg will be displayed "All the fields are mandatory, please try again"           
+            </t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+When the user clicks on the "About us" button from user home page, it will direct the user to "About us" page displays all informations about car web app. </t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin 
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can search for cars from car web app home page based on different criteria after clicking on search button. 
+    </r>
+    <r>
+      <t xml:space="preserve">
+Admin can login to admin home page using admin credential after clicking on login button from the car home page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_33</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Admin</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin can add users to the system after clicking on add users button from admin home page and it will redirect the admin to registration page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_34</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin
+ </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+In admin home page the admin can remove users from the system after clicking on "delete" button found under each user in "users" page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_35</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can search for cars colors from car web app home page after clicking on search button . 
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin can view all information of registered users such as (username,phone,address,and email) except the password using "users" button in the admin home page. </t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_36</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Admin</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin can add car(s) to the system using add car tab in the admin home web page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_37</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Admin</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin can remove car(s) from the system using add car tab in the admin home web page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_38</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Admin</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin can update each car status from reserved to sold using the admin home web page.</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SRS_39</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin 
 </t>
-  </si>
-  <si>
-    <t>Car_SRS_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can search for cars prices from high to low from car web app home page after clicking on search button . 
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can search for cars prices from high to low from car web app home page after clicking on search button . 
-. 
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can search for cars models from car web app home page after clicking on search button . 
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can edit his/her personal information(phone number-address) from edit information page. 
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The user can reserve the car he/she wants from car web app home after clicking on reserve button. 
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-The search results for user will display the free cars only.
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-When the user click on the " see more" button from home page, it will direct the user to another page displays all car details. 
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-If the user login to car web app with invalid username or password, The username and password you entered did not match our records. 
-Please double-check and try again. " Error message appears in red color."
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_31</t>
-  </si>
-  <si>
-    <t>Role:User
-If the user tries to login without entering the username or the password, All the fields are mandatory. Please try again
-" Error message appears in red color."</t>
-  </si>
-  <si>
-    <t>Car_SRS_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role:User
-</t>
-  </si>
-  <si>
-    <t>Car_SRS_33</t>
-  </si>
-  <si>
-    <t>Role : Admin 
-Admin can login to car web application home page using valid username and password after clicking on login button.</t>
-  </si>
-  <si>
-    <t>Car_SRS_34</t>
-  </si>
-  <si>
-    <t>Role : Admin
-Admin can add users to the system's database.</t>
-  </si>
-  <si>
-    <t>Car_SRS_35</t>
-  </si>
-  <si>
-    <t>Role : Admin
-Admin can remove users from the system's database.</t>
-  </si>
-  <si>
-    <t>Car_SRS_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Admin 
-Admin can view all information of registered users such as (username,phone,address,and email) except the password. </t>
-  </si>
-  <si>
-    <t>Car_SRS_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role : Admin 
-Admin can add car(s) to the system's database </t>
-  </si>
-  <si>
-    <t>Car_SRS_38</t>
-  </si>
-  <si>
-    <t>Role : Admin 
-Admin can remove car(s) from the system's database</t>
-  </si>
-  <si>
-    <t>Car_SRS_39</t>
-  </si>
-  <si>
-    <t>Role : Admin 
-Admin can update each car status from reserved to sold</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+Admin can update each car status from reserved to free using the admin home web page.</t>
+    </r>
   </si>
   <si>
     <t>Car_SRS_40</t>
   </si>
   <si>
-    <t>Role : Admin 
-Admin can update each car status from reserved to free</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Admin</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+Admin can search and view all free cars using the admin home web page after clicking on All cars button.  </t>
+    </r>
   </si>
   <si>
     <t>Car_SRS_41</t>
   </si>
   <si>
-    <t xml:space="preserve">Role : Admin
-Admin can search and view all free cars.  </t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+Admin can search and view all reserved cars using the admin home web page after clicking on all cars button .  </t>
+    </r>
   </si>
   <si>
     <t>Car_SRS_42</t>
   </si>
   <si>
-    <t xml:space="preserve">Role : Admin 
-Admin can search and view all reserved cars.  </t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin  </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+Admin can search and view all sold cars using the admin home web page after clicking on all cars button.  </t>
+    </r>
   </si>
   <si>
     <t>Car_SRS_43</t>
   </si>
   <si>
-    <t xml:space="preserve">Role : Admin 
-Admin can search and view all sold cars.  </t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Role:Admin</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin remove car from search page after 24 hours if it is confirmed to be bought.  </t>
+    </r>
   </si>
   <si>
     <t>Car_SRS_44</t>
   </si>
   <si>
-    <t xml:space="preserve">Role : Admin 
-Admin remove car from search page after 24 hours if it is confirmed to be bought.  </t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Role:Admin </t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+Admin can view all the cars the user had reserved using the admin home page after clicking on Reserved button.</t>
+    </r>
   </si>
   <si>
     <t>Car_SRS_45</t>
   </si>
   <si>
-    <t>The home page contains scrollable list of cars and search bar.</t>
+    <t xml:space="preserve">The user home page shall contain scrollable list of cars, search bar, my profile button, logout button, home button,about us button, reserved cars button
+ and see more button under each car image.                                                                                                                                                                                                        </t>
   </si>
   <si>
     <t>Car_SRS_46</t>
   </si>
   <si>
-    <t>About us tap shall redirect user to about us page.</t>
+    <t>About us tab shall redirect user to about us page contain all information about car web app.</t>
   </si>
   <si>
     <t>Car_SRS_47</t>
   </si>
   <si>
-    <t>About us page contains information about car web application page.</t>
+    <t>If Reservation button is pressed it shall change car status from free to reserved and removed the reserved car from search page.</t>
   </si>
   <si>
     <t>Car_SRS_48</t>
   </si>
   <si>
-    <t>Reservation tap contains all cars that the user has reserved.</t>
-  </si>
-  <si>
-    <t>Car_SRS_49</t>
-  </si>
-  <si>
-    <t>Reservation button shall changed car status from free to reserved and removed from search page.</t>
+    <t>Registration page shall contain "Register" button if it's pressed after filling all fields following the above mentioned constraints and the entered data doesn't exist 
+in the system's database, the browser shall be redirected to the user home page. else the wrong fields shall be surrounded with the error message describing what is wrong</t>
   </si>
   <si>
     <t>Car_SRS_50</t>
   </si>
   <si>
-    <t>The landing page has a list of free cars sorted by most popular car</t>
+    <t>The user home page shall contain "profile" button, once it's pressed, profile page shall be loaded</t>
   </si>
   <si>
     <t>Car_SRS_51</t>
   </si>
   <si>
-    <t xml:space="preserve">Under each car image there is a tap </t>
+    <t>profile page shall preview all the current logged in user information (address and phone number).</t>
   </si>
   <si>
     <t>Car_SRS_52</t>
   </si>
   <si>
-    <t>There is a tab beneath every car image and when the user hovers over it, it shall expand to unveil the car description
- and a button for more information</t>
+    <t>In the profile page the user can edit phone number and address fields only</t>
   </si>
   <si>
     <t>Car_SRS_53</t>
   </si>
   <si>
-    <t>All the reserved/sold cars appear in the Admin search page with their associated users and the time of the reservation/buy</t>
+    <t>In the profile page there are two edit buttons beside phone number and address fields</t>
+  </si>
+  <si>
+    <t>Car_SRS_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin home page shall contain "All Cars" button, once it pressed All cars (free,reserved and sold) shall be previewed </t>
+  </si>
+  <si>
+    <t>Car_SRS_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin home page shall contain "Reserved Cars" button, once it's pressed reserved cars shall be previewed </t>
+  </si>
+  <si>
+    <t>Car_SRS_56</t>
+  </si>
+  <si>
+    <t>Admin home page shall contain "Users" button, once it's pressed, users web page shall be loaded</t>
+  </si>
+  <si>
+    <t>Car_SRS_57</t>
+  </si>
+  <si>
+    <t>Users web page shall preview all users in matrix view, under each user cell, there is a "delete" button once it's pressed, the selected user shall be deleted 
+from the database after confirming the alert message</t>
+  </si>
+  <si>
+    <t>Car_SRS_58</t>
+  </si>
+  <si>
+    <t>Admin home page shall contain "Add user" button, once it's pressed, registration page shall be loaded</t>
+  </si>
+  <si>
+    <t>Car_SRS_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin home page shal contain "Add cars"button, once it's pressed, add cars page shall be loaded contains(car type, car model, car price, and car description) fields. </t>
   </si>
 </sst>
 </file>
@@ -496,13 +831,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -511,14 +860,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -532,35 +881,32 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +939,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="115.0"/>
+    <col customWidth="1" min="2" max="2" width="150.29"/>
     <col customWidth="1" min="3" max="3" width="27.71"/>
     <col customWidth="1" min="4" max="4" width="14.43"/>
     <col customWidth="1" min="5" max="5" width="42.57"/>
@@ -608,68 +954,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="43.5" customHeight="1">
+    <row r="2" ht="53.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="43.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="43.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="43.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="43.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="43.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
@@ -680,7 +1026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="43.5" customHeight="1">
+    <row r="11" ht="53.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -688,7 +1034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="43.5" customHeight="1">
+    <row r="12" ht="53.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -696,7 +1042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="53.25" customHeight="1">
+    <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -744,7 +1090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="45.75" customHeight="1">
+    <row r="19" ht="52.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -775,6 +1121,32 @@
       <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
     </row>
     <row r="23" ht="45.75" customHeight="1">
       <c r="A23" s="4" t="s">
@@ -808,6 +1180,7 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
     </row>
     <row r="24" ht="45.75" customHeight="1">
       <c r="A24" s="4" t="s">
@@ -841,6 +1214,7 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
     </row>
     <row r="25" ht="45.75" customHeight="1">
       <c r="A25" s="4" t="s">
@@ -874,6 +1248,7 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
     </row>
     <row r="26" ht="45.75" customHeight="1">
       <c r="A26" s="4" t="s">
@@ -907,8 +1282,9 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
-    </row>
-    <row r="27" ht="45.75" customHeight="1">
+      <c r="AB26" s="9"/>
+    </row>
+    <row r="27" ht="63.0" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -940,6 +1316,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
     </row>
     <row r="28" ht="45.75" customHeight="1">
       <c r="A28" s="4" t="s">
@@ -948,7 +1325,7 @@
       <c r="B28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -973,6 +1350,7 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
     </row>
     <row r="29" ht="45.75" customHeight="1">
       <c r="A29" s="4" t="s">
@@ -981,7 +1359,7 @@
       <c r="B29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1006,12 +1384,13 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
-    </row>
-    <row r="30" ht="45.75" customHeight="1">
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" ht="55.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="9"/>
@@ -1039,12 +1418,13 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
-    </row>
-    <row r="31" ht="55.5" customHeight="1">
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" ht="54.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="9"/>
@@ -1072,8 +1452,9 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
-    </row>
-    <row r="32" ht="54.75" customHeight="1">
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" ht="45.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>73</v>
       </c>
@@ -1105,12 +1486,13 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
     </row>
     <row r="33" ht="45.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="9"/>
@@ -1138,39 +1520,15 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
-    </row>
-    <row r="34" ht="45.75" customHeight="1">
+      <c r="AB33" s="9"/>
+    </row>
+    <row r="34" ht="38.25" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
     </row>
     <row r="35" ht="38.25" customHeight="1">
       <c r="A35" s="4" t="s">
@@ -1180,19 +1538,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" ht="38.25" customHeight="1">
+    <row r="36" ht="36.0" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
     </row>
     <row r="37" ht="45.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="9"/>
@@ -1220,6 +1604,7 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
     </row>
     <row r="38" ht="45.75" customHeight="1">
       <c r="A38" s="4" t="s">
@@ -1253,6 +1638,7 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
     </row>
     <row r="39" ht="45.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -1286,6 +1672,7 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
     </row>
     <row r="40" ht="45.75" customHeight="1">
       <c r="A40" s="4" t="s">
@@ -1319,6 +1706,7 @@
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
     </row>
     <row r="41" ht="45.75" customHeight="1">
       <c r="A41" s="4" t="s">
@@ -1352,6 +1740,7 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
     </row>
     <row r="42" ht="45.75" customHeight="1">
       <c r="A42" s="4" t="s">
@@ -1385,6 +1774,7 @@
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
     </row>
     <row r="43" ht="45.75" customHeight="1">
       <c r="A43" s="4" t="s">
@@ -1418,6 +1808,7 @@
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
     </row>
     <row r="44" ht="45.75" customHeight="1">
       <c r="A44" s="4" t="s">
@@ -1451,6 +1842,7 @@
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
     </row>
     <row r="45" ht="45.75" customHeight="1">
       <c r="A45" s="4" t="s">
@@ -1484,20 +1876,47 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
-    </row>
-    <row r="46" ht="21.75" customHeight="1">
+      <c r="AB45" s="9"/>
+    </row>
+    <row r="46" ht="32.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="15" t="s">
         <v>102</v>
       </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
     </row>
     <row r="47" ht="24.0" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="16"/>
@@ -1525,12 +1944,13 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
       <c r="AA47" s="16"/>
-    </row>
-    <row r="48" ht="20.25" customHeight="1">
+      <c r="AB47" s="16"/>
+    </row>
+    <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="16"/>
@@ -1558,1569 +1978,3100 @@
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
       <c r="AA48" s="16"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="AB48" s="16"/>
+    </row>
+    <row r="49" ht="43.5" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-    </row>
-    <row r="50" ht="19.5" customHeight="1">
+    </row>
+    <row r="50" ht="21.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-    </row>
-    <row r="51" ht="19.5" customHeight="1">
+    </row>
+    <row r="51" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-    </row>
-    <row r="52" ht="18.75" customHeight="1">
+    </row>
+    <row r="52" ht="21.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" ht="21.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-    </row>
-    <row r="54" ht="26.25" customHeight="1">
+    </row>
+    <row r="54" ht="21.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
+    </row>
+    <row r="55" ht="21.75" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="20"/>
+      <c r="A58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="20"/>
+      <c r="A59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="20"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="20"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="20"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="20"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="20"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="20"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="20"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="20"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="20"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="20"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="20"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="20"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="20"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="20"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="20"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="20"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="20"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="20"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="20"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="20"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="20"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="20"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="20"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="20"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="20"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="20"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="20"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="20"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="20"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="20"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="20"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="20"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="20"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="20"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="20"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="20"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="20"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="20"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="20"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="20"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="20"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="20"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="20"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="20"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="20"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="20"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="20"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="20"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="20"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="20"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="20"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="19"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="20"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="19"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="20"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="20"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="19"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="20"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="20"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="20"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="20"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="19"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="20"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="20"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="19"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="20"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="20"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="20"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="20"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="20"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="19"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="20"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="19"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="20"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="19"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="20"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="19"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="20"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="19"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="20"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="19"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="20"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="19"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="20"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="20"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="20"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="20"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="19"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="20"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="20"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="20"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="20"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="20"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="20"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="19"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="20"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="20"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="19"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="20"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="19"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="20"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="19"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="20"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="20"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="19"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="20"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="20"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="20"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="20"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="19"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="20"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="19"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="20"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="19"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="20"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="19"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="20"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="19"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="20"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="20"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="19"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="20"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="19"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="20"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="19"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="20"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="20"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="19"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="20"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="20"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="19"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="20"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="20"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="19"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="20"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="20"/>
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="20"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="20"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="19"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="20"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="19"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="20"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="19"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="20"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="20"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="19"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="20"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="19"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="20"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="19"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="20"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="19"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="20"/>
+      <c r="A178" s="18"/>
+      <c r="B178" s="19"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="20"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="19"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="20"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="19"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="20"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="19"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="20"/>
+      <c r="A182" s="18"/>
+      <c r="B182" s="19"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="20"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="19"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="20"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="19"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="20"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="19"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="20"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="19"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="20"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="19"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="20"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="19"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="20"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="19"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="20"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="19"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="20"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="19"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="20"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="19"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="20"/>
+      <c r="A193" s="18"/>
+      <c r="B193" s="19"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="20"/>
+      <c r="A194" s="18"/>
+      <c r="B194" s="19"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="20"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="19"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="20"/>
+      <c r="A196" s="18"/>
+      <c r="B196" s="19"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="20"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="19"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="20"/>
+      <c r="A198" s="18"/>
+      <c r="B198" s="19"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="20"/>
+      <c r="A199" s="18"/>
+      <c r="B199" s="19"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="20"/>
+      <c r="A200" s="18"/>
+      <c r="B200" s="19"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="20"/>
+      <c r="A201" s="18"/>
+      <c r="B201" s="19"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="20"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="19"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="20"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="19"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="20"/>
+      <c r="A204" s="18"/>
+      <c r="B204" s="19"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="20"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="19"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="20"/>
+      <c r="A206" s="18"/>
+      <c r="B206" s="19"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="20"/>
+      <c r="A207" s="18"/>
+      <c r="B207" s="19"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="20"/>
+      <c r="A208" s="18"/>
+      <c r="B208" s="19"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="20"/>
+      <c r="A209" s="18"/>
+      <c r="B209" s="19"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="20"/>
+      <c r="A210" s="18"/>
+      <c r="B210" s="19"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="20"/>
+      <c r="A211" s="18"/>
+      <c r="B211" s="19"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="20"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="19"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="20"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="19"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="20"/>
+      <c r="A214" s="18"/>
+      <c r="B214" s="19"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="20"/>
+      <c r="A215" s="18"/>
+      <c r="B215" s="19"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="20"/>
+      <c r="A216" s="18"/>
+      <c r="B216" s="19"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="20"/>
+      <c r="A217" s="18"/>
+      <c r="B217" s="19"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="20"/>
+      <c r="A218" s="18"/>
+      <c r="B218" s="19"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="20"/>
+      <c r="A219" s="18"/>
+      <c r="B219" s="19"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="20"/>
+      <c r="A220" s="18"/>
+      <c r="B220" s="19"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="20"/>
+      <c r="A221" s="18"/>
+      <c r="B221" s="19"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="20"/>
+      <c r="A222" s="18"/>
+      <c r="B222" s="19"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="20"/>
+      <c r="A223" s="18"/>
+      <c r="B223" s="19"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="20"/>
+      <c r="A224" s="18"/>
+      <c r="B224" s="19"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="20"/>
+      <c r="A225" s="18"/>
+      <c r="B225" s="19"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="20"/>
+      <c r="A226" s="18"/>
+      <c r="B226" s="19"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="20"/>
+      <c r="A227" s="18"/>
+      <c r="B227" s="19"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="20"/>
+      <c r="A228" s="18"/>
+      <c r="B228" s="19"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="20"/>
+      <c r="A229" s="18"/>
+      <c r="B229" s="19"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="20"/>
+      <c r="A230" s="18"/>
+      <c r="B230" s="19"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="20"/>
+      <c r="A231" s="18"/>
+      <c r="B231" s="19"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="20"/>
+      <c r="A232" s="18"/>
+      <c r="B232" s="19"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="20"/>
+      <c r="A233" s="18"/>
+      <c r="B233" s="19"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="20"/>
+      <c r="A234" s="18"/>
+      <c r="B234" s="19"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="20"/>
+      <c r="A235" s="18"/>
+      <c r="B235" s="19"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="20"/>
+      <c r="A236" s="18"/>
+      <c r="B236" s="19"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="20"/>
+      <c r="A237" s="18"/>
+      <c r="B237" s="19"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="20"/>
+      <c r="A238" s="18"/>
+      <c r="B238" s="19"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="20"/>
+      <c r="A239" s="18"/>
+      <c r="B239" s="19"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="20"/>
+      <c r="A240" s="18"/>
+      <c r="B240" s="19"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="20"/>
+      <c r="A241" s="18"/>
+      <c r="B241" s="19"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="20"/>
+      <c r="A242" s="18"/>
+      <c r="B242" s="19"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="20"/>
+      <c r="A243" s="18"/>
+      <c r="B243" s="19"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="20"/>
+      <c r="B244" s="19"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="20"/>
+      <c r="B245" s="19"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="20"/>
+      <c r="B246" s="19"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="20"/>
+      <c r="B247" s="19"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="20"/>
+      <c r="B248" s="19"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="20"/>
+      <c r="B249" s="19"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="20"/>
+      <c r="B250" s="19"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="20"/>
+      <c r="B251" s="19"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="20"/>
+      <c r="B252" s="19"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="20"/>
+      <c r="B253" s="19"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="20"/>
+      <c r="B254" s="19"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="20"/>
+      <c r="B255" s="19"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="20"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
+      <c r="B256" s="19"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="B257" s="19"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="B258" s="19"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="B259" s="19"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="B260" s="19"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="B261" s="19"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="B262" s="19"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="B263" s="19"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="B264" s="19"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="B265" s="19"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="B266" s="19"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="B267" s="19"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="B268" s="19"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="B269" s="19"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="B270" s="19"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="B271" s="19"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="B272" s="19"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="B273" s="19"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="B274" s="19"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="B275" s="19"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="B276" s="19"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="B277" s="19"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="B278" s="19"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="B279" s="19"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="B280" s="19"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="B281" s="19"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="B282" s="19"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="B283" s="19"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="B284" s="19"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="B285" s="19"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="B286" s="19"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="B287" s="19"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="B288" s="19"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="B289" s="19"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="B290" s="19"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="B291" s="19"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="B292" s="19"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="B293" s="19"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="B294" s="19"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="B295" s="19"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="B296" s="19"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="B297" s="19"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="B298" s="19"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="B299" s="19"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="B300" s="19"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="B301" s="19"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="B302" s="19"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="B303" s="19"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="B304" s="19"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="B305" s="19"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="B306" s="19"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="B307" s="19"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="B308" s="19"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="B309" s="19"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="B310" s="19"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="B311" s="19"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="B312" s="19"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="B313" s="19"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="B314" s="19"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="B315" s="19"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="B316" s="19"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="B317" s="19"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="B318" s="19"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="B319" s="19"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="B320" s="19"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="B321" s="19"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="B322" s="19"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="B323" s="19"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="B324" s="19"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="B325" s="19"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="B326" s="19"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="B327" s="19"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="B328" s="19"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="B329" s="19"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="B330" s="19"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="B331" s="19"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="B332" s="19"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="B333" s="19"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="B334" s="19"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="B335" s="19"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="B336" s="19"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="B337" s="19"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="B338" s="19"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="B339" s="19"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="B340" s="19"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="B341" s="19"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="B342" s="19"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="B343" s="19"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="B344" s="19"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="B345" s="19"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="B346" s="19"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="B347" s="19"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="B348" s="19"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="B349" s="19"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="B350" s="19"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="B351" s="19"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="B352" s="19"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="B353" s="19"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="B354" s="19"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="B355" s="19"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="B356" s="19"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="B357" s="19"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="B358" s="19"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="B359" s="19"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="B360" s="19"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="B361" s="19"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="B362" s="19"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="B363" s="19"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="B364" s="19"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="B365" s="19"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="B366" s="19"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="B367" s="19"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="B368" s="19"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="B369" s="19"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="B370" s="19"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="B371" s="19"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="B372" s="19"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="B373" s="19"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="B374" s="19"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="B375" s="19"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="B376" s="19"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="B377" s="19"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="B378" s="19"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="B379" s="19"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="B380" s="19"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="B381" s="19"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="B382" s="19"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="B383" s="19"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="B384" s="19"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="B385" s="19"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="B386" s="19"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="B387" s="19"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="B388" s="19"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="B389" s="19"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="B390" s="19"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="B391" s="19"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="B392" s="19"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="B393" s="19"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="B394" s="19"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="B395" s="19"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="B396" s="19"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="B397" s="19"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="B398" s="19"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="B399" s="19"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="B400" s="19"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="B401" s="19"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="B402" s="19"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="B403" s="19"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="B404" s="19"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="B405" s="19"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="B406" s="19"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="B407" s="19"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="B408" s="19"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="B409" s="19"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="B410" s="19"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="B411" s="19"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="B412" s="19"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="B413" s="19"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="B414" s="19"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="B415" s="19"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="B416" s="19"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="B417" s="19"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="B418" s="19"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="B419" s="19"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="B420" s="19"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="B421" s="19"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="B422" s="19"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="B423" s="19"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="B424" s="19"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="B425" s="19"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="B426" s="19"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="B427" s="19"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="B428" s="19"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="B429" s="19"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="B430" s="19"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="B431" s="19"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="B432" s="19"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="B433" s="19"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="B434" s="19"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="B435" s="19"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="B436" s="19"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="B437" s="19"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="B438" s="19"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="B439" s="19"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="B440" s="19"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="B441" s="19"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="B442" s="19"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="B443" s="19"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="B444" s="19"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="B445" s="19"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="B446" s="19"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="B447" s="19"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="B448" s="19"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="B449" s="19"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="B450" s="19"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="B451" s="19"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="B452" s="19"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="B453" s="19"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="B454" s="19"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="B455" s="19"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="B456" s="19"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="B457" s="19"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="B458" s="19"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="B459" s="19"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="B460" s="19"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="B461" s="19"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="B462" s="19"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="B463" s="19"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="B464" s="19"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="B465" s="19"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="B466" s="19"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="B467" s="19"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="B468" s="19"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="B469" s="19"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="B470" s="19"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="B471" s="19"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="B472" s="19"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="B473" s="19"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="B474" s="19"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="B475" s="19"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="B476" s="19"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="B477" s="19"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="B478" s="19"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="B479" s="19"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="B480" s="19"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="B481" s="19"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="B482" s="19"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="B483" s="19"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="B484" s="19"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="B485" s="19"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="B486" s="19"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="B487" s="19"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="B488" s="19"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="B489" s="19"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="B490" s="19"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="B491" s="19"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="B492" s="19"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="B493" s="19"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="B494" s="19"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="B495" s="19"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="B496" s="19"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="B497" s="19"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="B498" s="19"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="B499" s="19"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="B500" s="19"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="B501" s="19"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="B502" s="19"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="B503" s="19"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="B504" s="19"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="B505" s="19"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="B506" s="19"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="B507" s="19"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="B508" s="19"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="B509" s="19"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="B510" s="19"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="B511" s="19"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="B512" s="19"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="B513" s="19"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="B514" s="19"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="B515" s="19"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="B516" s="19"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="B517" s="19"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="B518" s="19"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="B519" s="19"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="B520" s="19"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="B521" s="19"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="B522" s="19"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="B523" s="19"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="B524" s="19"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="B525" s="19"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="B526" s="19"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="B527" s="19"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="B528" s="19"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="B529" s="19"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="B530" s="19"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="B531" s="19"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="B532" s="19"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="B533" s="19"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="B534" s="19"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="B535" s="19"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="B536" s="19"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="B537" s="19"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="B538" s="19"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="B539" s="19"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="B540" s="19"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="B541" s="19"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="B542" s="19"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="B543" s="19"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="B544" s="19"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="B545" s="19"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="B546" s="19"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="B547" s="19"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="B548" s="19"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="B549" s="19"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="B550" s="19"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="B551" s="19"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="B552" s="19"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="B553" s="19"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="B554" s="19"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="B555" s="19"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="B556" s="19"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="B557" s="19"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="B558" s="19"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="B559" s="19"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="B560" s="19"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="B561" s="19"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="B562" s="19"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="B563" s="19"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="B564" s="19"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="B565" s="19"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="B566" s="19"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="B567" s="19"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="B568" s="19"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="B569" s="19"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="B570" s="19"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="B571" s="19"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="B572" s="19"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="B573" s="19"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="B574" s="19"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="B575" s="19"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="B576" s="19"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="B577" s="19"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="B578" s="19"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="B579" s="19"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="B580" s="19"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="B581" s="19"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="B582" s="19"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="B583" s="19"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="B584" s="19"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="B585" s="19"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="B586" s="19"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="B587" s="19"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="B588" s="19"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="B589" s="19"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="B590" s="19"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="B591" s="19"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="B592" s="19"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="B593" s="19"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="B594" s="19"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="B595" s="19"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="B596" s="19"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="B597" s="19"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="B598" s="19"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="B599" s="19"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="B600" s="19"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="B601" s="19"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="B602" s="19"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="B603" s="19"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="B604" s="19"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="B605" s="19"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="B606" s="19"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="B607" s="19"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="B608" s="19"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="B609" s="19"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="B610" s="19"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="B611" s="19"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="B612" s="19"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="B613" s="19"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="B614" s="19"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="B615" s="19"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="B616" s="19"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="B617" s="19"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="B618" s="19"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="B619" s="19"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="B620" s="19"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="B621" s="19"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="B622" s="19"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="B623" s="19"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="B624" s="19"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="B625" s="19"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="B626" s="19"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="B627" s="19"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="B628" s="19"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="B629" s="19"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="B630" s="19"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="B631" s="19"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="B632" s="19"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="B633" s="19"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="B634" s="19"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="B635" s="19"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="B636" s="19"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="B637" s="19"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="B638" s="19"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="B639" s="19"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="B640" s="19"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="B641" s="19"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="B642" s="19"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="B643" s="19"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="B644" s="19"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="B645" s="19"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="B646" s="19"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="B647" s="19"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="B648" s="19"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="B649" s="19"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="B650" s="19"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="B651" s="19"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="B652" s="19"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="B653" s="19"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="B654" s="19"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="B655" s="19"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="B656" s="19"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="B657" s="19"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="B658" s="19"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="B659" s="19"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="B660" s="19"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="B661" s="19"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="B662" s="19"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="B663" s="19"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="B664" s="19"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="B665" s="19"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="B666" s="19"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="B667" s="19"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="B668" s="19"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="B669" s="19"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="B670" s="19"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="B671" s="19"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="B672" s="19"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="B673" s="19"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="B674" s="19"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="B675" s="19"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="B676" s="19"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="B677" s="19"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="B678" s="19"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="B679" s="19"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="B680" s="19"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="B681" s="19"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="B682" s="19"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="B683" s="19"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="B684" s="19"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="B685" s="19"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="B686" s="19"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="B687" s="19"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="B688" s="19"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="B689" s="19"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="B690" s="19"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="B691" s="19"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="B692" s="19"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="B693" s="19"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="B694" s="19"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="B695" s="19"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="B696" s="19"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="B697" s="19"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="B698" s="19"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="B699" s="19"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="B700" s="19"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="B701" s="19"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="B702" s="19"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="B703" s="19"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="B704" s="19"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="B705" s="19"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="B706" s="19"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="B707" s="19"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="B708" s="19"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="B709" s="19"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="B710" s="19"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="B711" s="19"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="B712" s="19"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="B713" s="19"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="B714" s="19"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="B715" s="19"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="B716" s="19"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="B717" s="19"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="B718" s="19"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="B719" s="19"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="B720" s="19"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="B721" s="19"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="B722" s="19"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="B723" s="19"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="B724" s="19"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="B725" s="19"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="B726" s="19"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="B727" s="19"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="B728" s="19"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="B729" s="19"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="B730" s="19"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="B731" s="19"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="B732" s="19"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="B733" s="19"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="B734" s="19"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="B735" s="19"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="B736" s="19"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="B737" s="19"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="B738" s="19"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="B739" s="19"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="B740" s="19"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="B741" s="19"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="B742" s="19"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="B743" s="19"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="B744" s="19"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="B745" s="19"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="B746" s="19"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="B747" s="19"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="B748" s="19"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="B749" s="19"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="B750" s="19"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="B751" s="19"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="B752" s="19"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="B753" s="19"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="B754" s="19"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="B755" s="19"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="B756" s="19"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="B757" s="19"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="B758" s="19"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="B759" s="19"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="B760" s="19"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="B761" s="19"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="B762" s="19"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="B763" s="19"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="B764" s="19"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="B765" s="19"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="B766" s="19"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="B767" s="19"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="B768" s="19"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="B769" s="19"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="B770" s="19"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="B771" s="19"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="B772" s="19"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="B773" s="19"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="B774" s="19"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="B775" s="19"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="B776" s="19"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="B777" s="19"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="B778" s="19"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="B779" s="19"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="B780" s="19"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="B781" s="19"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="B782" s="19"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="B783" s="19"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="B784" s="19"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="B785" s="19"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="B786" s="19"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="B787" s="19"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="B788" s="19"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="B789" s="19"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="B790" s="19"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="B791" s="19"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="B792" s="19"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="B793" s="19"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="B794" s="19"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="B795" s="19"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="B796" s="19"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="B797" s="19"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="B798" s="19"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="B799" s="19"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="B800" s="19"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="B801" s="19"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="B802" s="19"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="B803" s="19"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="B804" s="19"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="B805" s="19"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="B806" s="19"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="B807" s="19"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="B808" s="19"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="B809" s="19"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="B810" s="19"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="B811" s="19"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="B812" s="19"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="B813" s="19"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="B814" s="19"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="B815" s="19"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="B816" s="19"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="B817" s="19"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="B818" s="19"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="B819" s="19"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="B820" s="19"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="B821" s="19"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="B822" s="19"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="B823" s="19"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="B824" s="19"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="B825" s="19"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="B826" s="19"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="B827" s="19"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="B828" s="19"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="B829" s="19"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="B830" s="19"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="B831" s="19"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="B832" s="19"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="B833" s="19"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="B834" s="19"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="B835" s="19"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="B836" s="19"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="B837" s="19"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="B838" s="19"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="B839" s="19"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="B840" s="19"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="B841" s="19"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="B842" s="19"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="B843" s="19"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="B844" s="19"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="B845" s="19"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="B846" s="19"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="B847" s="19"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="B848" s="19"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="B849" s="19"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="B850" s="19"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="B851" s="19"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="B852" s="19"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="B853" s="19"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="B854" s="19"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="B855" s="19"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="B856" s="19"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="B857" s="19"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="B858" s="19"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="B859" s="19"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="B860" s="19"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="B861" s="19"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="B862" s="19"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="B863" s="19"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="B864" s="19"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="B865" s="19"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="B866" s="19"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="B867" s="19"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="B868" s="19"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="B869" s="19"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="B870" s="19"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="B871" s="19"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="B872" s="19"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="B873" s="19"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="B874" s="19"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="B875" s="19"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="B876" s="19"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="B877" s="19"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="B878" s="19"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="B879" s="19"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="B880" s="19"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="B881" s="19"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="B882" s="19"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="B883" s="19"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="B884" s="19"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="B885" s="19"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="B886" s="19"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="B887" s="19"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="B888" s="19"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="B889" s="19"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="B890" s="19"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="B891" s="19"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="B892" s="19"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="B893" s="19"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="B894" s="19"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="B895" s="19"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="B896" s="19"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="B897" s="19"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="B898" s="19"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="B899" s="19"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="B900" s="19"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="B901" s="19"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="B902" s="19"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="B903" s="19"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="B904" s="19"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="B905" s="19"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="B906" s="19"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="B907" s="19"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="B908" s="19"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="B909" s="19"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="B910" s="19"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="B911" s="19"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="B912" s="19"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="B913" s="19"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="B914" s="19"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="B915" s="19"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="B916" s="19"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="B917" s="19"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="B918" s="19"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="B919" s="19"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="B920" s="19"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="B921" s="19"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="B922" s="19"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="B923" s="19"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="B924" s="19"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="B925" s="19"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="B926" s="19"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="B927" s="19"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="B928" s="19"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="B929" s="19"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="B930" s="19"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="B931" s="19"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="B932" s="19"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="B933" s="19"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="B934" s="19"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="B935" s="19"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="B936" s="19"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="B937" s="19"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="B938" s="19"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="B939" s="19"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="B940" s="19"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="B941" s="19"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="B942" s="19"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="B943" s="19"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="B944" s="19"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="B945" s="19"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="B946" s="19"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="B947" s="19"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="B948" s="19"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="B949" s="19"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="B950" s="19"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="B951" s="19"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="B952" s="19"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="B953" s="19"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="B954" s="19"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="B955" s="19"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="B956" s="19"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="B957" s="19"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="B958" s="19"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="B959" s="19"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="B960" s="19"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="B961" s="19"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="B962" s="19"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="B963" s="19"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="B964" s="19"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="B965" s="19"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="B966" s="19"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="B967" s="19"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="B968" s="19"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="B969" s="19"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="B970" s="19"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="B971" s="19"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="B972" s="19"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="B973" s="19"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="B974" s="19"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="B975" s="19"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="B976" s="19"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="B977" s="19"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="B978" s="19"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="B979" s="19"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="B980" s="19"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="B981" s="19"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="B982" s="19"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="B983" s="19"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="B984" s="19"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="B985" s="19"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="B986" s="19"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="B987" s="19"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="B988" s="19"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="B989" s="19"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="B990" s="19"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="B991" s="19"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="B992" s="19"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="B993" s="19"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="B994" s="19"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="B995" s="19"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="B996" s="19"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="B997" s="19"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="B998" s="19"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="B999" s="19"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3171,26 +5122,26 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>

--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -11,14 +11,20 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miToNs+lmHIz71xAWNP1o20zBNBoA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhwsd36kCkCAxUVC1dhpiJ8uB9+AQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+  <si>
+    <t>Car_ID</t>
+  </si>
+  <si>
+    <t>Functional Requirements</t>
+  </si>
   <si>
     <t>Car_NFR</t>
   </si>
@@ -26,23 +32,35 @@
     <t>Car_CR</t>
   </si>
   <si>
-    <t>Car_ID</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Car_NFR_01</t>
   </si>
   <si>
-    <t>Functional Requirements</t>
-  </si>
-  <si>
-    <t>Car_SRS_01</t>
+    <t>CAR_CR_01</t>
   </si>
   <si>
     <t xml:space="preserve"> The performance SLA for this application is that the application shall response not exceed 10 seconds for 90
  percentile of the total requests done when the system is loaded with 500 concurrent users.</t>
+  </si>
+  <si>
+    <t>The user can register and login and land on the car listing page with number of currently available cars</t>
+  </si>
+  <si>
+    <t>Car_SRS_01</t>
+  </si>
+  <si>
+    <t>CAR_CR_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user can search for cars based on different search criteria </t>
+  </si>
+  <si>
+    <t>CAR_CR_03</t>
+  </si>
+  <si>
+    <t>The user has the option to reserve a car from the available cars</t>
   </si>
   <si>
     <r>
@@ -66,11 +84,12 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Role:Guest</t>
+      <t xml:space="preserve">Role:Guest
+</t>
     </r>
     <r>
       <t xml:space="preserve">
-The guest can search for cars colors from drop down list after clicking on color button from home page of car web app.  
+The guest can search for cars colors by choosing the desired color from the drop down list found in the home page 
 </t>
     </r>
   </si>
@@ -141,12 +160,6 @@
     <t>Car_SRS_07</t>
   </si>
   <si>
-    <t>CAR_CR_01</t>
-  </si>
-  <si>
-    <t>The user can register and login and land on the car listing page with number of currently available cars</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -159,13 +172,7 @@
     </r>
   </si>
   <si>
-    <t>CAR_CR_02</t>
-  </si>
-  <si>
     <t>Car_SRS_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user can search for cars based on different search criteria </t>
   </si>
   <si>
     <r>
@@ -181,12 +188,6 @@
     </r>
   </si>
   <si>
-    <t>CAR_CR_03</t>
-  </si>
-  <si>
-    <t>The user has the option to reserve a car from the available cars</t>
-  </si>
-  <si>
     <t>Car_SRS_09</t>
   </si>
   <si>
@@ -214,7 +215,7 @@
     </r>
     <r>
       <t xml:space="preserve">
-If the guest tries to register without entering the username or the password in registration page, error msg will be displayed as " All the fields are mandatory, please try again"</t>
+If the guest tries to register without entering the username or the password in registration page, error msg will be displayed as "  Please fill out this field"</t>
     </r>
   </si>
   <si>
@@ -314,9 +315,8 @@
     </r>
     <r>
       <t xml:space="preserve">
-The user can view all cars details and it may includes( the model year, engine CC , gear transmission , condition(new or used) , 
-kilometers(for used cars) when he/she clicks on "see more" button under car image from user home page .
-</t>
+The user can view all cars details after clicking on see more button which redirects him/her to the car details page that may include( the model year, engine CC , 
+gear transmission , condition(new or used) , kilometers(for used cars)</t>
     </r>
   </si>
   <si>
@@ -331,7 +331,7 @@
 </t>
     </r>
     <r>
-      <t>The user can search for cars colors from drop down list after clicking on color button from home page of car web app.</t>
+      <t>The guest can search for cars colors by choosing the desired color from the drop down list found in the home page.</t>
     </r>
   </si>
   <si>
@@ -409,9 +409,7 @@
     </r>
     <r>
       <t xml:space="preserve">
-The user can reserve the car he/she wants after clicking on "see more" button from user home page under the car image and description and the user will be redirected to
-"see more" page to reserve the car after clicking on "reserve" button.
-</t>
+The user can reserve a car by clicking on " reserve" button found in the car details page so the car status will be converted from free to reserved.</t>
     </r>
   </si>
   <si>
@@ -474,7 +472,7 @@
     </r>
     <r>
       <t xml:space="preserve">
-If the user tries to login without entering the username or the password, error msg will be displayed "All the fields are mandatory, please try again"           
+If the user tries to login without entering the username or the password, error msg will be displayed "Please fill out this field"           
             </t>
     </r>
   </si>
@@ -583,7 +581,7 @@
     </r>
     <r>
       <t xml:space="preserve"> 
-Admin can remove car(s) from the system using add car tab in the admin home web page.</t>
+Admin can remove car(s) from the system using delete car button found under each car in the "all cars" page.</t>
     </r>
   </si>
   <si>
@@ -598,7 +596,7 @@
     </r>
     <r>
       <t xml:space="preserve"> 
-Admin can update each car status from reserved to sold using the admin home web page.</t>
+Admin can change car status from reserved to sold from the status drop list found under each car in " all cars" page</t>
     </r>
   </si>
   <si>
@@ -614,71 +612,18 @@
     </r>
     <r>
       <t xml:space="preserve">
-Admin can update each car status from reserved to free using the admin home web page.</t>
+Admin can change car status from reserved to free from the status drop list found under each car in " all cars" page</t>
     </r>
   </si>
   <si>
     <t>Car_SRS_40</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Role:Admin</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-Admin can search and view all free cars using the admin home web page after clicking on All cars button.  </t>
-    </r>
+    <t xml:space="preserve">Role:Admin 
+The car shall be removed from search page once it's status be "reserved" but the admin can change its status to free if the car is not confirmed to be bought within 24 hours </t>
   </si>
   <si>
     <t>Car_SRS_41</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Role:Admin </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-Admin can search and view all reserved cars using the admin home web page after clicking on all cars button .  </t>
-    </r>
-  </si>
-  <si>
-    <t>Car_SRS_42</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Role:Admin  </t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-Admin can search and view all sold cars using the admin home web page after clicking on all cars button.  </t>
-    </r>
-  </si>
-  <si>
-    <t>Car_SRS_43</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Role:Admin</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> 
-Admin remove car from search page after 24 hours if it is confirmed to be bought.  </t>
-    </r>
-  </si>
-  <si>
-    <t>Car_SRS_44</t>
   </si>
   <si>
     <r>
@@ -693,88 +638,63 @@
     </r>
   </si>
   <si>
-    <t>Car_SRS_45</t>
+    <t>Car_SRS_42</t>
   </si>
   <si>
     <t xml:space="preserve">The user home page shall contain scrollable list of cars, search bar, my profile button, logout button, home button,about us button, reserved cars button
  and see more button under each car image.                                                                                                                                                                                                        </t>
   </si>
   <si>
-    <t>Car_SRS_46</t>
-  </si>
-  <si>
-    <t>About us tab shall redirect user to about us page contain all information about car web app.</t>
-  </si>
-  <si>
-    <t>Car_SRS_47</t>
-  </si>
-  <si>
-    <t>If Reservation button is pressed it shall change car status from free to reserved and removed the reserved car from search page.</t>
-  </si>
-  <si>
-    <t>Car_SRS_48</t>
+    <t>Car_SRS_43</t>
+  </si>
+  <si>
+    <t>If Reservation button found in car details page is pressed it shall change car status from free to reserved and removed the reserved car from search page.</t>
+  </si>
+  <si>
+    <t>Car_SRS_44</t>
   </si>
   <si>
     <t>Registration page shall contain "Register" button if it's pressed after filling all fields following the above mentioned constraints and the entered data doesn't exist 
 in the system's database, the browser shall be redirected to the user home page. else the wrong fields shall be surrounded with the error message describing what is wrong</t>
   </si>
   <si>
+    <t>Car_SRS_45</t>
+  </si>
+  <si>
+    <t>The user home page shall contain "profile" button, once it's pressed, profile page shall be loaded</t>
+  </si>
+  <si>
+    <t>Car_SRS_46</t>
+  </si>
+  <si>
+    <t>Profile page shall review all the current logged in user information will be displayed but only address and phone number are editable.</t>
+  </si>
+  <si>
+    <t>Car_SRS_47</t>
+  </si>
+  <si>
+    <t>In the profile page the user can edit phone number and address fields only</t>
+  </si>
+  <si>
+    <t>Car_SRS_48</t>
+  </si>
+  <si>
+    <t>In the profile page there are two edit buttons beside phone number and address fields</t>
+  </si>
+  <si>
+    <t>Car_SRS_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin home page shall contain "All Cars" button, once it pressed All cars (free,reserved and sold) shall be previewed </t>
+  </si>
+  <si>
     <t>Car_SRS_50</t>
   </si>
   <si>
-    <t>The user home page shall contain "profile" button, once it's pressed, profile page shall be loaded</t>
+    <t xml:space="preserve">Admin home page shall contain "Reserved Cars" button, once it's pressed reserved cars shall be previewed </t>
   </si>
   <si>
     <t>Car_SRS_51</t>
-  </si>
-  <si>
-    <t>profile page shall preview all the current logged in user information (address and phone number).</t>
-  </si>
-  <si>
-    <t>Car_SRS_52</t>
-  </si>
-  <si>
-    <t>In the profile page the user can edit phone number and address fields only</t>
-  </si>
-  <si>
-    <t>Car_SRS_53</t>
-  </si>
-  <si>
-    <t>In the profile page there are two edit buttons beside phone number and address fields</t>
-  </si>
-  <si>
-    <t>Car_SRS_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin home page shall contain "All Cars" button, once it pressed All cars (free,reserved and sold) shall be previewed </t>
-  </si>
-  <si>
-    <t>Car_SRS_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin home page shall contain "Reserved Cars" button, once it's pressed reserved cars shall be previewed </t>
-  </si>
-  <si>
-    <t>Car_SRS_56</t>
-  </si>
-  <si>
-    <t>Admin home page shall contain "Users" button, once it's pressed, users web page shall be loaded</t>
-  </si>
-  <si>
-    <t>Car_SRS_57</t>
-  </si>
-  <si>
-    <t>Users web page shall preview all users in matrix view, under each user cell, there is a "delete" button once it's pressed, the selected user shall be deleted 
-from the database after confirming the alert message</t>
-  </si>
-  <si>
-    <t>Car_SRS_58</t>
-  </si>
-  <si>
-    <t>Admin home page shall contain "Add user" button, once it's pressed, registration page shall be loaded</t>
-  </si>
-  <si>
-    <t>Car_SRS_59</t>
   </si>
   <si>
     <t xml:space="preserve">Admin home page shal contain "Add cars"button, once it's pressed, add cars page shall be loaded contains(car type, car model, car price, and car description) fields. </t>
@@ -792,11 +712,11 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font/>
     <font>
@@ -855,22 +775,22 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -947,178 +867,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="53.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="43.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="43.5" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="43.5" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="43.5" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" ht="53.25" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="53.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="43.5" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="43.5" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" ht="43.5" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" ht="43.5" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" ht="52.5" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" ht="45.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" ht="58.5" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" ht="45.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="9"/>
@@ -1149,10 +1069,10 @@
       <c r="AB22" s="9"/>
     </row>
     <row r="23" ht="45.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="9"/>
@@ -1183,10 +1103,10 @@
       <c r="AB23" s="9"/>
     </row>
     <row r="24" ht="45.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="9"/>
@@ -1217,10 +1137,10 @@
       <c r="AB24" s="9"/>
     </row>
     <row r="25" ht="45.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="9"/>
@@ -1251,10 +1171,10 @@
       <c r="AB25" s="9"/>
     </row>
     <row r="26" ht="45.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="9"/>
@@ -1285,10 +1205,10 @@
       <c r="AB26" s="9"/>
     </row>
     <row r="27" ht="63.0" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="9"/>
@@ -1319,10 +1239,10 @@
       <c r="AB27" s="9"/>
     </row>
     <row r="28" ht="45.75" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="10"/>
@@ -1353,10 +1273,10 @@
       <c r="AB28" s="9"/>
     </row>
     <row r="29" ht="45.75" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="9"/>
@@ -1387,7 +1307,7 @@
       <c r="AB29" s="9"/>
     </row>
     <row r="30" ht="55.5" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1421,10 +1341,10 @@
       <c r="AB30" s="9"/>
     </row>
     <row r="31" ht="54.75" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="9"/>
@@ -1455,10 +1375,10 @@
       <c r="AB31" s="9"/>
     </row>
     <row r="32" ht="45.75" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="9"/>
@@ -1489,7 +1409,7 @@
       <c r="AB32" s="9"/>
     </row>
     <row r="33" ht="45.75" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -1523,7 +1443,7 @@
       <c r="AB33" s="9"/>
     </row>
     <row r="34" ht="38.25" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -1531,7 +1451,7 @@
       </c>
     </row>
     <row r="35" ht="38.25" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -1539,7 +1459,7 @@
       </c>
     </row>
     <row r="36" ht="36.0" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -1573,7 +1493,7 @@
       <c r="AB36" s="9"/>
     </row>
     <row r="37" ht="45.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -1607,7 +1527,7 @@
       <c r="AB37" s="9"/>
     </row>
     <row r="38" ht="45.75" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -1641,7 +1561,7 @@
       <c r="AB38" s="9"/>
     </row>
     <row r="39" ht="45.75" customHeight="1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -1675,7 +1595,7 @@
       <c r="AB39" s="9"/>
     </row>
     <row r="40" ht="45.75" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -1709,7 +1629,7 @@
       <c r="AB40" s="9"/>
     </row>
     <row r="41" ht="45.75" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -1743,7 +1663,7 @@
       <c r="AB41" s="9"/>
     </row>
     <row r="42" ht="45.75" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -1776,8 +1696,8 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
     </row>
-    <row r="43" ht="45.75" customHeight="1">
-      <c r="A43" s="4" t="s">
+    <row r="43" ht="32.25" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -1810,263 +1730,131 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
     </row>
-    <row r="44" ht="45.75" customHeight="1">
-      <c r="A44" s="4" t="s">
+    <row r="44" ht="19.5" customHeight="1">
+      <c r="A44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-    </row>
-    <row r="45" ht="45.75" customHeight="1">
-      <c r="A45" s="4" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+    </row>
+    <row r="45" ht="43.5" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-    </row>
-    <row r="46" ht="32.25" customHeight="1">
-      <c r="A46" s="4" t="s">
+    </row>
+    <row r="46" ht="21.75" customHeight="1">
+      <c r="A46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-    </row>
-    <row r="47" ht="24.0" customHeight="1">
-      <c r="A47" s="4" t="s">
+    </row>
+    <row r="47" ht="21.75" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-    </row>
-    <row r="48" ht="19.5" customHeight="1">
-      <c r="A48" s="4" t="s">
+    </row>
+    <row r="48" ht="21.75" customHeight="1">
+      <c r="A48" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-    </row>
-    <row r="49" ht="43.5" customHeight="1">
-      <c r="A49" s="4" t="s">
+    </row>
+    <row r="49" ht="21.75" customHeight="1">
+      <c r="A49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="50" ht="21.75" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="51" ht="21.75" customHeight="1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" ht="21.75" customHeight="1">
-      <c r="A52" s="4" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" ht="21.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" ht="21.75" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" ht="21.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>120</v>
-      </c>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>128</v>
-      </c>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
@@ -2777,31 +2565,24 @@
       <c r="B236" s="19"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="18"/>
       <c r="B237" s="19"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="18"/>
       <c r="B238" s="19"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="18"/>
       <c r="B239" s="19"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="18"/>
       <c r="B240" s="19"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="18"/>
       <c r="B241" s="19"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="18"/>
       <c r="B242" s="19"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="18"/>
       <c r="B243" s="19"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
@@ -5050,27 +4831,6 @@
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="B992" s="19"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="19"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="19"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="19"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="19"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="19"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="19"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5093,55 +4853,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
@@ -6161,48 +5921,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" ht="31.5" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1"/>

--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\ITI\CAR_Project\CarPurchasing\Requirments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SRS Requirments" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Customer Requirments" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Non-Functional Requirments" sheetId="3" r:id="rId5"/>
+    <sheet name="SRS Requirments" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer Requirments" sheetId="2" r:id="rId2"/>
+    <sheet name="Non-Functional Requirments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhwsd36kCkCAxUVC1dhpiJ8uB9+AQ=="/>
@@ -66,10 +74,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can register to car web app after clicking on registration button from the header of home page and it will redirect him/her 
 to registration page. 
@@ -83,11 +98,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can search for cars colors by choosing the desired color from the drop down list found in the home page 
 </t>
@@ -100,10 +122,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
@@ -116,10 +145,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.</t>
     </r>
@@ -131,10 +167,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can search for different cars models after writing the desired car model in the search bar found in home page of car web app.  
 </t>
@@ -147,10 +190,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can only view list of cars with limited details (color,model,price) from car web app home page.  
 </t>
@@ -163,10 +213,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest clicks on the "see more " button under car image in car web app home page, it will direct him/her to the registration page to sign up first.</t>
     </r>
@@ -178,10 +235,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest tries to register with used username in registration page, error msg will be displayed as" This username is already taken ,please try again".
 </t>
@@ -194,11 +258,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>If the guest tries to register with used email in registration page, error msg will be displayed as " This email is already taken, please try again" .</t>
     </r>
   </si>
@@ -209,11 +280,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest tries to register without entering the username or the password in registration page, error msg will be displayed as "  Please fill out this field"</t>
     </r>
@@ -225,10 +303,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest tries to register with entering all the fields with valid data (username, phone, address, password, and confirm password) the guest will be redirected from registration page
  to the user home page after clicking on register button.</t>
@@ -277,10 +362,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can login using valid username and password after clicking on "login" button from the header of car home page and the user will be redirect 
 to the user home page.
@@ -294,10 +386,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can logout from user home page any time he/she wants after clicking on "logout" button from the header of user home page and it will redirect the user to car home page. 
 </t>
@@ -310,10 +409,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can view all cars details after clicking on see more button which redirects him/her to the car details page that may include( the model year, engine CC , 
 gear transmission , condition(new or used) , kilometers(for used cars)</t>
@@ -326,11 +432,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:User
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>The guest can search for cars colors by choosing the desired color from the drop down list found in the home page.</t>
     </r>
   </si>
@@ -341,10 +454,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
@@ -357,10 +477,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.
 </t>
@@ -373,10 +500,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can search for different cars models after writing the desired car model in the search bar found in home page of car web app. 
 </t>
@@ -389,10 +523,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can edit his/her personal information (phone number-address) from "My profile" page after clicking on" my profile button" from user home page.</t>
     </r>
@@ -404,10 +545,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can reserve a car by clicking on " reserve" button found in the car details page so the car status will be converted from free to reserved.</t>
     </r>
@@ -419,10 +567,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can see his/her reserved cars after clicking on "reserved cars" button from user home page it will redirect the user to reserved car page. 
 </t>
@@ -435,10 +590,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 When the user clicks on the " see more" button from user home page, it will direct the user to "see more" page displays all car details. 
 </t>
@@ -451,10 +613,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the user tries to login with invalid username or password, error msg will be displayed as "The fields you entered did not match our records. 
 please try again" </t>
@@ -467,10 +636,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the user tries to login without entering the username or the password, error msg will be displayed "Please fill out this field"           
             </t>
@@ -483,10 +659,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 When the user clicks on the "About us" button from user home page, it will direct the user to "About us" page displays all informations about car web app. </t>
     </r>
@@ -498,11 +681,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin 
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 Admin can login to admin home page using admin credential after clicking on login button from the car home page.</t>
     </r>
@@ -514,10 +704,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can add users to the system after clicking on add users button from admin home page and it will redirect the admin to registration page.</t>
     </r>
@@ -529,11 +726,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin
  </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 In admin home page the admin can remove users from the system after clicking on "delete" button found under each user in "users" page.</t>
     </r>
@@ -545,11 +749,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can view all information of registered users such as (username,phone,address,and email) except the password using "users" button in the admin home page. </t>
     </r>
@@ -561,10 +772,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can add car(s) to the system using add car tab in the admin home web page.</t>
     </r>
@@ -576,10 +794,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can remove car(s) from the system using delete car button found under each car in the "all cars" page.</t>
     </r>
@@ -591,10 +816,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can change car status from reserved to sold from the status drop list found under each car in " all cars" page</t>
     </r>
@@ -606,11 +838,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin 
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 Admin can change car status from reserved to free from the status drop list found under each car in " all cars" page</t>
     </r>
@@ -629,10 +868,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can view all the cars the user had reserved using the admin home page after clicking on Reserved button.</t>
     </r>
@@ -703,31 +949,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -736,7 +996,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -751,8 +1011,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -766,4156 +1032,4462 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="69" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="150.29"/>
-    <col customWidth="1" min="3" max="3" width="27.71"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="42.57"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="150.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="14" customFormat="1" ht="69" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="53.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="69" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="43.5" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" ht="69" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="43.5" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="69" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="43.5" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="69" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" ht="69" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" ht="69" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="43.5" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" ht="69" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" ht="69" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="43.5" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" ht="69" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="53.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" ht="69" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="53.25" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" ht="69" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="43.5" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" ht="69" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="43.5" customHeight="1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" ht="69" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="43.5" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" ht="69" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="43.5" customHeight="1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" ht="69" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="43.5" customHeight="1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:28" ht="69" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="43.5" customHeight="1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:28" ht="69" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="52.5" customHeight="1">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:28" ht="69" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="45.75" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:28" ht="69" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="58.5" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:28" ht="69" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="45.75" customHeight="1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:28" ht="69" customHeight="1">
+      <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-    </row>
-    <row r="23" ht="45.75" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+    </row>
+    <row r="23" spans="1:28" ht="69" customHeight="1">
+      <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-    </row>
-    <row r="24" ht="45.75" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+    </row>
+    <row r="24" spans="1:28" ht="69" customHeight="1">
+      <c r="A24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-    </row>
-    <row r="25" ht="45.75" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+    </row>
+    <row r="25" spans="1:28" ht="69" customHeight="1">
+      <c r="A25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-    </row>
-    <row r="26" ht="45.75" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+    </row>
+    <row r="26" spans="1:28" ht="69" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-    </row>
-    <row r="27" ht="63.0" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+    </row>
+    <row r="27" spans="1:28" ht="69" customHeight="1">
+      <c r="A27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-    </row>
-    <row r="28" ht="45.75" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+    </row>
+    <row r="28" spans="1:28" ht="69" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-    </row>
-    <row r="29" ht="45.75" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+    </row>
+    <row r="29" spans="1:28" ht="69" customHeight="1">
+      <c r="A29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-    </row>
-    <row r="30" ht="55.5" customHeight="1">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+    </row>
+    <row r="30" spans="1:28" ht="69" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-    </row>
-    <row r="31" ht="54.75" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+    </row>
+    <row r="31" spans="1:28" ht="69" customHeight="1">
+      <c r="A31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-    </row>
-    <row r="32" ht="45.75" customHeight="1">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+    </row>
+    <row r="32" spans="1:28" ht="69" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-    </row>
-    <row r="33" ht="45.75" customHeight="1">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+    </row>
+    <row r="33" spans="1:28" ht="69" customHeight="1">
+      <c r="A33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-    </row>
-    <row r="34" ht="38.25" customHeight="1">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+    </row>
+    <row r="34" spans="1:28" ht="69" customHeight="1">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" ht="38.25" customHeight="1">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:28" ht="69" customHeight="1">
+      <c r="A35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" ht="36.0" customHeight="1">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:28" ht="69" customHeight="1">
+      <c r="A36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-    </row>
-    <row r="37" ht="45.75" customHeight="1">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+    </row>
+    <row r="37" spans="1:28" ht="69" customHeight="1">
+      <c r="A37" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-    </row>
-    <row r="38" ht="45.75" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+    </row>
+    <row r="38" spans="1:28" ht="69" customHeight="1">
+      <c r="A38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-    </row>
-    <row r="39" ht="45.75" customHeight="1">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+    </row>
+    <row r="39" spans="1:28" ht="69" customHeight="1">
+      <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-    </row>
-    <row r="40" ht="45.75" customHeight="1">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+    </row>
+    <row r="40" spans="1:28" ht="69" customHeight="1">
+      <c r="A40" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-    </row>
-    <row r="41" ht="45.75" customHeight="1">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+    </row>
+    <row r="41" spans="1:28" ht="69" customHeight="1">
+      <c r="A41" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-    </row>
-    <row r="42" ht="45.75" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+    </row>
+    <row r="42" spans="1:28" ht="69" customHeight="1">
+      <c r="A42" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-    </row>
-    <row r="43" ht="32.25" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+    </row>
+    <row r="43" spans="1:28" ht="69" customHeight="1">
+      <c r="A43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-    </row>
-    <row r="44" ht="19.5" customHeight="1">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+    </row>
+    <row r="44" spans="1:28" ht="69" customHeight="1">
+      <c r="A44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-    </row>
-    <row r="45" ht="43.5" customHeight="1">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+    </row>
+    <row r="45" spans="1:28" ht="69" customHeight="1">
+      <c r="A45" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" ht="21.75" customHeight="1">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:28" ht="69" customHeight="1">
+      <c r="A46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" ht="21.75" customHeight="1">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:28" ht="69" customHeight="1">
+      <c r="A47" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" ht="21.75" customHeight="1">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:28" ht="69" customHeight="1">
+      <c r="A48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" ht="21.75" customHeight="1">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:2" ht="69" customHeight="1">
+      <c r="A49" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" ht="21.75" customHeight="1">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:2" ht="69" customHeight="1">
+      <c r="A50" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" ht="21.75" customHeight="1">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:2" ht="69" customHeight="1">
+      <c r="A51" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:2" ht="69" customHeight="1">
+      <c r="A52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="18"/>
+    <row r="53" spans="1:2" ht="69" customHeight="1">
+      <c r="A53" s="20"/>
       <c r="B53" s="19"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="18"/>
+    <row r="54" spans="1:2" ht="69" customHeight="1">
+      <c r="A54" s="20"/>
       <c r="B54" s="19"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="18"/>
+    <row r="55" spans="1:2" ht="69" customHeight="1">
+      <c r="A55" s="20"/>
       <c r="B55" s="19"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="18"/>
+    <row r="56" spans="1:2" ht="69" customHeight="1">
+      <c r="A56" s="20"/>
       <c r="B56" s="19"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="18"/>
+    <row r="57" spans="1:2" ht="69" customHeight="1">
+      <c r="A57" s="20"/>
       <c r="B57" s="19"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="18"/>
+    <row r="58" spans="1:2" ht="69" customHeight="1">
+      <c r="A58" s="20"/>
       <c r="B58" s="19"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18"/>
+    <row r="59" spans="1:2" ht="69" customHeight="1">
+      <c r="A59" s="20"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="18"/>
+    <row r="60" spans="1:2" ht="69" customHeight="1">
+      <c r="A60" s="20"/>
       <c r="B60" s="19"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="18"/>
+    <row r="61" spans="1:2" ht="69" customHeight="1">
+      <c r="A61" s="20"/>
       <c r="B61" s="19"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="18"/>
+    <row r="62" spans="1:2" ht="69" customHeight="1">
+      <c r="A62" s="20"/>
       <c r="B62" s="19"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18"/>
+    <row r="63" spans="1:2" ht="69" customHeight="1">
+      <c r="A63" s="20"/>
       <c r="B63" s="19"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="18"/>
+    <row r="64" spans="1:2" ht="69" customHeight="1">
+      <c r="A64" s="20"/>
       <c r="B64" s="19"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18"/>
+    <row r="65" spans="1:2" ht="69" customHeight="1">
+      <c r="A65" s="20"/>
       <c r="B65" s="19"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="18"/>
+    <row r="66" spans="1:2" ht="69" customHeight="1">
+      <c r="A66" s="20"/>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18"/>
+    <row r="67" spans="1:2" ht="69" customHeight="1">
+      <c r="A67" s="20"/>
       <c r="B67" s="19"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="18"/>
+    <row r="68" spans="1:2" ht="69" customHeight="1">
+      <c r="A68" s="20"/>
       <c r="B68" s="19"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="18"/>
+    <row r="69" spans="1:2" ht="69" customHeight="1">
+      <c r="A69" s="20"/>
       <c r="B69" s="19"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="18"/>
+    <row r="70" spans="1:2" ht="69" customHeight="1">
+      <c r="A70" s="20"/>
       <c r="B70" s="19"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="18"/>
+    <row r="71" spans="1:2" ht="69" customHeight="1">
+      <c r="A71" s="20"/>
       <c r="B71" s="19"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="18"/>
+    <row r="72" spans="1:2" ht="69" customHeight="1">
+      <c r="A72" s="20"/>
       <c r="B72" s="19"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="18"/>
+    <row r="73" spans="1:2" ht="69" customHeight="1">
+      <c r="A73" s="20"/>
       <c r="B73" s="19"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="18"/>
+    <row r="74" spans="1:2" ht="69" customHeight="1">
+      <c r="A74" s="20"/>
       <c r="B74" s="19"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="18"/>
+    <row r="75" spans="1:2" ht="69" customHeight="1">
+      <c r="A75" s="20"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="18"/>
+    <row r="76" spans="1:2" ht="69" customHeight="1">
+      <c r="A76" s="20"/>
       <c r="B76" s="19"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="18"/>
+    <row r="77" spans="1:2" ht="69" customHeight="1">
+      <c r="A77" s="20"/>
       <c r="B77" s="19"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="18"/>
+    <row r="78" spans="1:2" ht="69" customHeight="1">
+      <c r="A78" s="20"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="18"/>
+    <row r="79" spans="1:2" ht="69" customHeight="1">
+      <c r="A79" s="20"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="18"/>
+    <row r="80" spans="1:2" ht="69" customHeight="1">
+      <c r="A80" s="20"/>
       <c r="B80" s="19"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="18"/>
+    <row r="81" spans="1:2" ht="69" customHeight="1">
+      <c r="A81" s="20"/>
       <c r="B81" s="19"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="18"/>
+    <row r="82" spans="1:2" ht="69" customHeight="1">
+      <c r="A82" s="20"/>
       <c r="B82" s="19"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="18"/>
+    <row r="83" spans="1:2" ht="69" customHeight="1">
+      <c r="A83" s="20"/>
       <c r="B83" s="19"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="18"/>
+    <row r="84" spans="1:2" ht="69" customHeight="1">
+      <c r="A84" s="20"/>
       <c r="B84" s="19"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="18"/>
+    <row r="85" spans="1:2" ht="69" customHeight="1">
+      <c r="A85" s="20"/>
       <c r="B85" s="19"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="18"/>
+    <row r="86" spans="1:2" ht="69" customHeight="1">
+      <c r="A86" s="20"/>
       <c r="B86" s="19"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="18"/>
+    <row r="87" spans="1:2" ht="69" customHeight="1">
+      <c r="A87" s="20"/>
       <c r="B87" s="19"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="18"/>
+    <row r="88" spans="1:2" ht="69" customHeight="1">
+      <c r="A88" s="20"/>
       <c r="B88" s="19"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="18"/>
+    <row r="89" spans="1:2" ht="69" customHeight="1">
+      <c r="A89" s="20"/>
       <c r="B89" s="19"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="18"/>
+    <row r="90" spans="1:2" ht="69" customHeight="1">
+      <c r="A90" s="20"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="18"/>
+    <row r="91" spans="1:2" ht="69" customHeight="1">
+      <c r="A91" s="20"/>
       <c r="B91" s="19"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="18"/>
+    <row r="92" spans="1:2" ht="69" customHeight="1">
+      <c r="A92" s="20"/>
       <c r="B92" s="19"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="18"/>
+    <row r="93" spans="1:2" ht="69" customHeight="1">
+      <c r="A93" s="20"/>
       <c r="B93" s="19"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="18"/>
+    <row r="94" spans="1:2" ht="69" customHeight="1">
+      <c r="A94" s="20"/>
       <c r="B94" s="19"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="18"/>
+    <row r="95" spans="1:2" ht="69" customHeight="1">
+      <c r="A95" s="20"/>
       <c r="B95" s="19"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="18"/>
+    <row r="96" spans="1:2" ht="69" customHeight="1">
+      <c r="A96" s="20"/>
       <c r="B96" s="19"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="18"/>
+    <row r="97" spans="1:2" ht="69" customHeight="1">
+      <c r="A97" s="20"/>
       <c r="B97" s="19"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="18"/>
+    <row r="98" spans="1:2" ht="69" customHeight="1">
+      <c r="A98" s="20"/>
       <c r="B98" s="19"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="18"/>
+    <row r="99" spans="1:2" ht="69" customHeight="1">
+      <c r="A99" s="20"/>
       <c r="B99" s="19"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="18"/>
+    <row r="100" spans="1:2" ht="69" customHeight="1">
+      <c r="A100" s="20"/>
       <c r="B100" s="19"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="18"/>
+    <row r="101" spans="1:2" ht="69" customHeight="1">
+      <c r="A101" s="20"/>
       <c r="B101" s="19"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="18"/>
+    <row r="102" spans="1:2" ht="69" customHeight="1">
+      <c r="A102" s="20"/>
       <c r="B102" s="19"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="18"/>
+    <row r="103" spans="1:2" ht="69" customHeight="1">
+      <c r="A103" s="20"/>
       <c r="B103" s="19"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="18"/>
+    <row r="104" spans="1:2" ht="69" customHeight="1">
+      <c r="A104" s="20"/>
       <c r="B104" s="19"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="18"/>
+    <row r="105" spans="1:2" ht="69" customHeight="1">
+      <c r="A105" s="20"/>
       <c r="B105" s="19"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="18"/>
+    <row r="106" spans="1:2" ht="69" customHeight="1">
+      <c r="A106" s="20"/>
       <c r="B106" s="19"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="18"/>
+    <row r="107" spans="1:2" ht="69" customHeight="1">
+      <c r="A107" s="20"/>
       <c r="B107" s="19"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="18"/>
+    <row r="108" spans="1:2" ht="69" customHeight="1">
+      <c r="A108" s="20"/>
       <c r="B108" s="19"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="18"/>
+    <row r="109" spans="1:2" ht="69" customHeight="1">
+      <c r="A109" s="20"/>
       <c r="B109" s="19"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="18"/>
+    <row r="110" spans="1:2" ht="69" customHeight="1">
+      <c r="A110" s="20"/>
       <c r="B110" s="19"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="18"/>
+    <row r="111" spans="1:2" ht="69" customHeight="1">
+      <c r="A111" s="20"/>
       <c r="B111" s="19"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="18"/>
+    <row r="112" spans="1:2" ht="69" customHeight="1">
+      <c r="A112" s="20"/>
       <c r="B112" s="19"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="18"/>
+    <row r="113" spans="1:2" ht="69" customHeight="1">
+      <c r="A113" s="20"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="18"/>
+    <row r="114" spans="1:2" ht="69" customHeight="1">
+      <c r="A114" s="20"/>
       <c r="B114" s="19"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="18"/>
+    <row r="115" spans="1:2" ht="69" customHeight="1">
+      <c r="A115" s="20"/>
       <c r="B115" s="19"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="18"/>
+    <row r="116" spans="1:2" ht="69" customHeight="1">
+      <c r="A116" s="20"/>
       <c r="B116" s="19"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="18"/>
+    <row r="117" spans="1:2" ht="69" customHeight="1">
+      <c r="A117" s="20"/>
       <c r="B117" s="19"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="18"/>
+    <row r="118" spans="1:2" ht="69" customHeight="1">
+      <c r="A118" s="20"/>
       <c r="B118" s="19"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="18"/>
+    <row r="119" spans="1:2" ht="69" customHeight="1">
+      <c r="A119" s="20"/>
       <c r="B119" s="19"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="18"/>
+    <row r="120" spans="1:2" ht="69" customHeight="1">
+      <c r="A120" s="20"/>
       <c r="B120" s="19"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="18"/>
+    <row r="121" spans="1:2" ht="69" customHeight="1">
+      <c r="A121" s="20"/>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="18"/>
+    <row r="122" spans="1:2" ht="69" customHeight="1">
+      <c r="A122" s="20"/>
       <c r="B122" s="19"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="18"/>
+    <row r="123" spans="1:2" ht="69" customHeight="1">
+      <c r="A123" s="20"/>
       <c r="B123" s="19"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="18"/>
+    <row r="124" spans="1:2" ht="69" customHeight="1">
+      <c r="A124" s="20"/>
       <c r="B124" s="19"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="18"/>
+    <row r="125" spans="1:2" ht="69" customHeight="1">
+      <c r="A125" s="20"/>
       <c r="B125" s="19"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="18"/>
+    <row r="126" spans="1:2" ht="69" customHeight="1">
+      <c r="A126" s="20"/>
       <c r="B126" s="19"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="18"/>
+    <row r="127" spans="1:2" ht="69" customHeight="1">
+      <c r="A127" s="20"/>
       <c r="B127" s="19"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="18"/>
+    <row r="128" spans="1:2" ht="69" customHeight="1">
+      <c r="A128" s="20"/>
       <c r="B128" s="19"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="18"/>
+    <row r="129" spans="1:2" ht="69" customHeight="1">
+      <c r="A129" s="20"/>
       <c r="B129" s="19"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="18"/>
+    <row r="130" spans="1:2" ht="69" customHeight="1">
+      <c r="A130" s="20"/>
       <c r="B130" s="19"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="18"/>
+    <row r="131" spans="1:2" ht="69" customHeight="1">
+      <c r="A131" s="20"/>
       <c r="B131" s="19"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="18"/>
+    <row r="132" spans="1:2" ht="69" customHeight="1">
+      <c r="A132" s="20"/>
       <c r="B132" s="19"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="18"/>
+    <row r="133" spans="1:2" ht="69" customHeight="1">
+      <c r="A133" s="20"/>
       <c r="B133" s="19"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="18"/>
+    <row r="134" spans="1:2" ht="69" customHeight="1">
+      <c r="A134" s="20"/>
       <c r="B134" s="19"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="18"/>
+    <row r="135" spans="1:2" ht="69" customHeight="1">
+      <c r="A135" s="20"/>
       <c r="B135" s="19"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="18"/>
+    <row r="136" spans="1:2" ht="69" customHeight="1">
+      <c r="A136" s="20"/>
       <c r="B136" s="19"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="18"/>
+    <row r="137" spans="1:2" ht="69" customHeight="1">
+      <c r="A137" s="20"/>
       <c r="B137" s="19"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="18"/>
+    <row r="138" spans="1:2" ht="69" customHeight="1">
+      <c r="A138" s="20"/>
       <c r="B138" s="19"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="18"/>
+    <row r="139" spans="1:2" ht="69" customHeight="1">
+      <c r="A139" s="20"/>
       <c r="B139" s="19"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="18"/>
+    <row r="140" spans="1:2" ht="69" customHeight="1">
+      <c r="A140" s="20"/>
       <c r="B140" s="19"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="18"/>
+    <row r="141" spans="1:2" ht="69" customHeight="1">
+      <c r="A141" s="20"/>
       <c r="B141" s="19"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="18"/>
+    <row r="142" spans="1:2" ht="69" customHeight="1">
+      <c r="A142" s="20"/>
       <c r="B142" s="19"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="18"/>
+    <row r="143" spans="1:2" ht="69" customHeight="1">
+      <c r="A143" s="20"/>
       <c r="B143" s="19"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="18"/>
+    <row r="144" spans="1:2" ht="69" customHeight="1">
+      <c r="A144" s="20"/>
       <c r="B144" s="19"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="18"/>
+    <row r="145" spans="1:2" ht="69" customHeight="1">
+      <c r="A145" s="20"/>
       <c r="B145" s="19"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="18"/>
+    <row r="146" spans="1:2" ht="69" customHeight="1">
+      <c r="A146" s="20"/>
       <c r="B146" s="19"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="18"/>
+    <row r="147" spans="1:2" ht="69" customHeight="1">
+      <c r="A147" s="20"/>
       <c r="B147" s="19"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="18"/>
+    <row r="148" spans="1:2" ht="69" customHeight="1">
+      <c r="A148" s="20"/>
       <c r="B148" s="19"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="18"/>
+    <row r="149" spans="1:2" ht="69" customHeight="1">
+      <c r="A149" s="20"/>
       <c r="B149" s="19"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="18"/>
+    <row r="150" spans="1:2" ht="69" customHeight="1">
+      <c r="A150" s="20"/>
       <c r="B150" s="19"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="18"/>
+    <row r="151" spans="1:2" ht="69" customHeight="1">
+      <c r="A151" s="20"/>
       <c r="B151" s="19"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="18"/>
+    <row r="152" spans="1:2" ht="69" customHeight="1">
+      <c r="A152" s="20"/>
       <c r="B152" s="19"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="18"/>
+    <row r="153" spans="1:2" ht="69" customHeight="1">
+      <c r="A153" s="20"/>
       <c r="B153" s="19"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="18"/>
+    <row r="154" spans="1:2" ht="69" customHeight="1">
+      <c r="A154" s="20"/>
       <c r="B154" s="19"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="18"/>
+    <row r="155" spans="1:2" ht="69" customHeight="1">
+      <c r="A155" s="20"/>
       <c r="B155" s="19"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="18"/>
+    <row r="156" spans="1:2" ht="69" customHeight="1">
+      <c r="A156" s="20"/>
       <c r="B156" s="19"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="18"/>
+    <row r="157" spans="1:2" ht="69" customHeight="1">
+      <c r="A157" s="20"/>
       <c r="B157" s="19"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="18"/>
+    <row r="158" spans="1:2" ht="69" customHeight="1">
+      <c r="A158" s="20"/>
       <c r="B158" s="19"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="18"/>
+    <row r="159" spans="1:2" ht="69" customHeight="1">
+      <c r="A159" s="20"/>
       <c r="B159" s="19"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="18"/>
+    <row r="160" spans="1:2" ht="69" customHeight="1">
+      <c r="A160" s="20"/>
       <c r="B160" s="19"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="18"/>
+    <row r="161" spans="1:2" ht="69" customHeight="1">
+      <c r="A161" s="20"/>
       <c r="B161" s="19"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="18"/>
+    <row r="162" spans="1:2" ht="69" customHeight="1">
+      <c r="A162" s="20"/>
       <c r="B162" s="19"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="18"/>
+    <row r="163" spans="1:2" ht="69" customHeight="1">
+      <c r="A163" s="20"/>
       <c r="B163" s="19"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="18"/>
+    <row r="164" spans="1:2" ht="69" customHeight="1">
+      <c r="A164" s="20"/>
       <c r="B164" s="19"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="18"/>
+    <row r="165" spans="1:2" ht="69" customHeight="1">
+      <c r="A165" s="20"/>
       <c r="B165" s="19"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="18"/>
+    <row r="166" spans="1:2" ht="69" customHeight="1">
+      <c r="A166" s="20"/>
       <c r="B166" s="19"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="18"/>
+    <row r="167" spans="1:2" ht="69" customHeight="1">
+      <c r="A167" s="20"/>
       <c r="B167" s="19"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="18"/>
+    <row r="168" spans="1:2" ht="69" customHeight="1">
+      <c r="A168" s="20"/>
       <c r="B168" s="19"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="18"/>
+    <row r="169" spans="1:2" ht="69" customHeight="1">
+      <c r="A169" s="20"/>
       <c r="B169" s="19"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="18"/>
+    <row r="170" spans="1:2" ht="69" customHeight="1">
+      <c r="A170" s="20"/>
       <c r="B170" s="19"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="18"/>
+    <row r="171" spans="1:2" ht="69" customHeight="1">
+      <c r="A171" s="20"/>
       <c r="B171" s="19"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="18"/>
+    <row r="172" spans="1:2" ht="69" customHeight="1">
+      <c r="A172" s="20"/>
       <c r="B172" s="19"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="18"/>
+    <row r="173" spans="1:2" ht="69" customHeight="1">
+      <c r="A173" s="20"/>
       <c r="B173" s="19"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="18"/>
+    <row r="174" spans="1:2" ht="69" customHeight="1">
+      <c r="A174" s="20"/>
       <c r="B174" s="19"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="18"/>
+    <row r="175" spans="1:2" ht="69" customHeight="1">
+      <c r="A175" s="20"/>
       <c r="B175" s="19"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="18"/>
+    <row r="176" spans="1:2" ht="69" customHeight="1">
+      <c r="A176" s="20"/>
       <c r="B176" s="19"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="18"/>
+    <row r="177" spans="1:2" ht="69" customHeight="1">
+      <c r="A177" s="20"/>
       <c r="B177" s="19"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="18"/>
+    <row r="178" spans="1:2" ht="69" customHeight="1">
+      <c r="A178" s="20"/>
       <c r="B178" s="19"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="18"/>
+    <row r="179" spans="1:2" ht="69" customHeight="1">
+      <c r="A179" s="20"/>
       <c r="B179" s="19"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="18"/>
+    <row r="180" spans="1:2" ht="69" customHeight="1">
+      <c r="A180" s="20"/>
       <c r="B180" s="19"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="18"/>
+    <row r="181" spans="1:2" ht="69" customHeight="1">
+      <c r="A181" s="20"/>
       <c r="B181" s="19"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="18"/>
+    <row r="182" spans="1:2" ht="69" customHeight="1">
+      <c r="A182" s="20"/>
       <c r="B182" s="19"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="18"/>
+    <row r="183" spans="1:2" ht="69" customHeight="1">
+      <c r="A183" s="20"/>
       <c r="B183" s="19"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="18"/>
+    <row r="184" spans="1:2" ht="69" customHeight="1">
+      <c r="A184" s="20"/>
       <c r="B184" s="19"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="18"/>
+    <row r="185" spans="1:2" ht="69" customHeight="1">
+      <c r="A185" s="20"/>
       <c r="B185" s="19"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="18"/>
+    <row r="186" spans="1:2" ht="69" customHeight="1">
+      <c r="A186" s="20"/>
       <c r="B186" s="19"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="18"/>
+    <row r="187" spans="1:2" ht="69" customHeight="1">
+      <c r="A187" s="20"/>
       <c r="B187" s="19"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="18"/>
+    <row r="188" spans="1:2" ht="69" customHeight="1">
+      <c r="A188" s="20"/>
       <c r="B188" s="19"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="18"/>
+    <row r="189" spans="1:2" ht="69" customHeight="1">
+      <c r="A189" s="20"/>
       <c r="B189" s="19"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="18"/>
+    <row r="190" spans="1:2" ht="69" customHeight="1">
+      <c r="A190" s="20"/>
       <c r="B190" s="19"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="18"/>
+    <row r="191" spans="1:2" ht="69" customHeight="1">
+      <c r="A191" s="20"/>
       <c r="B191" s="19"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="18"/>
+    <row r="192" spans="1:2" ht="69" customHeight="1">
+      <c r="A192" s="20"/>
       <c r="B192" s="19"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="18"/>
+    <row r="193" spans="1:2" ht="69" customHeight="1">
+      <c r="A193" s="20"/>
       <c r="B193" s="19"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="18"/>
+    <row r="194" spans="1:2" ht="69" customHeight="1">
+      <c r="A194" s="20"/>
       <c r="B194" s="19"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="18"/>
+    <row r="195" spans="1:2" ht="69" customHeight="1">
+      <c r="A195" s="20"/>
       <c r="B195" s="19"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="18"/>
+    <row r="196" spans="1:2" ht="69" customHeight="1">
+      <c r="A196" s="20"/>
       <c r="B196" s="19"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="18"/>
+    <row r="197" spans="1:2" ht="69" customHeight="1">
+      <c r="A197" s="20"/>
       <c r="B197" s="19"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="18"/>
+    <row r="198" spans="1:2" ht="69" customHeight="1">
+      <c r="A198" s="20"/>
       <c r="B198" s="19"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="18"/>
+    <row r="199" spans="1:2" ht="69" customHeight="1">
+      <c r="A199" s="20"/>
       <c r="B199" s="19"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="18"/>
+    <row r="200" spans="1:2" ht="69" customHeight="1">
+      <c r="A200" s="20"/>
       <c r="B200" s="19"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="18"/>
+    <row r="201" spans="1:2" ht="69" customHeight="1">
+      <c r="A201" s="20"/>
       <c r="B201" s="19"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="18"/>
+    <row r="202" spans="1:2" ht="69" customHeight="1">
+      <c r="A202" s="20"/>
       <c r="B202" s="19"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="18"/>
+    <row r="203" spans="1:2" ht="69" customHeight="1">
+      <c r="A203" s="20"/>
       <c r="B203" s="19"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="18"/>
+    <row r="204" spans="1:2" ht="69" customHeight="1">
+      <c r="A204" s="20"/>
       <c r="B204" s="19"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="18"/>
+    <row r="205" spans="1:2" ht="69" customHeight="1">
+      <c r="A205" s="20"/>
       <c r="B205" s="19"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="18"/>
+    <row r="206" spans="1:2" ht="69" customHeight="1">
+      <c r="A206" s="20"/>
       <c r="B206" s="19"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="18"/>
+    <row r="207" spans="1:2" ht="69" customHeight="1">
+      <c r="A207" s="20"/>
       <c r="B207" s="19"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="18"/>
+    <row r="208" spans="1:2" ht="69" customHeight="1">
+      <c r="A208" s="20"/>
       <c r="B208" s="19"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="18"/>
+    <row r="209" spans="1:2" ht="69" customHeight="1">
+      <c r="A209" s="20"/>
       <c r="B209" s="19"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="18"/>
+    <row r="210" spans="1:2" ht="69" customHeight="1">
+      <c r="A210" s="20"/>
       <c r="B210" s="19"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="18"/>
+    <row r="211" spans="1:2" ht="69" customHeight="1">
+      <c r="A211" s="20"/>
       <c r="B211" s="19"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="18"/>
+    <row r="212" spans="1:2" ht="69" customHeight="1">
+      <c r="A212" s="20"/>
       <c r="B212" s="19"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="18"/>
+    <row r="213" spans="1:2" ht="69" customHeight="1">
+      <c r="A213" s="20"/>
       <c r="B213" s="19"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="18"/>
+    <row r="214" spans="1:2" ht="69" customHeight="1">
+      <c r="A214" s="20"/>
       <c r="B214" s="19"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="18"/>
+    <row r="215" spans="1:2" ht="69" customHeight="1">
+      <c r="A215" s="20"/>
       <c r="B215" s="19"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="18"/>
+    <row r="216" spans="1:2" ht="69" customHeight="1">
+      <c r="A216" s="20"/>
       <c r="B216" s="19"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="18"/>
+    <row r="217" spans="1:2" ht="69" customHeight="1">
+      <c r="A217" s="20"/>
       <c r="B217" s="19"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="18"/>
+    <row r="218" spans="1:2" ht="69" customHeight="1">
+      <c r="A218" s="20"/>
       <c r="B218" s="19"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="18"/>
+    <row r="219" spans="1:2" ht="69" customHeight="1">
+      <c r="A219" s="20"/>
       <c r="B219" s="19"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="18"/>
+    <row r="220" spans="1:2" ht="69" customHeight="1">
+      <c r="A220" s="20"/>
       <c r="B220" s="19"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="18"/>
+    <row r="221" spans="1:2" ht="69" customHeight="1">
+      <c r="A221" s="20"/>
       <c r="B221" s="19"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="18"/>
+    <row r="222" spans="1:2" ht="69" customHeight="1">
+      <c r="A222" s="20"/>
       <c r="B222" s="19"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="18"/>
+    <row r="223" spans="1:2" ht="69" customHeight="1">
+      <c r="A223" s="20"/>
       <c r="B223" s="19"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="18"/>
+    <row r="224" spans="1:2" ht="69" customHeight="1">
+      <c r="A224" s="20"/>
       <c r="B224" s="19"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="18"/>
+    <row r="225" spans="1:2" ht="69" customHeight="1">
+      <c r="A225" s="20"/>
       <c r="B225" s="19"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="18"/>
+    <row r="226" spans="1:2" ht="69" customHeight="1">
+      <c r="A226" s="20"/>
       <c r="B226" s="19"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="18"/>
+    <row r="227" spans="1:2" ht="69" customHeight="1">
+      <c r="A227" s="20"/>
       <c r="B227" s="19"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="18"/>
+    <row r="228" spans="1:2" ht="69" customHeight="1">
+      <c r="A228" s="20"/>
       <c r="B228" s="19"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="18"/>
+    <row r="229" spans="1:2" ht="69" customHeight="1">
+      <c r="A229" s="20"/>
       <c r="B229" s="19"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="18"/>
+    <row r="230" spans="1:2" ht="69" customHeight="1">
+      <c r="A230" s="20"/>
       <c r="B230" s="19"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="18"/>
+    <row r="231" spans="1:2" ht="69" customHeight="1">
+      <c r="A231" s="20"/>
       <c r="B231" s="19"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="18"/>
+    <row r="232" spans="1:2" ht="69" customHeight="1">
+      <c r="A232" s="20"/>
       <c r="B232" s="19"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="18"/>
+    <row r="233" spans="1:2" ht="69" customHeight="1">
+      <c r="A233" s="20"/>
       <c r="B233" s="19"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="18"/>
+    <row r="234" spans="1:2" ht="69" customHeight="1">
+      <c r="A234" s="20"/>
       <c r="B234" s="19"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="18"/>
+    <row r="235" spans="1:2" ht="69" customHeight="1">
+      <c r="A235" s="20"/>
       <c r="B235" s="19"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="18"/>
+    <row r="236" spans="1:2" ht="69" customHeight="1">
+      <c r="A236" s="20"/>
       <c r="B236" s="19"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:2" ht="69" customHeight="1">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:2" ht="69" customHeight="1">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:2" ht="69" customHeight="1">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:2" ht="69" customHeight="1">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
       <c r="B992" s="19"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="88.43"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="33" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5901,82 +6473,83 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="103.43"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="33" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="31.5" customHeight="1"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6962,6 +7535,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -1422,8 +1422,8 @@
   </sheetPr>
   <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="69" customHeight="1"/>

--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -1,22 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\ITI\CAR_Project\CarPurchasing\Requirments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="SRS Requirments" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer Requirments" sheetId="2" r:id="rId2"/>
-    <sheet name="Non-Functional Requirments" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="SRS Requirments" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Customer Requirments" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Non-Functional Requirments" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhwsd36kCkCAxUVC1dhpiJ8uB9+AQ=="/>
@@ -34,57 +26,22 @@
     <t>Functional Requirements</t>
   </si>
   <si>
+    <t>Car_SRS_01</t>
+  </si>
+  <si>
+    <t>Car_CR</t>
+  </si>
+  <si>
     <t>Car_NFR</t>
-  </si>
-  <si>
-    <t>Car_CR</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Car_NFR_01</t>
-  </si>
-  <si>
-    <t>CAR_CR_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The performance SLA for this application is that the application shall response not exceed 10 seconds for 90
- percentile of the total requests done when the system is loaded with 500 concurrent users.</t>
-  </si>
-  <si>
-    <t>The user can register and login and land on the car listing page with number of currently available cars</t>
-  </si>
-  <si>
-    <t>Car_SRS_01</t>
-  </si>
-  <si>
-    <t>CAR_CR_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user can search for cars based on different search criteria </t>
-  </si>
-  <si>
-    <t>CAR_CR_03</t>
-  </si>
-  <si>
-    <t>The user has the option to reserve a car from the available cars</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can register to car web app after clicking on registration button from the header of home page and it will redirect him/her 
 to registration page. 
@@ -92,70 +49,77 @@
     </r>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Car_NFR_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The performance SLA for this application is that the application shall response not exceed 10 seconds for 90
+ percentile of the total requests done when the system is loaded with 500 concurrent users.</t>
+  </si>
+  <si>
     <t>Car_SRS_02</t>
+  </si>
+  <si>
+    <t>CAR_CR_01</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can search for cars colors by choosing the desired color from the drop down list found in the home page 
 </t>
     </r>
   </si>
   <si>
+    <t>The user can register and login and land on the car listing page with number of currently available cars</t>
+  </si>
+  <si>
     <t>Car_SRS_03</t>
+  </si>
+  <si>
+    <t>CAR_CR_02</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">The user can search for cars based on different search criteria </t>
+  </si>
+  <si>
     <t>Car_SRS_04</t>
+  </si>
+  <si>
+    <t>CAR_CR_03</t>
+  </si>
+  <si>
+    <t>The user has the option to reserve a car from the available cars</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.</t>
     </r>
@@ -167,17 +131,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can search for different cars models after writing the desired car model in the search bar found in home page of car web app.  
 </t>
@@ -190,17 +147,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can only view list of cars with limited details (color,model,price) from car web app home page.  
 </t>
@@ -213,17 +163,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 If the guest clicks on the "see more " button under car image in car web app home page, it will direct him/her to the registration page to sign up first.</t>
     </r>
@@ -235,17 +178,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 If the guest tries to register with used username in registration page, error msg will be displayed as" This username is already taken ,please try again".
 </t>
@@ -258,18 +194,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>If the guest tries to register with used email in registration page, error msg will be displayed as " This email is already taken, please try again" .</t>
     </r>
   </si>
@@ -280,18 +209,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 If the guest tries to register without entering the username or the password in registration page, error msg will be displayed as "  Please fill out this field"</t>
     </r>
@@ -303,17 +225,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 If the guest tries to register with entering all the fields with valid data (username, phone, address, password, and confirm password) the guest will be redirected from registration page
  to the user home page after clicking on register button.</t>
@@ -362,17 +277,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The user can login using valid username and password after clicking on "login" button from the header of car home page and the user will be redirect 
 to the user home page.
@@ -386,17 +294,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The user can logout from user home page any time he/she wants after clicking on "logout" button from the header of user home page and it will redirect the user to car home page. 
 </t>
@@ -409,19 +310,12 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
-The user can view all cars details after clicking on see more button which redirects him/her to the car details page that may include( the model year, engine CC , 
+The user can view all cars details after clicking on see more link which redirects him/her to the car details page that may include( the model year, engine CC , 
 gear transmission , condition(new or used) , kilometers(for used cars)</t>
     </r>
   </si>
@@ -432,18 +326,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:User
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>The guest can search for cars colors by choosing the desired color from the drop down list found in the home page.</t>
     </r>
   </si>
@@ -454,17 +341,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
@@ -477,17 +357,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.
 </t>
@@ -500,17 +373,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The user can search for different cars models after writing the desired car model in the search bar found in home page of car web app. 
 </t>
@@ -523,17 +389,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The user can edit his/her personal information (phone number-address) from "My profile" page after clicking on" my profile button" from user home page.</t>
     </r>
@@ -545,17 +404,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The user can reserve a car by clicking on " reserve" button found in the car details page so the car status will be converted from free to reserved.</t>
     </r>
@@ -567,17 +419,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 The user can see his/her reserved cars after clicking on "reserved cars" button from user home page it will redirect the user to reserved car page. 
 </t>
@@ -590,17 +435,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 When the user clicks on the " see more" button from user home page, it will direct the user to "see more" page displays all car details. 
 </t>
@@ -613,20 +451,12 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
-If the user tries to login with invalid username or password, error msg will be displayed as "The fields you entered did not match our records. 
-please try again" </t>
+If the user tries to login with invalid username or password, error msg will be displayed as "worng user name or password" </t>
     </r>
   </si>
   <si>
@@ -636,17 +466,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 If the user tries to login without entering the username or the password, error msg will be displayed "Please fill out this field"           
             </t>
@@ -659,17 +482,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 When the user clicks on the "About us" button from user home page, it will direct the user to "About us" page displays all informations about car web app. </t>
     </r>
@@ -681,18 +497,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin 
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 Admin can login to admin home page using admin credential after clicking on login button from the car home page.</t>
     </r>
@@ -704,17 +513,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve"> 
 Admin can add users to the system after clicking on add users button from admin home page and it will redirect the admin to registration page.</t>
     </r>
@@ -726,18 +528,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin
  </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 In admin home page the admin can remove users from the system after clicking on "delete" button found under each user in "users" page.</t>
     </r>
@@ -749,18 +544,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve"> 
 Admin can view all information of registered users such as (username,phone,address,and email) except the password using "users" button in the admin home page. </t>
     </r>
@@ -772,17 +560,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve"> 
 Admin can add car(s) to the system using add car tab in the admin home web page.</t>
     </r>
@@ -794,17 +575,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve"> 
 Admin can remove car(s) from the system using delete car button found under each car in the "all cars" page.</t>
     </r>
@@ -816,17 +590,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve"> 
 Admin can change car status from reserved to sold from the status drop list found under each car in " all cars" page</t>
     </r>
@@ -838,18 +605,11 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin 
 </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">
 Admin can change car status from reserved to free from the status drop list found under each car in " all cars" page</t>
     </r>
@@ -868,17 +628,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin </t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve"> 
 Admin can view all the cars the user had reserved using the admin home page after clicking on Reserved button.</t>
     </r>
@@ -894,7 +647,7 @@
     <t>Car_SRS_43</t>
   </si>
   <si>
-    <t>If Reservation button found in car details page is pressed it shall change car status from free to reserved and removed the reserved car from search page.</t>
+    <t>Reservation button found for free cars in car details page once it's pressed it shall change car status from free to reserved and removed the reserved car from search page.</t>
   </si>
   <si>
     <t>Car_SRS_44</t>
@@ -949,45 +702,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -996,7 +735,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1011,14 +750,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1032,4462 +765,4156 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="69" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="150.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="16"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
+    <col customWidth="1" min="2" max="2" width="150.29"/>
+    <col customWidth="1" min="3" max="3" width="27.71"/>
+    <col customWidth="1" min="4" max="4" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="42.57"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="14" customFormat="1" ht="69" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="69" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="53.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="69" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="43.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="69" customHeight="1">
-      <c r="A4" s="15" t="s">
+    </row>
+    <row r="5" ht="43.5" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="69" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="69" customHeight="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" ht="43.5" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="69" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" ht="43.5" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="69" customHeight="1">
-      <c r="A8" s="15" t="s">
+    <row r="8" ht="43.5" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="69" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="9" ht="43.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="69" customHeight="1">
-      <c r="A10" s="15" t="s">
+    <row r="10" ht="43.5" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="69" customHeight="1">
-      <c r="A11" s="15" t="s">
+    <row r="11" ht="53.25" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="69" customHeight="1">
-      <c r="A12" s="15" t="s">
+    <row r="12" ht="53.25" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="69" customHeight="1">
-      <c r="A13" s="15" t="s">
+    <row r="13" ht="43.5" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="69" customHeight="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" ht="43.5" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="69" customHeight="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" ht="43.5" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="69" customHeight="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" ht="43.5" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="69" customHeight="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" ht="43.5" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="69" customHeight="1">
-      <c r="A18" s="15" t="s">
+    <row r="18" ht="43.5" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="69" customHeight="1">
-      <c r="A19" s="15" t="s">
+    <row r="19" ht="52.5" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="69" customHeight="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" ht="45.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="69" customHeight="1">
-      <c r="A21" s="15" t="s">
+    <row r="21" ht="58.5" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="69" customHeight="1">
-      <c r="A22" s="15" t="s">
+    <row r="22" ht="45.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-    </row>
-    <row r="23" spans="1:28" ht="69" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+    </row>
+    <row r="23" ht="45.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-    </row>
-    <row r="24" spans="1:28" ht="69" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+    </row>
+    <row r="24" ht="45.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-    </row>
-    <row r="25" spans="1:28" ht="69" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+    </row>
+    <row r="25" ht="45.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-    </row>
-    <row r="26" spans="1:28" ht="69" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+    </row>
+    <row r="26" ht="45.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-    </row>
-    <row r="27" spans="1:28" ht="69" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+    </row>
+    <row r="27" ht="63.0" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-    </row>
-    <row r="28" spans="1:28" ht="69" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+    </row>
+    <row r="28" ht="45.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-    </row>
-    <row r="29" spans="1:28" ht="69" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+    </row>
+    <row r="29" ht="45.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-    </row>
-    <row r="30" spans="1:28" ht="69" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" ht="55.5" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-    </row>
-    <row r="31" spans="1:28" ht="69" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" ht="54.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-    </row>
-    <row r="32" spans="1:28" ht="69" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" ht="45.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-    </row>
-    <row r="33" spans="1:28" ht="69" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+    </row>
+    <row r="33" ht="45.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-    </row>
-    <row r="34" spans="1:28" ht="69" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+    </row>
+    <row r="34" ht="38.25" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="69" customHeight="1">
-      <c r="A35" s="15" t="s">
+    <row r="35" ht="38.25" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="69" customHeight="1">
-      <c r="A36" s="15" t="s">
+    <row r="36" ht="36.0" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-    </row>
-    <row r="37" spans="1:28" ht="69" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" ht="45.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-    </row>
-    <row r="38" spans="1:28" ht="69" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+    </row>
+    <row r="38" ht="45.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-    </row>
-    <row r="39" spans="1:28" ht="69" customHeight="1">
-      <c r="A39" s="15" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+    </row>
+    <row r="39" ht="45.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-    </row>
-    <row r="40" spans="1:28" ht="69" customHeight="1">
-      <c r="A40" s="15" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+    </row>
+    <row r="40" ht="45.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-    </row>
-    <row r="41" spans="1:28" ht="69" customHeight="1">
-      <c r="A41" s="15" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+    </row>
+    <row r="41" ht="45.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-    </row>
-    <row r="42" spans="1:28" ht="69" customHeight="1">
-      <c r="A42" s="15" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+    </row>
+    <row r="42" ht="45.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-    </row>
-    <row r="43" spans="1:28" ht="69" customHeight="1">
-      <c r="A43" s="15" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+    </row>
+    <row r="43" ht="32.25" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-    </row>
-    <row r="44" spans="1:28" ht="69" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+    </row>
+    <row r="44" ht="19.5" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-    </row>
-    <row r="45" spans="1:28" ht="69" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+    </row>
+    <row r="45" ht="43.5" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="69" customHeight="1">
-      <c r="A46" s="15" t="s">
+    <row r="46" ht="21.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="69" customHeight="1">
-      <c r="A47" s="15" t="s">
+    <row r="47" ht="21.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="69" customHeight="1">
-      <c r="A48" s="15" t="s">
+    <row r="48" ht="21.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="69" customHeight="1">
-      <c r="A49" s="15" t="s">
+    <row r="49" ht="21.75" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="69" customHeight="1">
-      <c r="A50" s="15" t="s">
+    <row r="50" ht="21.75" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="69" customHeight="1">
-      <c r="A51" s="15" t="s">
+    <row r="51" ht="21.75" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="69" customHeight="1">
-      <c r="A52" s="15" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="69" customHeight="1">
-      <c r="A53" s="20"/>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="18"/>
       <c r="B53" s="19"/>
     </row>
-    <row r="54" spans="1:2" ht="69" customHeight="1">
-      <c r="A54" s="20"/>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="18"/>
       <c r="B54" s="19"/>
     </row>
-    <row r="55" spans="1:2" ht="69" customHeight="1">
-      <c r="A55" s="20"/>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="18"/>
       <c r="B55" s="19"/>
     </row>
-    <row r="56" spans="1:2" ht="69" customHeight="1">
-      <c r="A56" s="20"/>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="18"/>
       <c r="B56" s="19"/>
     </row>
-    <row r="57" spans="1:2" ht="69" customHeight="1">
-      <c r="A57" s="20"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="18"/>
       <c r="B57" s="19"/>
     </row>
-    <row r="58" spans="1:2" ht="69" customHeight="1">
-      <c r="A58" s="20"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="18"/>
       <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="1:2" ht="69" customHeight="1">
-      <c r="A59" s="20"/>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="18"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="1:2" ht="69" customHeight="1">
-      <c r="A60" s="20"/>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="18"/>
       <c r="B60" s="19"/>
     </row>
-    <row r="61" spans="1:2" ht="69" customHeight="1">
-      <c r="A61" s="20"/>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="18"/>
       <c r="B61" s="19"/>
     </row>
-    <row r="62" spans="1:2" ht="69" customHeight="1">
-      <c r="A62" s="20"/>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="18"/>
       <c r="B62" s="19"/>
     </row>
-    <row r="63" spans="1:2" ht="69" customHeight="1">
-      <c r="A63" s="20"/>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="18"/>
       <c r="B63" s="19"/>
     </row>
-    <row r="64" spans="1:2" ht="69" customHeight="1">
-      <c r="A64" s="20"/>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="18"/>
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="1:2" ht="69" customHeight="1">
-      <c r="A65" s="20"/>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="18"/>
       <c r="B65" s="19"/>
     </row>
-    <row r="66" spans="1:2" ht="69" customHeight="1">
-      <c r="A66" s="20"/>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="18"/>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="1:2" ht="69" customHeight="1">
-      <c r="A67" s="20"/>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="18"/>
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="1:2" ht="69" customHeight="1">
-      <c r="A68" s="20"/>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="18"/>
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="1:2" ht="69" customHeight="1">
-      <c r="A69" s="20"/>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="18"/>
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="1:2" ht="69" customHeight="1">
-      <c r="A70" s="20"/>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="18"/>
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="1:2" ht="69" customHeight="1">
-      <c r="A71" s="20"/>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="18"/>
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="1:2" ht="69" customHeight="1">
-      <c r="A72" s="20"/>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="18"/>
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="1:2" ht="69" customHeight="1">
-      <c r="A73" s="20"/>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="18"/>
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="1:2" ht="69" customHeight="1">
-      <c r="A74" s="20"/>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="18"/>
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="1:2" ht="69" customHeight="1">
-      <c r="A75" s="20"/>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="18"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="1:2" ht="69" customHeight="1">
-      <c r="A76" s="20"/>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="18"/>
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="1:2" ht="69" customHeight="1">
-      <c r="A77" s="20"/>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="18"/>
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="1:2" ht="69" customHeight="1">
-      <c r="A78" s="20"/>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="18"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="1:2" ht="69" customHeight="1">
-      <c r="A79" s="20"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="18"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="1:2" ht="69" customHeight="1">
-      <c r="A80" s="20"/>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="18"/>
       <c r="B80" s="19"/>
     </row>
-    <row r="81" spans="1:2" ht="69" customHeight="1">
-      <c r="A81" s="20"/>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="18"/>
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="1:2" ht="69" customHeight="1">
-      <c r="A82" s="20"/>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="18"/>
       <c r="B82" s="19"/>
     </row>
-    <row r="83" spans="1:2" ht="69" customHeight="1">
-      <c r="A83" s="20"/>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="18"/>
       <c r="B83" s="19"/>
     </row>
-    <row r="84" spans="1:2" ht="69" customHeight="1">
-      <c r="A84" s="20"/>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="18"/>
       <c r="B84" s="19"/>
     </row>
-    <row r="85" spans="1:2" ht="69" customHeight="1">
-      <c r="A85" s="20"/>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="18"/>
       <c r="B85" s="19"/>
     </row>
-    <row r="86" spans="1:2" ht="69" customHeight="1">
-      <c r="A86" s="20"/>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="18"/>
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="1:2" ht="69" customHeight="1">
-      <c r="A87" s="20"/>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="18"/>
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="1:2" ht="69" customHeight="1">
-      <c r="A88" s="20"/>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="18"/>
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="1:2" ht="69" customHeight="1">
-      <c r="A89" s="20"/>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="18"/>
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="1:2" ht="69" customHeight="1">
-      <c r="A90" s="20"/>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="18"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="1:2" ht="69" customHeight="1">
-      <c r="A91" s="20"/>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="18"/>
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="1:2" ht="69" customHeight="1">
-      <c r="A92" s="20"/>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="18"/>
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="1:2" ht="69" customHeight="1">
-      <c r="A93" s="20"/>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="18"/>
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="1:2" ht="69" customHeight="1">
-      <c r="A94" s="20"/>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="18"/>
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="1:2" ht="69" customHeight="1">
-      <c r="A95" s="20"/>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="18"/>
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="1:2" ht="69" customHeight="1">
-      <c r="A96" s="20"/>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="18"/>
       <c r="B96" s="19"/>
     </row>
-    <row r="97" spans="1:2" ht="69" customHeight="1">
-      <c r="A97" s="20"/>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="18"/>
       <c r="B97" s="19"/>
     </row>
-    <row r="98" spans="1:2" ht="69" customHeight="1">
-      <c r="A98" s="20"/>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="18"/>
       <c r="B98" s="19"/>
     </row>
-    <row r="99" spans="1:2" ht="69" customHeight="1">
-      <c r="A99" s="20"/>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="18"/>
       <c r="B99" s="19"/>
     </row>
-    <row r="100" spans="1:2" ht="69" customHeight="1">
-      <c r="A100" s="20"/>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="18"/>
       <c r="B100" s="19"/>
     </row>
-    <row r="101" spans="1:2" ht="69" customHeight="1">
-      <c r="A101" s="20"/>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="18"/>
       <c r="B101" s="19"/>
     </row>
-    <row r="102" spans="1:2" ht="69" customHeight="1">
-      <c r="A102" s="20"/>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="18"/>
       <c r="B102" s="19"/>
     </row>
-    <row r="103" spans="1:2" ht="69" customHeight="1">
-      <c r="A103" s="20"/>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="18"/>
       <c r="B103" s="19"/>
     </row>
-    <row r="104" spans="1:2" ht="69" customHeight="1">
-      <c r="A104" s="20"/>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="18"/>
       <c r="B104" s="19"/>
     </row>
-    <row r="105" spans="1:2" ht="69" customHeight="1">
-      <c r="A105" s="20"/>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="18"/>
       <c r="B105" s="19"/>
     </row>
-    <row r="106" spans="1:2" ht="69" customHeight="1">
-      <c r="A106" s="20"/>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="18"/>
       <c r="B106" s="19"/>
     </row>
-    <row r="107" spans="1:2" ht="69" customHeight="1">
-      <c r="A107" s="20"/>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="18"/>
       <c r="B107" s="19"/>
     </row>
-    <row r="108" spans="1:2" ht="69" customHeight="1">
-      <c r="A108" s="20"/>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="18"/>
       <c r="B108" s="19"/>
     </row>
-    <row r="109" spans="1:2" ht="69" customHeight="1">
-      <c r="A109" s="20"/>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="18"/>
       <c r="B109" s="19"/>
     </row>
-    <row r="110" spans="1:2" ht="69" customHeight="1">
-      <c r="A110" s="20"/>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="18"/>
       <c r="B110" s="19"/>
     </row>
-    <row r="111" spans="1:2" ht="69" customHeight="1">
-      <c r="A111" s="20"/>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="18"/>
       <c r="B111" s="19"/>
     </row>
-    <row r="112" spans="1:2" ht="69" customHeight="1">
-      <c r="A112" s="20"/>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="18"/>
       <c r="B112" s="19"/>
     </row>
-    <row r="113" spans="1:2" ht="69" customHeight="1">
-      <c r="A113" s="20"/>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="18"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="69" customHeight="1">
-      <c r="A114" s="20"/>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="18"/>
       <c r="B114" s="19"/>
     </row>
-    <row r="115" spans="1:2" ht="69" customHeight="1">
-      <c r="A115" s="20"/>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="18"/>
       <c r="B115" s="19"/>
     </row>
-    <row r="116" spans="1:2" ht="69" customHeight="1">
-      <c r="A116" s="20"/>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="18"/>
       <c r="B116" s="19"/>
     </row>
-    <row r="117" spans="1:2" ht="69" customHeight="1">
-      <c r="A117" s="20"/>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="18"/>
       <c r="B117" s="19"/>
     </row>
-    <row r="118" spans="1:2" ht="69" customHeight="1">
-      <c r="A118" s="20"/>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="18"/>
       <c r="B118" s="19"/>
     </row>
-    <row r="119" spans="1:2" ht="69" customHeight="1">
-      <c r="A119" s="20"/>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="18"/>
       <c r="B119" s="19"/>
     </row>
-    <row r="120" spans="1:2" ht="69" customHeight="1">
-      <c r="A120" s="20"/>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="18"/>
       <c r="B120" s="19"/>
     </row>
-    <row r="121" spans="1:2" ht="69" customHeight="1">
-      <c r="A121" s="20"/>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="18"/>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="1:2" ht="69" customHeight="1">
-      <c r="A122" s="20"/>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="18"/>
       <c r="B122" s="19"/>
     </row>
-    <row r="123" spans="1:2" ht="69" customHeight="1">
-      <c r="A123" s="20"/>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="18"/>
       <c r="B123" s="19"/>
     </row>
-    <row r="124" spans="1:2" ht="69" customHeight="1">
-      <c r="A124" s="20"/>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="18"/>
       <c r="B124" s="19"/>
     </row>
-    <row r="125" spans="1:2" ht="69" customHeight="1">
-      <c r="A125" s="20"/>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="18"/>
       <c r="B125" s="19"/>
     </row>
-    <row r="126" spans="1:2" ht="69" customHeight="1">
-      <c r="A126" s="20"/>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="18"/>
       <c r="B126" s="19"/>
     </row>
-    <row r="127" spans="1:2" ht="69" customHeight="1">
-      <c r="A127" s="20"/>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="18"/>
       <c r="B127" s="19"/>
     </row>
-    <row r="128" spans="1:2" ht="69" customHeight="1">
-      <c r="A128" s="20"/>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="18"/>
       <c r="B128" s="19"/>
     </row>
-    <row r="129" spans="1:2" ht="69" customHeight="1">
-      <c r="A129" s="20"/>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="18"/>
       <c r="B129" s="19"/>
     </row>
-    <row r="130" spans="1:2" ht="69" customHeight="1">
-      <c r="A130" s="20"/>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="18"/>
       <c r="B130" s="19"/>
     </row>
-    <row r="131" spans="1:2" ht="69" customHeight="1">
-      <c r="A131" s="20"/>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="18"/>
       <c r="B131" s="19"/>
     </row>
-    <row r="132" spans="1:2" ht="69" customHeight="1">
-      <c r="A132" s="20"/>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="18"/>
       <c r="B132" s="19"/>
     </row>
-    <row r="133" spans="1:2" ht="69" customHeight="1">
-      <c r="A133" s="20"/>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="18"/>
       <c r="B133" s="19"/>
     </row>
-    <row r="134" spans="1:2" ht="69" customHeight="1">
-      <c r="A134" s="20"/>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="18"/>
       <c r="B134" s="19"/>
     </row>
-    <row r="135" spans="1:2" ht="69" customHeight="1">
-      <c r="A135" s="20"/>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="18"/>
       <c r="B135" s="19"/>
     </row>
-    <row r="136" spans="1:2" ht="69" customHeight="1">
-      <c r="A136" s="20"/>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="18"/>
       <c r="B136" s="19"/>
     </row>
-    <row r="137" spans="1:2" ht="69" customHeight="1">
-      <c r="A137" s="20"/>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="18"/>
       <c r="B137" s="19"/>
     </row>
-    <row r="138" spans="1:2" ht="69" customHeight="1">
-      <c r="A138" s="20"/>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="18"/>
       <c r="B138" s="19"/>
     </row>
-    <row r="139" spans="1:2" ht="69" customHeight="1">
-      <c r="A139" s="20"/>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="18"/>
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="1:2" ht="69" customHeight="1">
-      <c r="A140" s="20"/>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="18"/>
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="1:2" ht="69" customHeight="1">
-      <c r="A141" s="20"/>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="18"/>
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="1:2" ht="69" customHeight="1">
-      <c r="A142" s="20"/>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="18"/>
       <c r="B142" s="19"/>
     </row>
-    <row r="143" spans="1:2" ht="69" customHeight="1">
-      <c r="A143" s="20"/>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="18"/>
       <c r="B143" s="19"/>
     </row>
-    <row r="144" spans="1:2" ht="69" customHeight="1">
-      <c r="A144" s="20"/>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="18"/>
       <c r="B144" s="19"/>
     </row>
-    <row r="145" spans="1:2" ht="69" customHeight="1">
-      <c r="A145" s="20"/>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="18"/>
       <c r="B145" s="19"/>
     </row>
-    <row r="146" spans="1:2" ht="69" customHeight="1">
-      <c r="A146" s="20"/>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="18"/>
       <c r="B146" s="19"/>
     </row>
-    <row r="147" spans="1:2" ht="69" customHeight="1">
-      <c r="A147" s="20"/>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="18"/>
       <c r="B147" s="19"/>
     </row>
-    <row r="148" spans="1:2" ht="69" customHeight="1">
-      <c r="A148" s="20"/>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="18"/>
       <c r="B148" s="19"/>
     </row>
-    <row r="149" spans="1:2" ht="69" customHeight="1">
-      <c r="A149" s="20"/>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="18"/>
       <c r="B149" s="19"/>
     </row>
-    <row r="150" spans="1:2" ht="69" customHeight="1">
-      <c r="A150" s="20"/>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="18"/>
       <c r="B150" s="19"/>
     </row>
-    <row r="151" spans="1:2" ht="69" customHeight="1">
-      <c r="A151" s="20"/>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="18"/>
       <c r="B151" s="19"/>
     </row>
-    <row r="152" spans="1:2" ht="69" customHeight="1">
-      <c r="A152" s="20"/>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="18"/>
       <c r="B152" s="19"/>
     </row>
-    <row r="153" spans="1:2" ht="69" customHeight="1">
-      <c r="A153" s="20"/>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="18"/>
       <c r="B153" s="19"/>
     </row>
-    <row r="154" spans="1:2" ht="69" customHeight="1">
-      <c r="A154" s="20"/>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="18"/>
       <c r="B154" s="19"/>
     </row>
-    <row r="155" spans="1:2" ht="69" customHeight="1">
-      <c r="A155" s="20"/>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="18"/>
       <c r="B155" s="19"/>
     </row>
-    <row r="156" spans="1:2" ht="69" customHeight="1">
-      <c r="A156" s="20"/>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="18"/>
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="1:2" ht="69" customHeight="1">
-      <c r="A157" s="20"/>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="18"/>
       <c r="B157" s="19"/>
     </row>
-    <row r="158" spans="1:2" ht="69" customHeight="1">
-      <c r="A158" s="20"/>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="18"/>
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="1:2" ht="69" customHeight="1">
-      <c r="A159" s="20"/>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="18"/>
       <c r="B159" s="19"/>
     </row>
-    <row r="160" spans="1:2" ht="69" customHeight="1">
-      <c r="A160" s="20"/>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="18"/>
       <c r="B160" s="19"/>
     </row>
-    <row r="161" spans="1:2" ht="69" customHeight="1">
-      <c r="A161" s="20"/>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="18"/>
       <c r="B161" s="19"/>
     </row>
-    <row r="162" spans="1:2" ht="69" customHeight="1">
-      <c r="A162" s="20"/>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="18"/>
       <c r="B162" s="19"/>
     </row>
-    <row r="163" spans="1:2" ht="69" customHeight="1">
-      <c r="A163" s="20"/>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="18"/>
       <c r="B163" s="19"/>
     </row>
-    <row r="164" spans="1:2" ht="69" customHeight="1">
-      <c r="A164" s="20"/>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="18"/>
       <c r="B164" s="19"/>
     </row>
-    <row r="165" spans="1:2" ht="69" customHeight="1">
-      <c r="A165" s="20"/>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="18"/>
       <c r="B165" s="19"/>
     </row>
-    <row r="166" spans="1:2" ht="69" customHeight="1">
-      <c r="A166" s="20"/>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="18"/>
       <c r="B166" s="19"/>
     </row>
-    <row r="167" spans="1:2" ht="69" customHeight="1">
-      <c r="A167" s="20"/>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="18"/>
       <c r="B167" s="19"/>
     </row>
-    <row r="168" spans="1:2" ht="69" customHeight="1">
-      <c r="A168" s="20"/>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="18"/>
       <c r="B168" s="19"/>
     </row>
-    <row r="169" spans="1:2" ht="69" customHeight="1">
-      <c r="A169" s="20"/>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="18"/>
       <c r="B169" s="19"/>
     </row>
-    <row r="170" spans="1:2" ht="69" customHeight="1">
-      <c r="A170" s="20"/>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="18"/>
       <c r="B170" s="19"/>
     </row>
-    <row r="171" spans="1:2" ht="69" customHeight="1">
-      <c r="A171" s="20"/>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="18"/>
       <c r="B171" s="19"/>
     </row>
-    <row r="172" spans="1:2" ht="69" customHeight="1">
-      <c r="A172" s="20"/>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="18"/>
       <c r="B172" s="19"/>
     </row>
-    <row r="173" spans="1:2" ht="69" customHeight="1">
-      <c r="A173" s="20"/>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="18"/>
       <c r="B173" s="19"/>
     </row>
-    <row r="174" spans="1:2" ht="69" customHeight="1">
-      <c r="A174" s="20"/>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="18"/>
       <c r="B174" s="19"/>
     </row>
-    <row r="175" spans="1:2" ht="69" customHeight="1">
-      <c r="A175" s="20"/>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="18"/>
       <c r="B175" s="19"/>
     </row>
-    <row r="176" spans="1:2" ht="69" customHeight="1">
-      <c r="A176" s="20"/>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="18"/>
       <c r="B176" s="19"/>
     </row>
-    <row r="177" spans="1:2" ht="69" customHeight="1">
-      <c r="A177" s="20"/>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="18"/>
       <c r="B177" s="19"/>
     </row>
-    <row r="178" spans="1:2" ht="69" customHeight="1">
-      <c r="A178" s="20"/>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="18"/>
       <c r="B178" s="19"/>
     </row>
-    <row r="179" spans="1:2" ht="69" customHeight="1">
-      <c r="A179" s="20"/>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="18"/>
       <c r="B179" s="19"/>
     </row>
-    <row r="180" spans="1:2" ht="69" customHeight="1">
-      <c r="A180" s="20"/>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="18"/>
       <c r="B180" s="19"/>
     </row>
-    <row r="181" spans="1:2" ht="69" customHeight="1">
-      <c r="A181" s="20"/>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="18"/>
       <c r="B181" s="19"/>
     </row>
-    <row r="182" spans="1:2" ht="69" customHeight="1">
-      <c r="A182" s="20"/>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="18"/>
       <c r="B182" s="19"/>
     </row>
-    <row r="183" spans="1:2" ht="69" customHeight="1">
-      <c r="A183" s="20"/>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="18"/>
       <c r="B183" s="19"/>
     </row>
-    <row r="184" spans="1:2" ht="69" customHeight="1">
-      <c r="A184" s="20"/>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="18"/>
       <c r="B184" s="19"/>
     </row>
-    <row r="185" spans="1:2" ht="69" customHeight="1">
-      <c r="A185" s="20"/>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="18"/>
       <c r="B185" s="19"/>
     </row>
-    <row r="186" spans="1:2" ht="69" customHeight="1">
-      <c r="A186" s="20"/>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="18"/>
       <c r="B186" s="19"/>
     </row>
-    <row r="187" spans="1:2" ht="69" customHeight="1">
-      <c r="A187" s="20"/>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="18"/>
       <c r="B187" s="19"/>
     </row>
-    <row r="188" spans="1:2" ht="69" customHeight="1">
-      <c r="A188" s="20"/>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="18"/>
       <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="1:2" ht="69" customHeight="1">
-      <c r="A189" s="20"/>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="18"/>
       <c r="B189" s="19"/>
     </row>
-    <row r="190" spans="1:2" ht="69" customHeight="1">
-      <c r="A190" s="20"/>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="18"/>
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="1:2" ht="69" customHeight="1">
-      <c r="A191" s="20"/>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="18"/>
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="1:2" ht="69" customHeight="1">
-      <c r="A192" s="20"/>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="18"/>
       <c r="B192" s="19"/>
     </row>
-    <row r="193" spans="1:2" ht="69" customHeight="1">
-      <c r="A193" s="20"/>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="18"/>
       <c r="B193" s="19"/>
     </row>
-    <row r="194" spans="1:2" ht="69" customHeight="1">
-      <c r="A194" s="20"/>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="18"/>
       <c r="B194" s="19"/>
     </row>
-    <row r="195" spans="1:2" ht="69" customHeight="1">
-      <c r="A195" s="20"/>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="18"/>
       <c r="B195" s="19"/>
     </row>
-    <row r="196" spans="1:2" ht="69" customHeight="1">
-      <c r="A196" s="20"/>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="18"/>
       <c r="B196" s="19"/>
     </row>
-    <row r="197" spans="1:2" ht="69" customHeight="1">
-      <c r="A197" s="20"/>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="18"/>
       <c r="B197" s="19"/>
     </row>
-    <row r="198" spans="1:2" ht="69" customHeight="1">
-      <c r="A198" s="20"/>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="18"/>
       <c r="B198" s="19"/>
     </row>
-    <row r="199" spans="1:2" ht="69" customHeight="1">
-      <c r="A199" s="20"/>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="18"/>
       <c r="B199" s="19"/>
     </row>
-    <row r="200" spans="1:2" ht="69" customHeight="1">
-      <c r="A200" s="20"/>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="18"/>
       <c r="B200" s="19"/>
     </row>
-    <row r="201" spans="1:2" ht="69" customHeight="1">
-      <c r="A201" s="20"/>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="18"/>
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="1:2" ht="69" customHeight="1">
-      <c r="A202" s="20"/>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="18"/>
       <c r="B202" s="19"/>
     </row>
-    <row r="203" spans="1:2" ht="69" customHeight="1">
-      <c r="A203" s="20"/>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="18"/>
       <c r="B203" s="19"/>
     </row>
-    <row r="204" spans="1:2" ht="69" customHeight="1">
-      <c r="A204" s="20"/>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="18"/>
       <c r="B204" s="19"/>
     </row>
-    <row r="205" spans="1:2" ht="69" customHeight="1">
-      <c r="A205" s="20"/>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="18"/>
       <c r="B205" s="19"/>
     </row>
-    <row r="206" spans="1:2" ht="69" customHeight="1">
-      <c r="A206" s="20"/>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="18"/>
       <c r="B206" s="19"/>
     </row>
-    <row r="207" spans="1:2" ht="69" customHeight="1">
-      <c r="A207" s="20"/>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="18"/>
       <c r="B207" s="19"/>
     </row>
-    <row r="208" spans="1:2" ht="69" customHeight="1">
-      <c r="A208" s="20"/>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="18"/>
       <c r="B208" s="19"/>
     </row>
-    <row r="209" spans="1:2" ht="69" customHeight="1">
-      <c r="A209" s="20"/>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="18"/>
       <c r="B209" s="19"/>
     </row>
-    <row r="210" spans="1:2" ht="69" customHeight="1">
-      <c r="A210" s="20"/>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="18"/>
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:2" ht="69" customHeight="1">
-      <c r="A211" s="20"/>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="18"/>
       <c r="B211" s="19"/>
     </row>
-    <row r="212" spans="1:2" ht="69" customHeight="1">
-      <c r="A212" s="20"/>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="18"/>
       <c r="B212" s="19"/>
     </row>
-    <row r="213" spans="1:2" ht="69" customHeight="1">
-      <c r="A213" s="20"/>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="18"/>
       <c r="B213" s="19"/>
     </row>
-    <row r="214" spans="1:2" ht="69" customHeight="1">
-      <c r="A214" s="20"/>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="18"/>
       <c r="B214" s="19"/>
     </row>
-    <row r="215" spans="1:2" ht="69" customHeight="1">
-      <c r="A215" s="20"/>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="18"/>
       <c r="B215" s="19"/>
     </row>
-    <row r="216" spans="1:2" ht="69" customHeight="1">
-      <c r="A216" s="20"/>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="18"/>
       <c r="B216" s="19"/>
     </row>
-    <row r="217" spans="1:2" ht="69" customHeight="1">
-      <c r="A217" s="20"/>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="18"/>
       <c r="B217" s="19"/>
     </row>
-    <row r="218" spans="1:2" ht="69" customHeight="1">
-      <c r="A218" s="20"/>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="18"/>
       <c r="B218" s="19"/>
     </row>
-    <row r="219" spans="1:2" ht="69" customHeight="1">
-      <c r="A219" s="20"/>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="18"/>
       <c r="B219" s="19"/>
     </row>
-    <row r="220" spans="1:2" ht="69" customHeight="1">
-      <c r="A220" s="20"/>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="18"/>
       <c r="B220" s="19"/>
     </row>
-    <row r="221" spans="1:2" ht="69" customHeight="1">
-      <c r="A221" s="20"/>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="18"/>
       <c r="B221" s="19"/>
     </row>
-    <row r="222" spans="1:2" ht="69" customHeight="1">
-      <c r="A222" s="20"/>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="18"/>
       <c r="B222" s="19"/>
     </row>
-    <row r="223" spans="1:2" ht="69" customHeight="1">
-      <c r="A223" s="20"/>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="18"/>
       <c r="B223" s="19"/>
     </row>
-    <row r="224" spans="1:2" ht="69" customHeight="1">
-      <c r="A224" s="20"/>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="18"/>
       <c r="B224" s="19"/>
     </row>
-    <row r="225" spans="1:2" ht="69" customHeight="1">
-      <c r="A225" s="20"/>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="18"/>
       <c r="B225" s="19"/>
     </row>
-    <row r="226" spans="1:2" ht="69" customHeight="1">
-      <c r="A226" s="20"/>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="18"/>
       <c r="B226" s="19"/>
     </row>
-    <row r="227" spans="1:2" ht="69" customHeight="1">
-      <c r="A227" s="20"/>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="18"/>
       <c r="B227" s="19"/>
     </row>
-    <row r="228" spans="1:2" ht="69" customHeight="1">
-      <c r="A228" s="20"/>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="18"/>
       <c r="B228" s="19"/>
     </row>
-    <row r="229" spans="1:2" ht="69" customHeight="1">
-      <c r="A229" s="20"/>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="18"/>
       <c r="B229" s="19"/>
     </row>
-    <row r="230" spans="1:2" ht="69" customHeight="1">
-      <c r="A230" s="20"/>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="18"/>
       <c r="B230" s="19"/>
     </row>
-    <row r="231" spans="1:2" ht="69" customHeight="1">
-      <c r="A231" s="20"/>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="18"/>
       <c r="B231" s="19"/>
     </row>
-    <row r="232" spans="1:2" ht="69" customHeight="1">
-      <c r="A232" s="20"/>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="18"/>
       <c r="B232" s="19"/>
     </row>
-    <row r="233" spans="1:2" ht="69" customHeight="1">
-      <c r="A233" s="20"/>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="18"/>
       <c r="B233" s="19"/>
     </row>
-    <row r="234" spans="1:2" ht="69" customHeight="1">
-      <c r="A234" s="20"/>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="18"/>
       <c r="B234" s="19"/>
     </row>
-    <row r="235" spans="1:2" ht="69" customHeight="1">
-      <c r="A235" s="20"/>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="18"/>
       <c r="B235" s="19"/>
     </row>
-    <row r="236" spans="1:2" ht="69" customHeight="1">
-      <c r="A236" s="20"/>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="18"/>
       <c r="B236" s="19"/>
     </row>
-    <row r="237" spans="1:2" ht="69" customHeight="1">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" spans="1:2" ht="69" customHeight="1">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" spans="1:2" ht="69" customHeight="1">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" spans="1:2" ht="69" customHeight="1">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="575" ht="15.75" customHeight="1">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="576" ht="15.75" customHeight="1">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="577" ht="15.75" customHeight="1">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="578" ht="15.75" customHeight="1">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="579" ht="15.75" customHeight="1">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="580" ht="15.75" customHeight="1">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="581" ht="15.75" customHeight="1">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="582" ht="15.75" customHeight="1">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="583" ht="15.75" customHeight="1">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="584" ht="15.75" customHeight="1">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="585" ht="15.75" customHeight="1">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="586" ht="15.75" customHeight="1">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="587" ht="15.75" customHeight="1">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="588" ht="15.75" customHeight="1">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="589" ht="15.75" customHeight="1">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="590" ht="15.75" customHeight="1">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="591" ht="15.75" customHeight="1">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="592" ht="15.75" customHeight="1">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="593" ht="15.75" customHeight="1">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="594" ht="15.75" customHeight="1">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="595" ht="15.75" customHeight="1">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="596" ht="15.75" customHeight="1">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="597" ht="15.75" customHeight="1">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="598" ht="15.75" customHeight="1">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="599" ht="15.75" customHeight="1">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="600" ht="15.75" customHeight="1">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="601" ht="15.75" customHeight="1">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="602" ht="15.75" customHeight="1">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="603" ht="15.75" customHeight="1">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="604" ht="15.75" customHeight="1">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="605" ht="15.75" customHeight="1">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="606" ht="15.75" customHeight="1">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="607" ht="15.75" customHeight="1">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="608" ht="15.75" customHeight="1">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="609" ht="15.75" customHeight="1">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="610" ht="15.75" customHeight="1">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="611" ht="15.75" customHeight="1">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="612" ht="15.75" customHeight="1">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="613" ht="15.75" customHeight="1">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="614" ht="15.75" customHeight="1">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="615" ht="15.75" customHeight="1">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="616" ht="15.75" customHeight="1">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="617" ht="15.75" customHeight="1">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="618" ht="15.75" customHeight="1">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="619" ht="15.75" customHeight="1">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="620" ht="15.75" customHeight="1">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="621" ht="15.75" customHeight="1">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="622" ht="15.75" customHeight="1">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="623" ht="15.75" customHeight="1">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="624" ht="15.75" customHeight="1">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="625" ht="15.75" customHeight="1">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="626" ht="15.75" customHeight="1">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="627" ht="15.75" customHeight="1">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="628" ht="15.75" customHeight="1">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="629" ht="15.75" customHeight="1">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="630" ht="15.75" customHeight="1">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="631" ht="15.75" customHeight="1">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="632" ht="15.75" customHeight="1">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="633" ht="15.75" customHeight="1">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="634" ht="15.75" customHeight="1">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="635" ht="15.75" customHeight="1">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="636" ht="15.75" customHeight="1">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="637" ht="15.75" customHeight="1">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="638" ht="15.75" customHeight="1">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="639" ht="15.75" customHeight="1">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="640" ht="15.75" customHeight="1">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="641" ht="15.75" customHeight="1">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="642" ht="15.75" customHeight="1">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="643" ht="15.75" customHeight="1">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="644" ht="15.75" customHeight="1">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="645" ht="15.75" customHeight="1">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="646" ht="15.75" customHeight="1">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="647" ht="15.75" customHeight="1">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="648" ht="15.75" customHeight="1">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="649" ht="15.75" customHeight="1">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="650" ht="15.75" customHeight="1">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="651" ht="15.75" customHeight="1">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="652" ht="15.75" customHeight="1">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="653" ht="15.75" customHeight="1">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="654" ht="15.75" customHeight="1">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="655" ht="15.75" customHeight="1">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="656" ht="15.75" customHeight="1">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="657" ht="15.75" customHeight="1">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="658" ht="15.75" customHeight="1">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="659" ht="15.75" customHeight="1">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="660" ht="15.75" customHeight="1">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="661" ht="15.75" customHeight="1">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="662" ht="15.75" customHeight="1">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="663" ht="15.75" customHeight="1">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="664" ht="15.75" customHeight="1">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="665" ht="15.75" customHeight="1">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="666" ht="15.75" customHeight="1">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="667" ht="15.75" customHeight="1">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="668" ht="15.75" customHeight="1">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="669" ht="15.75" customHeight="1">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="670" ht="15.75" customHeight="1">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="671" ht="15.75" customHeight="1">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="672" ht="15.75" customHeight="1">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="673" ht="15.75" customHeight="1">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="688" ht="15.75" customHeight="1">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="695" ht="15.75" customHeight="1">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="747" ht="15.75" customHeight="1">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="776" ht="15.75" customHeight="1">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="777" ht="15.75" customHeight="1">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="778" ht="15.75" customHeight="1">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="779" ht="15.75" customHeight="1">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="780" ht="15.75" customHeight="1">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="781" ht="15.75" customHeight="1">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="782" ht="15.75" customHeight="1">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="783" ht="15.75" customHeight="1">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="784" ht="15.75" customHeight="1">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="785" ht="15.75" customHeight="1">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="786" ht="15.75" customHeight="1">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="787" ht="15.75" customHeight="1">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="788" ht="15.75" customHeight="1">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="789" ht="15.75" customHeight="1">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="790" ht="15.75" customHeight="1">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="791" ht="15.75" customHeight="1">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="792" ht="15.75" customHeight="1">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="793" ht="15.75" customHeight="1">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="794" ht="15.75" customHeight="1">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="795" ht="15.75" customHeight="1">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="796" ht="15.75" customHeight="1">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="797" ht="15.75" customHeight="1">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="798" ht="15.75" customHeight="1">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="799" ht="15.75" customHeight="1">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="800" ht="15.75" customHeight="1">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="801" ht="15.75" customHeight="1">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="802" ht="15.75" customHeight="1">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="803" ht="15.75" customHeight="1">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="804" ht="15.75" customHeight="1">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="805" ht="15.75" customHeight="1">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="806" ht="15.75" customHeight="1">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="807" ht="15.75" customHeight="1">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="808" ht="15.75" customHeight="1">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="809" ht="15.75" customHeight="1">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="810" ht="15.75" customHeight="1">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="811" ht="15.75" customHeight="1">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="812" ht="15.75" customHeight="1">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="813" ht="15.75" customHeight="1">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="814" ht="15.75" customHeight="1">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="815" ht="15.75" customHeight="1">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="816" ht="15.75" customHeight="1">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="817" ht="15.75" customHeight="1">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="818" ht="15.75" customHeight="1">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="819" ht="15.75" customHeight="1">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="820" ht="15.75" customHeight="1">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="821" ht="15.75" customHeight="1">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="822" ht="15.75" customHeight="1">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="823" ht="15.75" customHeight="1">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="824" ht="15.75" customHeight="1">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="825" ht="15.75" customHeight="1">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="826" ht="15.75" customHeight="1">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="827" ht="15.75" customHeight="1">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="828" ht="15.75" customHeight="1">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="829" ht="15.75" customHeight="1">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="830" ht="15.75" customHeight="1">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="831" ht="15.75" customHeight="1">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="832" ht="15.75" customHeight="1">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="833" ht="15.75" customHeight="1">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="834" ht="15.75" customHeight="1">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="835" ht="15.75" customHeight="1">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="836" ht="15.75" customHeight="1">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="837" ht="15.75" customHeight="1">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="838" ht="15.75" customHeight="1">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="839" ht="15.75" customHeight="1">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="840" ht="15.75" customHeight="1">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="841" ht="15.75" customHeight="1">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="842" ht="15.75" customHeight="1">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="843" ht="15.75" customHeight="1">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="844" ht="15.75" customHeight="1">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="845" ht="15.75" customHeight="1">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="846" ht="15.75" customHeight="1">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="847" ht="15.75" customHeight="1">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="848" ht="15.75" customHeight="1">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="849" ht="15.75" customHeight="1">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="850" ht="15.75" customHeight="1">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="851" ht="15.75" customHeight="1">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="852" ht="15.75" customHeight="1">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="853" ht="15.75" customHeight="1">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="854" ht="15.75" customHeight="1">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="855" ht="15.75" customHeight="1">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="856" ht="15.75" customHeight="1">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="857" ht="15.75" customHeight="1">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="858" ht="15.75" customHeight="1">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="859" ht="15.75" customHeight="1">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="860" ht="15.75" customHeight="1">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="861" ht="15.75" customHeight="1">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="862" ht="15.75" customHeight="1">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="863" ht="15.75" customHeight="1">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="864" ht="15.75" customHeight="1">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="865" ht="15.75" customHeight="1">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="866" ht="15.75" customHeight="1">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="867" ht="15.75" customHeight="1">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="868" ht="15.75" customHeight="1">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="869" ht="15.75" customHeight="1">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="870" ht="15.75" customHeight="1">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="871" ht="15.75" customHeight="1">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="872" ht="15.75" customHeight="1">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="873" ht="15.75" customHeight="1">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="874" ht="15.75" customHeight="1">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="875" ht="15.75" customHeight="1">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="876" ht="15.75" customHeight="1">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="877" ht="15.75" customHeight="1">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="878" ht="15.75" customHeight="1">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="879" ht="15.75" customHeight="1">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="880" ht="15.75" customHeight="1">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="881" ht="15.75" customHeight="1">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="882" ht="15.75" customHeight="1">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="883" ht="15.75" customHeight="1">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="884" ht="15.75" customHeight="1">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="885" ht="15.75" customHeight="1">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="886" ht="15.75" customHeight="1">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="887" ht="15.75" customHeight="1">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="888" ht="15.75" customHeight="1">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="889" ht="15.75" customHeight="1">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="890" ht="15.75" customHeight="1">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="891" ht="15.75" customHeight="1">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="892" ht="15.75" customHeight="1">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="893" ht="15.75" customHeight="1">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="894" ht="15.75" customHeight="1">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="895" ht="15.75" customHeight="1">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="896" ht="15.75" customHeight="1">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="897" ht="15.75" customHeight="1">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="898" ht="15.75" customHeight="1">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="899" ht="15.75" customHeight="1">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="900" ht="15.75" customHeight="1">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="901" ht="15.75" customHeight="1">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="902" ht="15.75" customHeight="1">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="903" ht="15.75" customHeight="1">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="904" ht="15.75" customHeight="1">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="905" ht="15.75" customHeight="1">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="906" ht="15.75" customHeight="1">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="907" ht="15.75" customHeight="1">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="908" ht="15.75" customHeight="1">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="909" ht="15.75" customHeight="1">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="910" ht="15.75" customHeight="1">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="911" ht="15.75" customHeight="1">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="912" ht="15.75" customHeight="1">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="913" ht="15.75" customHeight="1">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="914" ht="15.75" customHeight="1">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="915" ht="15.75" customHeight="1">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="916" ht="15.75" customHeight="1">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="917" ht="15.75" customHeight="1">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="918" ht="15.75" customHeight="1">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="919" ht="15.75" customHeight="1">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="920" ht="15.75" customHeight="1">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="921" ht="15.75" customHeight="1">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="922" ht="15.75" customHeight="1">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="923" ht="15.75" customHeight="1">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="924" ht="15.75" customHeight="1">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="925" ht="15.75" customHeight="1">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="926" ht="15.75" customHeight="1">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="927" ht="15.75" customHeight="1">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="928" ht="15.75" customHeight="1">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="929" ht="15.75" customHeight="1">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="930" ht="15.75" customHeight="1">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="931" ht="15.75" customHeight="1">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="932" ht="15.75" customHeight="1">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="933" ht="15.75" customHeight="1">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="934" ht="15.75" customHeight="1">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="935" ht="15.75" customHeight="1">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="936" ht="15.75" customHeight="1">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="937" ht="15.75" customHeight="1">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="938" ht="15.75" customHeight="1">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="939" ht="15.75" customHeight="1">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="940" ht="15.75" customHeight="1">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="941" ht="15.75" customHeight="1">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="942" ht="15.75" customHeight="1">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="943" ht="15.75" customHeight="1">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="944" ht="15.75" customHeight="1">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="945" ht="15.75" customHeight="1">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="946" ht="15.75" customHeight="1">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="947" ht="15.75" customHeight="1">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="948" ht="15.75" customHeight="1">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="949" ht="15.75" customHeight="1">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="950" ht="15.75" customHeight="1">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="951" ht="15.75" customHeight="1">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="952" ht="15.75" customHeight="1">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="953" ht="15.75" customHeight="1">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="954" ht="15.75" customHeight="1">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="955" ht="15.75" customHeight="1">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="956" ht="15.75" customHeight="1">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="957" ht="15.75" customHeight="1">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="958" ht="15.75" customHeight="1">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="959" ht="15.75" customHeight="1">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="960" ht="15.75" customHeight="1">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="961" ht="15.75" customHeight="1">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="962" ht="15.75" customHeight="1">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="963" ht="15.75" customHeight="1">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="964" ht="15.75" customHeight="1">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="965" ht="15.75" customHeight="1">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="966" ht="15.75" customHeight="1">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="967" ht="15.75" customHeight="1">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="968" ht="15.75" customHeight="1">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="969" ht="15.75" customHeight="1">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="970" ht="15.75" customHeight="1">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="971" ht="15.75" customHeight="1">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="972" ht="15.75" customHeight="1">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="973" ht="15.75" customHeight="1">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="974" ht="15.75" customHeight="1">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="975" ht="15.75" customHeight="1">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="976" ht="15.75" customHeight="1">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="977" ht="15.75" customHeight="1">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="978" ht="15.75" customHeight="1">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="979" ht="15.75" customHeight="1">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="980" ht="15.75" customHeight="1">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="981" ht="15.75" customHeight="1">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="982" ht="15.75" customHeight="1">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="983" ht="15.75" customHeight="1">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="984" ht="15.75" customHeight="1">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="985" ht="15.75" customHeight="1">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="986" ht="15.75" customHeight="1">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="987" ht="15.75" customHeight="1">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="988" ht="15.75" customHeight="1">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="989" ht="15.75" customHeight="1">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="990" ht="15.75" customHeight="1">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="991" ht="15.75" customHeight="1">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" spans="2:2" s="16" customFormat="1" ht="69" customHeight="1">
+    <row r="992" ht="15.75" customHeight="1">
       <c r="B992" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
+    <col customWidth="1" min="2" max="2" width="88.43"/>
+    <col customWidth="1" min="3" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" ht="33.0" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="3" ht="31.5" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6473,83 +5900,82 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
+    <col customWidth="1" min="2" max="2" width="103.43"/>
+    <col customWidth="1" min="3" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" ht="33.0" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1"/>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="31.5" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7535,6 +6961,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatma\Desktop\CarPurchasing\Requirments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SRS Requirments" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Customer Requirments" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Non-Functional Requirments" sheetId="3" r:id="rId5"/>
+    <sheet name="SRS Requirments" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer Requirments" sheetId="2" r:id="rId2"/>
+    <sheet name="Non-Functional Requirments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhwsd36kCkCAxUVC1dhpiJ8uB9+AQ=="/>
@@ -38,10 +46,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can register to car web app after clicking on registration button from the header of home page and it will redirect him/her 
 to registration page. 
@@ -68,11 +83,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can search for cars colors by choosing the desired color from the drop down list found in the home page 
 </t>
@@ -91,10 +113,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
@@ -116,10 +145,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.</t>
     </r>
@@ -131,10 +167,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can search for different cars models after writing the desired car model in the search bar found in home page of car web app.  
 </t>
@@ -147,10 +190,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can only view list of cars with limited details (color,model,price) from car web app home page.  
 </t>
@@ -163,10 +213,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest clicks on the "see more " button under car image in car web app home page, it will direct him/her to the registration page to sign up first.</t>
     </r>
@@ -178,10 +235,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest tries to register with used username in registration page, error msg will be displayed as" This username is already taken ,please try again".
 </t>
@@ -194,11 +258,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>If the guest tries to register with used email in registration page, error msg will be displayed as " This email is already taken, please try again" .</t>
     </r>
   </si>
@@ -209,11 +280,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Guest
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest tries to register without entering the username or the password in registration page, error msg will be displayed as "  Please fill out this field"</t>
     </r>
@@ -225,10 +303,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Guest</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 If the guest tries to register with entering all the fields with valid data (username, phone, address, password, and confirm password) the guest will be redirected from registration page
  to the user home page after clicking on register button.</t>
@@ -277,10 +362,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can login using valid username and password after clicking on "login" button from the header of car home page and the user will be redirect 
 to the user home page.
@@ -294,10 +386,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can logout from user home page any time he/she wants after clicking on "logout" button from the header of user home page and it will redirect the user to car home page. 
 </t>
@@ -310,10 +409,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can view all cars details after clicking on see more link which redirects him/her to the car details page that may include( the model year, engine CC , 
 gear transmission , condition(new or used) , kilometers(for used cars)</t>
@@ -326,11 +432,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:User
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>The guest can search for cars colors by choosing the desired color from the drop down list found in the home page.</t>
     </r>
   </si>
@@ -341,10 +454,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "high to low" from the price drop down list found in the home page.
 </t>
@@ -357,10 +477,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The guest can sort cars by price by choosing "low to high" from the price drop down list found in the home page.
 </t>
@@ -373,10 +500,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 The user can search for different cars models after writing the desired car model in the search bar found in home page of car web app. 
 </t>
@@ -386,122 +520,159 @@
     <t>Car_SRS_25</t>
   </si>
   <si>
+    <t>Car_SRS_26</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
-The user can edit his/her personal information (phone number-address) from "My profile" page after clicking on" my profile button" from user home page.</t>
+The user can reserve a car by clicking on " reserve" button found in the car details page so the car status will be converted from free to reserved.</t>
     </r>
   </si>
   <si>
-    <t>Car_SRS_26</t>
+    <t>Car_SRS_27</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
-The user can reserve a car by clicking on " reserve" button found in the car details page so the car status will be converted from free to reserved.</t>
+The user can see his/her reserved cars after clicking on "reserved cars" button from user home page it will redirect the user to reserved car page. 
+</t>
     </r>
   </si>
   <si>
-    <t>Car_SRS_27</t>
+    <t>Car_SRS_28</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
-The user can see his/her reserved cars after clicking on "reserved cars" button from user home page it will redirect the user to reserved car page. 
+When the user clicks on the " see more" button from user home page, it will direct the user to "see more" page displays all car details. 
 </t>
     </r>
   </si>
   <si>
-    <t>Car_SRS_28</t>
+    <t>Car_SRS_29</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
-When the user clicks on the " see more" button from user home page, it will direct the user to "see more" page displays all car details. 
-</t>
+If the user tries to login with invalid username or password, error msg will be displayed as "worng user name or password" </t>
     </r>
   </si>
   <si>
-    <t>Car_SRS_29</t>
+    <t>Car_SRS_30</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
-If the user tries to login with invalid username or password, error msg will be displayed as "worng user name or password" </t>
+If the user tries to login without entering the username or the password, error msg will be displayed "Please fill out this field"           
+            </t>
     </r>
   </si>
   <si>
-    <t>Car_SRS_30</t>
+    <t>Car_SRS_31</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:User</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
-If the user tries to login without entering the username or the password, error msg will be displayed "Please fill out this field"           
-            </t>
+When the user clicks on the "About us" button from user home page, it will direct the user to "About us" page displays all informations about car web app. </t>
     </r>
   </si>
   <si>
-    <t>Car_SRS_31</t>
+    <t>Car_SRS_32</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-      </rPr>
-      <t>Role:User</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-When the user clicks on the "About us" button from user home page, it will direct the user to "About us" page displays all informations about car web app. </t>
-    </r>
-  </si>
-  <si>
-    <t>Car_SRS_32</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin 
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 Admin can login to admin home page using admin credential after clicking on login button from the car home page.</t>
     </r>
@@ -513,10 +684,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can add users to the system after clicking on add users button from admin home page and it will redirect the admin to registration page.</t>
     </r>
@@ -528,11 +706,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin
  </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 In admin home page the admin can remove users from the system after clicking on "delete" button found under each user in "users" page.</t>
     </r>
@@ -544,11 +729,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can view all information of registered users such as (username,phone,address,and email) except the password using "users" button in the admin home page. </t>
     </r>
@@ -560,10 +752,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can add car(s) to the system using add car tab in the admin home web page.</t>
     </r>
@@ -575,10 +774,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can remove car(s) from the system using delete car button found under each car in the "all cars" page.</t>
     </r>
@@ -590,10 +796,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Role:Admin</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can change car status from reserved to sold from the status drop list found under each car in " all cars" page</t>
     </r>
@@ -605,11 +818,18 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin 
 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">
 Admin can change car status from reserved to free from the status drop list found under each car in " all cars" page</t>
     </r>
@@ -628,10 +848,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Role:Admin </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 
 Admin can view all the cars the user had reserved using the admin home page after clicking on Reserved button.</t>
     </r>
@@ -697,36 +924,69 @@
   </si>
   <si>
     <t xml:space="preserve">Admin home page shal contain "Add cars"button, once it's pressed, add cars page shall be loaded contains(car type, car model, car price, and car description) fields. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Role:User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+The user can edit his/her personal information (Email-address) from "My profile" page after clicking on" my profile button" from user home page.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -735,7 +995,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -751,7 +1011,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -765,107 +1031,360 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="150.29"/>
-    <col customWidth="1" min="3" max="3" width="27.71"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="42.57"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="150.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="53.25" customHeight="1">
+    <row r="2" spans="1:2" ht="53.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -881,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="43.5" customHeight="1">
+    <row r="3" spans="1:2" ht="43.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -889,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="43.5" customHeight="1">
+    <row r="4" spans="1:2" ht="43.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="43.5" customHeight="1">
+    <row r="5" spans="1:2" ht="43.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -905,7 +1424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="43.5" customHeight="1">
+    <row r="6" spans="1:2" ht="43.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -913,7 +1432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="43.5" customHeight="1">
+    <row r="7" spans="1:2" ht="43.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -921,7 +1440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="43.5" customHeight="1">
+    <row r="8" spans="1:2" ht="43.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -929,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="43.5" customHeight="1">
+    <row r="9" spans="1:2" ht="43.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -937,7 +1456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="43.5" customHeight="1">
+    <row r="10" spans="1:2" ht="43.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -945,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="53.25" customHeight="1">
+    <row r="11" spans="1:2" ht="53.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -953,7 +1472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="53.25" customHeight="1">
+    <row r="12" spans="1:2" ht="53.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -961,7 +1480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="43.5" customHeight="1">
+    <row r="13" spans="1:2" ht="43.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -969,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="43.5" customHeight="1">
+    <row r="14" spans="1:2" ht="43.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -977,7 +1496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="43.5" customHeight="1">
+    <row r="15" spans="1:2" ht="43.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -985,7 +1504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="43.5" customHeight="1">
+    <row r="16" spans="1:2" ht="43.5" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -993,7 +1512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="43.5" customHeight="1">
+    <row r="17" spans="1:28" ht="43.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1001,7 +1520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="43.5" customHeight="1">
+    <row r="18" spans="1:28" ht="43.5" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1009,7 +1528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="52.5" customHeight="1">
+    <row r="19" spans="1:28" ht="52.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="45.75" customHeight="1">
+    <row r="20" spans="1:28" ht="45.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1025,7 +1544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="58.5" customHeight="1">
+    <row r="21" spans="1:28" ht="58.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1033,7 +1552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="45.75" customHeight="1">
+    <row r="22" spans="1:28" ht="45.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1067,7 +1586,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
     </row>
-    <row r="23" ht="45.75" customHeight="1">
+    <row r="23" spans="1:28" ht="45.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -1101,7 +1620,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
     </row>
-    <row r="24" ht="45.75" customHeight="1">
+    <row r="24" spans="1:28" ht="45.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1135,7 +1654,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
     </row>
-    <row r="25" ht="45.75" customHeight="1">
+    <row r="25" spans="1:28" ht="45.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1169,12 +1688,12 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26" ht="45.75" customHeight="1">
+    <row r="26" spans="1:28" ht="45.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
+      <c r="B26" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1203,12 +1722,12 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
     </row>
-    <row r="27" ht="63.0" customHeight="1">
+    <row r="27" spans="1:28" ht="63" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1237,12 +1756,12 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" ht="45.75" customHeight="1">
+    <row r="28" spans="1:28" ht="45.75" customHeight="1">
       <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
@@ -1271,12 +1790,12 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
     </row>
-    <row r="29" ht="45.75" customHeight="1">
+    <row r="29" spans="1:28" ht="45.75" customHeight="1">
       <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1305,12 +1824,12 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
     </row>
-    <row r="30" ht="55.5" customHeight="1">
+    <row r="30" spans="1:28" ht="55.5" customHeight="1">
       <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1339,12 +1858,12 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" ht="54.75" customHeight="1">
+    <row r="31" spans="1:28" ht="54.75" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1373,12 +1892,12 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
     </row>
-    <row r="32" ht="45.75" customHeight="1">
+    <row r="32" spans="1:28" ht="45.75" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1407,12 +1926,12 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" ht="45.75" customHeight="1">
+    <row r="33" spans="1:28" ht="45.75" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1441,28 +1960,28 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" ht="38.25" customHeight="1">
+    <row r="34" spans="1:28" ht="38.25" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="13" t="s">
+    </row>
+    <row r="35" spans="1:28" ht="38.25" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" ht="38.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="13" t="s">
+    </row>
+    <row r="36" spans="1:28" ht="36" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" ht="36.0" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1491,12 +2010,12 @@
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
     </row>
-    <row r="37" ht="45.75" customHeight="1">
+    <row r="37" spans="1:28" ht="45.75" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1525,12 +2044,12 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
     </row>
-    <row r="38" ht="45.75" customHeight="1">
+    <row r="38" spans="1:28" ht="45.75" customHeight="1">
       <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1559,12 +2078,12 @@
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
     </row>
-    <row r="39" ht="45.75" customHeight="1">
+    <row r="39" spans="1:28" ht="45.75" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1593,12 +2112,12 @@
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
     </row>
-    <row r="40" ht="45.75" customHeight="1">
+    <row r="40" spans="1:28" ht="45.75" customHeight="1">
       <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1627,12 +2146,12 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
     </row>
-    <row r="41" ht="45.75" customHeight="1">
+    <row r="41" spans="1:28" ht="45.75" customHeight="1">
       <c r="A41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1661,12 +2180,12 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
     </row>
-    <row r="42" ht="45.75" customHeight="1">
+    <row r="42" spans="1:28" ht="45.75" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1695,12 +2214,12 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
     </row>
-    <row r="43" ht="32.25" customHeight="1">
+    <row r="43" spans="1:28" ht="32.25" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1729,12 +2248,12 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
     </row>
-    <row r="44" ht="19.5" customHeight="1">
+    <row r="44" spans="1:28" ht="19.5" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1763,3095 +2282,3096 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
     </row>
-    <row r="45" ht="43.5" customHeight="1">
+    <row r="45" spans="1:28" ht="43.5" customHeight="1">
       <c r="A45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="4" t="s">
+    </row>
+    <row r="46" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" ht="21.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" ht="21.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="4" t="s">
+    </row>
+    <row r="48" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" ht="21.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="4" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" ht="21.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="4" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" ht="21.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="4" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" ht="21.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:2" ht="15.75" customHeight="1">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:2" ht="15.75" customHeight="1">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:2" ht="15.75" customHeight="1">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:2" ht="15.75" customHeight="1">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:2" ht="15.75" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:2" ht="15.75" customHeight="1">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:2" ht="15.75" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:2" ht="15.75" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:2" ht="15.75" customHeight="1">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:2" ht="15.75" customHeight="1">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:2" ht="15.75" customHeight="1">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:2" ht="15.75" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:2" ht="15.75" customHeight="1">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:2" ht="15.75" customHeight="1">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:2" ht="15.75" customHeight="1">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:2" ht="15.75" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:2" ht="15.75" customHeight="1">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:2" ht="15.75" customHeight="1">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:2" ht="15.75" customHeight="1">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:2" ht="15.75" customHeight="1">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:2" ht="15.75" customHeight="1">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:2" ht="15.75" customHeight="1">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:2" ht="15.75" customHeight="1">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:2" ht="15.75" customHeight="1">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:2" ht="15.75" customHeight="1">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:2" ht="15.75" customHeight="1">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:2" ht="15.75" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:2" ht="15.75" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:2" ht="15.75" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:2" ht="15.75" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:2" ht="15.75" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:2" ht="15.75" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:2" ht="15.75" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:2" ht="15.75" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:2" ht="15.75" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:2" ht="15.75" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:2" ht="15.75" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:2" ht="15.75" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:2" ht="15.75" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:2" ht="15.75" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:2" ht="15.75" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:2" ht="15.75" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:2" ht="15.75" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:2" ht="15.75" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:2" ht="15.75" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:2" ht="15.75" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:2" ht="15.75" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:2" ht="15.75" customHeight="1">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:2" ht="15.75" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:2" ht="15.75" customHeight="1">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:2" ht="15.75" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:2" ht="15.75" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:2" ht="15.75" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:2" ht="15.75" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:2" ht="15.75" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:2" ht="15.75" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:2" ht="15.75" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:2" ht="15.75" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:2" ht="15.75" customHeight="1">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:2" ht="15.75" customHeight="1">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:2" ht="15.75" customHeight="1">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:2" ht="15.75" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:2" ht="15.75" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:2" ht="15.75" customHeight="1">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:2" ht="15.75" customHeight="1">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:2" ht="15.75" customHeight="1">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:2" ht="15.75" customHeight="1">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:2" ht="15.75" customHeight="1">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:2" ht="15.75" customHeight="1">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:2" ht="15.75" customHeight="1">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:2" ht="15.75" customHeight="1">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:2" ht="15.75" customHeight="1">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:2" ht="15.75" customHeight="1">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:2" ht="15.75" customHeight="1">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:2" ht="15.75" customHeight="1">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="2:2" ht="15.75" customHeight="1">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="2:2" ht="15.75" customHeight="1">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="2:2" ht="15.75" customHeight="1">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="2:2" ht="15.75" customHeight="1">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="2:2" ht="15.75" customHeight="1">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="2:2" ht="15.75" customHeight="1">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="2:2" ht="15.75" customHeight="1">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="2:2" ht="15.75" customHeight="1">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="2:2" ht="15.75" customHeight="1">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="2:2" ht="15.75" customHeight="1">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="2:2" ht="15.75" customHeight="1">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="2:2" ht="15.75" customHeight="1">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="2:2" ht="15.75" customHeight="1">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="2:2" ht="15.75" customHeight="1">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="2:2" ht="15.75" customHeight="1">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="2:2" ht="15.75" customHeight="1">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="2:2" ht="15.75" customHeight="1">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="2:2" ht="15.75" customHeight="1">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="2:2" ht="15.75" customHeight="1">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="2:2" ht="15.75" customHeight="1">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="2:2" ht="15.75" customHeight="1">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="2:2" ht="15.75" customHeight="1">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="2:2" ht="15.75" customHeight="1">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="2:2" ht="15.75" customHeight="1">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="2:2" ht="15.75" customHeight="1">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="2:2" ht="15.75" customHeight="1">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="2:2" ht="15.75" customHeight="1">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="2:2" ht="15.75" customHeight="1">
       <c r="B992" s="19"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="88.43"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4879,7 +5399,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" ht="33.0" customHeight="1">
+    <row r="2" spans="1:22" ht="33" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +5407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +5415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" spans="1:22" ht="31.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4903,18 +5423,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5900,26 +6420,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="103.43"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -5947,7 +6468,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" ht="33.0" customHeight="1">
+    <row r="2" spans="1:22" ht="33" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -5959,23 +6480,23 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" ht="31.5" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:22" ht="31.5" customHeight="1"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6961,6 +7482,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatma\Desktop\CarPurchasing\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15888" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="SRS Requirments" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>Car_ID</t>
   </si>
@@ -944,12 +944,24 @@
 The user can edit his/her personal information (Email-address) from "My profile" page after clicking on" my profile button" from user home page.</t>
     </r>
   </si>
+  <si>
+    <t>Car_SRS_52</t>
+  </si>
+  <si>
+    <t>Users can sell their cars using "sell Car button" in the users home page</t>
+  </si>
+  <si>
+    <t>Car_SRS_53</t>
+  </si>
+  <si>
+    <t>Users can preview their "for sale" cars using "Reseved car" button in user home page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1370,21 +1382,21 @@
   </sheetPr>
   <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="150.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="150.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="53.25" customHeight="1">
+    <row r="2" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" customHeight="1">
+    <row r="3" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" customHeight="1">
+    <row r="4" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5" customHeight="1">
+    <row r="5" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5" customHeight="1">
+    <row r="6" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.5" customHeight="1">
+    <row r="7" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.5" customHeight="1">
+    <row r="8" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" customHeight="1">
+    <row r="9" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1456,7 +1468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.5" customHeight="1">
+    <row r="10" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="53.25" customHeight="1">
+    <row r="11" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="53.25" customHeight="1">
+    <row r="12" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.5" customHeight="1">
+    <row r="13" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.5" customHeight="1">
+    <row r="14" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5" customHeight="1">
+    <row r="15" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5" customHeight="1">
+    <row r="16" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="43.5" customHeight="1">
+    <row r="17" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="43.5" customHeight="1">
+    <row r="18" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="52.5" customHeight="1">
+    <row r="19" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="45.75" customHeight="1">
+    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="58.5" customHeight="1">
+    <row r="21" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="45.75" customHeight="1">
+    <row r="22" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1586,7 +1598,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
     </row>
-    <row r="23" spans="1:28" ht="45.75" customHeight="1">
+    <row r="23" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1632,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
     </row>
-    <row r="24" spans="1:28" ht="45.75" customHeight="1">
+    <row r="24" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1654,7 +1666,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
     </row>
-    <row r="25" spans="1:28" ht="45.75" customHeight="1">
+    <row r="25" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1688,7 +1700,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26" spans="1:28" ht="45.75" customHeight="1">
+    <row r="26" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1722,7 +1734,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
     </row>
-    <row r="27" spans="1:28" ht="63" customHeight="1">
+    <row r="27" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1756,7 +1768,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="1:28" ht="45.75" customHeight="1">
+    <row r="28" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -1790,7 +1802,7 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
     </row>
-    <row r="29" spans="1:28" ht="45.75" customHeight="1">
+    <row r="29" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1836,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
     </row>
-    <row r="30" spans="1:28" ht="55.5" customHeight="1">
+    <row r="30" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1858,7 +1870,7 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" spans="1:28" ht="54.75" customHeight="1">
+    <row r="31" spans="1:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -1892,7 +1904,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
     </row>
-    <row r="32" spans="1:28" ht="45.75" customHeight="1">
+    <row r="32" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1926,7 +1938,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="1:28" ht="45.75" customHeight="1">
+    <row r="33" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -1960,7 +1972,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" spans="1:28" ht="38.25" customHeight="1">
+    <row r="34" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="38.25" customHeight="1">
+    <row r="35" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="36" customHeight="1">
+    <row r="36" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -2010,7 +2022,7 @@
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
     </row>
-    <row r="37" spans="1:28" ht="45.75" customHeight="1">
+    <row r="37" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
@@ -2044,7 +2056,7 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
     </row>
-    <row r="38" spans="1:28" ht="45.75" customHeight="1">
+    <row r="38" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -2078,7 +2090,7 @@
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
     </row>
-    <row r="39" spans="1:28" ht="45.75" customHeight="1">
+    <row r="39" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2112,7 +2124,7 @@
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
     </row>
-    <row r="40" spans="1:28" ht="45.75" customHeight="1">
+    <row r="40" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
@@ -2146,7 +2158,7 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
     </row>
-    <row r="41" spans="1:28" ht="45.75" customHeight="1">
+    <row r="41" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
@@ -2180,7 +2192,7 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
     </row>
-    <row r="42" spans="1:28" ht="45.75" customHeight="1">
+    <row r="42" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -2214,7 +2226,7 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
     </row>
-    <row r="43" spans="1:28" ht="32.25" customHeight="1">
+    <row r="43" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -2248,7 +2260,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
     </row>
-    <row r="44" spans="1:28" ht="19.5" customHeight="1">
+    <row r="44" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -2282,7 +2294,7 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
     </row>
-    <row r="45" spans="1:28" ht="43.5" customHeight="1">
+    <row r="45" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="21.75" customHeight="1">
+    <row r="46" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="21.75" customHeight="1">
+    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -2306,7 +2318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="21.75" customHeight="1">
+    <row r="48" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21.75" customHeight="1">
+    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21.75" customHeight="1">
+    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21.75" customHeight="1">
+    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>110</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>112</v>
       </c>
@@ -2346,3008 +2358,3016 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
     </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
     </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
     </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
     </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
     </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
     </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
     </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
     </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1">
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1">
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
     </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1">
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
     </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1">
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
     </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1">
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
     </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
     </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
     </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
     </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
     </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
     </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1">
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
     </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1">
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
     </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1">
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
     </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1">
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
     </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1">
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
     </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
     </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
     </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
     </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
     </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
     </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
     </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
     </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
     </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1">
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
     </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1">
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
     </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1">
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1">
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
     </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1">
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
     </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
     </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1">
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
     </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1">
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
     </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1">
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
     </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1">
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
     </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1">
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
     </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1">
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
     </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1">
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
     </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1">
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
     </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1">
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
     </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1">
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
     </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1">
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
     </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1">
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1">
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
     </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1">
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1">
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
     </row>
-    <row r="160" spans="1:2" ht="15.75" customHeight="1">
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
     </row>
-    <row r="161" spans="1:2" ht="15.75" customHeight="1">
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
     </row>
-    <row r="162" spans="1:2" ht="15.75" customHeight="1">
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
     </row>
-    <row r="163" spans="1:2" ht="15.75" customHeight="1">
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
     </row>
-    <row r="164" spans="1:2" ht="15.75" customHeight="1">
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
     </row>
-    <row r="165" spans="1:2" ht="15.75" customHeight="1">
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
     </row>
-    <row r="166" spans="1:2" ht="15.75" customHeight="1">
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
     </row>
-    <row r="167" spans="1:2" ht="15.75" customHeight="1">
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
     </row>
-    <row r="168" spans="1:2" ht="15.75" customHeight="1">
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
     </row>
-    <row r="169" spans="1:2" ht="15.75" customHeight="1">
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
     </row>
-    <row r="170" spans="1:2" ht="15.75" customHeight="1">
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
     </row>
-    <row r="171" spans="1:2" ht="15.75" customHeight="1">
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
     </row>
-    <row r="172" spans="1:2" ht="15.75" customHeight="1">
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
     </row>
-    <row r="173" spans="1:2" ht="15.75" customHeight="1">
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
     </row>
-    <row r="174" spans="1:2" ht="15.75" customHeight="1">
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
     </row>
-    <row r="175" spans="1:2" ht="15.75" customHeight="1">
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
     </row>
-    <row r="176" spans="1:2" ht="15.75" customHeight="1">
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
     </row>
-    <row r="177" spans="1:2" ht="15.75" customHeight="1">
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
     </row>
-    <row r="178" spans="1:2" ht="15.75" customHeight="1">
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
     </row>
-    <row r="179" spans="1:2" ht="15.75" customHeight="1">
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
     </row>
-    <row r="180" spans="1:2" ht="15.75" customHeight="1">
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
     </row>
-    <row r="181" spans="1:2" ht="15.75" customHeight="1">
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
     </row>
-    <row r="182" spans="1:2" ht="15.75" customHeight="1">
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
     </row>
-    <row r="183" spans="1:2" ht="15.75" customHeight="1">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
     </row>
-    <row r="184" spans="1:2" ht="15.75" customHeight="1">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
     </row>
-    <row r="185" spans="1:2" ht="15.75" customHeight="1">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
     </row>
-    <row r="186" spans="1:2" ht="15.75" customHeight="1">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
     </row>
-    <row r="187" spans="1:2" ht="15.75" customHeight="1">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
     </row>
-    <row r="188" spans="1:2" ht="15.75" customHeight="1">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="1:2" ht="15.75" customHeight="1">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
     </row>
-    <row r="190" spans="1:2" ht="15.75" customHeight="1">
+    <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="1:2" ht="15.75" customHeight="1">
+    <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="1:2" ht="15.75" customHeight="1">
+    <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
     </row>
-    <row r="193" spans="1:2" ht="15.75" customHeight="1">
+    <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
     </row>
-    <row r="194" spans="1:2" ht="15.75" customHeight="1">
+    <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
     </row>
-    <row r="195" spans="1:2" ht="15.75" customHeight="1">
+    <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
     </row>
-    <row r="196" spans="1:2" ht="15.75" customHeight="1">
+    <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
     </row>
-    <row r="197" spans="1:2" ht="15.75" customHeight="1">
+    <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
     </row>
-    <row r="198" spans="1:2" ht="15.75" customHeight="1">
+    <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
     </row>
-    <row r="199" spans="1:2" ht="15.75" customHeight="1">
+    <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
     </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
     </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1">
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
     </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
     </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1">
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
     </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
     </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
     </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1">
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
     </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1">
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
     </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1">
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
     </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1">
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
     </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1">
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
     </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
     </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1">
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
     </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1">
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
     </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1">
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
     </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1">
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
     </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1">
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
     </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
     </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
     </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
     </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
     </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
     </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
     </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
     </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
     </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
     </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
     </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
     </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
     </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" spans="2:2" ht="15.75" customHeight="1">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" spans="2:2" ht="15.75" customHeight="1">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" spans="2:2" ht="15.75" customHeight="1">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" spans="2:2" ht="15.75" customHeight="1">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" spans="2:2" ht="15.75" customHeight="1">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" spans="2:2" ht="15.75" customHeight="1">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" ht="15.75" customHeight="1">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" ht="15.75" customHeight="1">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" ht="15.75" customHeight="1">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" ht="15.75" customHeight="1">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" ht="15.75" customHeight="1">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" spans="2:2" ht="15.75" customHeight="1">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" spans="2:2" ht="15.75" customHeight="1">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" spans="2:2" ht="15.75" customHeight="1">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" spans="2:2" ht="15.75" customHeight="1">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" spans="2:2" ht="15.75" customHeight="1">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" spans="2:2" ht="15.75" customHeight="1">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" spans="2:2" ht="15.75" customHeight="1">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" spans="2:2" ht="15.75" customHeight="1">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" spans="2:2" ht="15.75" customHeight="1">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" spans="2:2" ht="15.75" customHeight="1">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" spans="2:2" ht="15.75" customHeight="1">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" spans="2:2" ht="15.75" customHeight="1">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" spans="2:2" ht="15.75" customHeight="1">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" spans="2:2" ht="15.75" customHeight="1">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" spans="2:2" ht="15.75" customHeight="1">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" spans="2:2" ht="15.75" customHeight="1">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" spans="2:2" ht="15.75" customHeight="1">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" spans="2:2" ht="15.75" customHeight="1">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" spans="2:2" ht="15.75" customHeight="1">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" spans="2:2" ht="15.75" customHeight="1">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" spans="2:2" ht="15.75" customHeight="1">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" spans="2:2" ht="15.75" customHeight="1">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" spans="2:2" ht="15.75" customHeight="1">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" spans="2:2" ht="15.75" customHeight="1">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" spans="2:2" ht="15.75" customHeight="1">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" spans="2:2" ht="15.75" customHeight="1">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" spans="2:2" ht="15.75" customHeight="1">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" spans="2:2" ht="15.75" customHeight="1">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" spans="2:2" ht="15.75" customHeight="1">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" spans="2:2" ht="15.75" customHeight="1">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" spans="2:2" ht="15.75" customHeight="1">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" spans="2:2" ht="15.75" customHeight="1">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" spans="2:2" ht="15.75" customHeight="1">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" spans="2:2" ht="15.75" customHeight="1">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" spans="2:2" ht="15.75" customHeight="1">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" spans="2:2" ht="15.75" customHeight="1">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" spans="2:2" ht="15.75" customHeight="1">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" spans="2:2" ht="15.75" customHeight="1">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" spans="2:2" ht="15.75" customHeight="1">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" spans="2:2" ht="15.75" customHeight="1">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" spans="2:2" ht="15.75" customHeight="1">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" spans="2:2" ht="15.75" customHeight="1">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" spans="2:2" ht="15.75" customHeight="1">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" spans="2:2" ht="15.75" customHeight="1">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" spans="2:2" ht="15.75" customHeight="1">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" spans="2:2" ht="15.75" customHeight="1">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" spans="2:2" ht="15.75" customHeight="1">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" spans="2:2" ht="15.75" customHeight="1">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" spans="2:2" ht="15.75" customHeight="1">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" spans="2:2" ht="15.75" customHeight="1">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" spans="2:2" ht="15.75" customHeight="1">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" spans="2:2" ht="15.75" customHeight="1">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" spans="2:2" ht="15.75" customHeight="1">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" spans="2:2" ht="15.75" customHeight="1">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" spans="2:2" ht="15.75" customHeight="1">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" spans="2:2" ht="15.75" customHeight="1">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" spans="2:2" ht="15.75" customHeight="1">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" spans="2:2" ht="15.75" customHeight="1">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" spans="2:2" ht="15.75" customHeight="1">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" spans="2:2" ht="15.75" customHeight="1">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" spans="2:2" ht="15.75" customHeight="1">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" spans="2:2" ht="15.75" customHeight="1">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" spans="2:2" ht="15.75" customHeight="1">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" spans="2:2" ht="15.75" customHeight="1">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" spans="2:2" ht="15.75" customHeight="1">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" spans="2:2" ht="15.75" customHeight="1">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" spans="2:2" ht="15.75" customHeight="1">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" spans="2:2" ht="15.75" customHeight="1">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" spans="2:2" ht="15.75" customHeight="1">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" spans="2:2" ht="15.75" customHeight="1">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" spans="2:2" ht="15.75" customHeight="1">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" spans="2:2" ht="15.75" customHeight="1">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" spans="2:2" ht="15.75" customHeight="1">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" spans="2:2" ht="15.75" customHeight="1">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" spans="2:2" ht="15.75" customHeight="1">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" spans="2:2" ht="15.75" customHeight="1">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" spans="2:2" ht="15.75" customHeight="1">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" spans="2:2" ht="15.75" customHeight="1">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" spans="2:2" ht="15.75" customHeight="1">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" spans="2:2" ht="15.75" customHeight="1">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" spans="2:2" ht="15.75" customHeight="1">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" spans="2:2" ht="15.75" customHeight="1">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" spans="2:2" ht="15.75" customHeight="1">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" spans="2:2" ht="15.75" customHeight="1">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" spans="2:2" ht="15.75" customHeight="1">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" spans="2:2" ht="15.75" customHeight="1">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" spans="2:2" ht="15.75" customHeight="1">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" spans="2:2" ht="15.75" customHeight="1">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" spans="2:2" ht="15.75" customHeight="1">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" spans="2:2" ht="15.75" customHeight="1">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" spans="2:2" ht="15.75" customHeight="1">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" spans="2:2" ht="15.75" customHeight="1">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" spans="2:2" ht="15.75" customHeight="1">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" spans="2:2" ht="15.75" customHeight="1">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" spans="2:2" ht="15.75" customHeight="1">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" spans="2:2" ht="15.75" customHeight="1">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" spans="2:2" ht="15.75" customHeight="1">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" spans="2:2" ht="15.75" customHeight="1">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" spans="2:2" ht="15.75" customHeight="1">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" spans="2:2" ht="15.75" customHeight="1">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" spans="2:2" ht="15.75" customHeight="1">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" spans="2:2" ht="15.75" customHeight="1">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" spans="2:2" ht="15.75" customHeight="1">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" spans="2:2" ht="15.75" customHeight="1">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" spans="2:2" ht="15.75" customHeight="1">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" spans="2:2" ht="15.75" customHeight="1">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" spans="2:2" ht="15.75" customHeight="1">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" spans="2:2" ht="15.75" customHeight="1">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" spans="2:2" ht="15.75" customHeight="1">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" spans="2:2" ht="15.75" customHeight="1">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" spans="2:2" ht="15.75" customHeight="1">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" spans="2:2" ht="15.75" customHeight="1">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" spans="2:2" ht="15.75" customHeight="1">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" spans="2:2" ht="15.75" customHeight="1">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" spans="2:2" ht="15.75" customHeight="1">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" spans="2:2" ht="15.75" customHeight="1">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" spans="2:2" ht="15.75" customHeight="1">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" spans="2:2" ht="15.75" customHeight="1">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" spans="2:2" ht="15.75" customHeight="1">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" spans="2:2" ht="15.75" customHeight="1">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" spans="2:2" ht="15.75" customHeight="1">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" spans="2:2" ht="15.75" customHeight="1">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" spans="2:2" ht="15.75" customHeight="1">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" spans="2:2" ht="15.75" customHeight="1">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" spans="2:2" ht="15.75" customHeight="1">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" spans="2:2" ht="15.75" customHeight="1">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" spans="2:2" ht="15.75" customHeight="1">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" spans="2:2" ht="15.75" customHeight="1">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" spans="2:2" ht="15.75" customHeight="1">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" spans="2:2" ht="15.75" customHeight="1">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" spans="2:2" ht="15.75" customHeight="1">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" spans="2:2" ht="15.75" customHeight="1">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" spans="2:2" ht="15.75" customHeight="1">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" spans="2:2" ht="15.75" customHeight="1">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" spans="2:2" ht="15.75" customHeight="1">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" spans="2:2" ht="15.75" customHeight="1">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" spans="2:2" ht="15.75" customHeight="1">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" spans="2:2" ht="15.75" customHeight="1">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" spans="2:2" ht="15.75" customHeight="1">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" spans="2:2" ht="15.75" customHeight="1">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" spans="2:2" ht="15.75" customHeight="1">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" spans="2:2" ht="15.75" customHeight="1">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" spans="2:2" ht="15.75" customHeight="1">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" spans="2:2" ht="15.75" customHeight="1">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" spans="2:2" ht="15.75" customHeight="1">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" spans="2:2" ht="15.75" customHeight="1">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" spans="2:2" ht="15.75" customHeight="1">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" spans="2:2" ht="15.75" customHeight="1">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" spans="2:2" ht="15.75" customHeight="1">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" spans="2:2" ht="15.75" customHeight="1">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" spans="2:2" ht="15.75" customHeight="1">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" spans="2:2" ht="15.75" customHeight="1">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" spans="2:2" ht="15.75" customHeight="1">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" spans="2:2" ht="15.75" customHeight="1">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" spans="2:2" ht="15.75" customHeight="1">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" spans="2:2" ht="15.75" customHeight="1">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" spans="2:2" ht="15.75" customHeight="1">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" spans="2:2" ht="15.75" customHeight="1">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" spans="2:2" ht="15.75" customHeight="1">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" spans="2:2" ht="15.75" customHeight="1">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" spans="2:2" ht="15.75" customHeight="1">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" spans="2:2" ht="15.75" customHeight="1">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" spans="2:2" ht="15.75" customHeight="1">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" spans="2:2" ht="15.75" customHeight="1">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" spans="2:2" ht="15.75" customHeight="1">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" spans="2:2" ht="15.75" customHeight="1">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" spans="2:2" ht="15.75" customHeight="1">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" spans="2:2" ht="15.75" customHeight="1">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" spans="2:2" ht="15.75" customHeight="1">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" spans="2:2" ht="15.75" customHeight="1">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" spans="2:2" ht="15.75" customHeight="1">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" spans="2:2" ht="15.75" customHeight="1">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" spans="2:2" ht="15.75" customHeight="1">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" spans="2:2" ht="15.75" customHeight="1">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" spans="2:2" ht="15.75" customHeight="1">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" spans="2:2" ht="15.75" customHeight="1">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" spans="2:2" ht="15.75" customHeight="1">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" spans="2:2" ht="15.75" customHeight="1">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" spans="2:2" ht="15.75" customHeight="1">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" spans="2:2" ht="15.75" customHeight="1">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" spans="2:2" ht="15.75" customHeight="1">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" spans="2:2" ht="15.75" customHeight="1">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" spans="2:2" ht="15.75" customHeight="1">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" spans="2:2" ht="15.75" customHeight="1">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" spans="2:2" ht="15.75" customHeight="1">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" spans="2:2" ht="15.75" customHeight="1">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" spans="2:2" ht="15.75" customHeight="1">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" spans="2:2" ht="15.75" customHeight="1">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" spans="2:2" ht="15.75" customHeight="1">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" spans="2:2" ht="15.75" customHeight="1">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" spans="2:2" ht="15.75" customHeight="1">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" spans="2:2" ht="15.75" customHeight="1">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" spans="2:2" ht="15.75" customHeight="1">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" spans="2:2" ht="15.75" customHeight="1">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" spans="2:2" ht="15.75" customHeight="1">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" spans="2:2" ht="15.75" customHeight="1">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" spans="2:2" ht="15.75" customHeight="1">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" spans="2:2" ht="15.75" customHeight="1">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" spans="2:2" ht="15.75" customHeight="1">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" spans="2:2" ht="15.75" customHeight="1">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" spans="2:2" ht="15.75" customHeight="1">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" spans="2:2" ht="15.75" customHeight="1">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" spans="2:2" ht="15.75" customHeight="1">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" spans="2:2" ht="15.75" customHeight="1">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" spans="2:2" ht="15.75" customHeight="1">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" spans="2:2" ht="15.75" customHeight="1">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" spans="2:2" ht="15.75" customHeight="1">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" spans="2:2" ht="15.75" customHeight="1">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" spans="2:2" ht="15.75" customHeight="1">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" spans="2:2" ht="15.75" customHeight="1">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" spans="2:2" ht="15.75" customHeight="1">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" spans="2:2" ht="15.75" customHeight="1">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" spans="2:2" ht="15.75" customHeight="1">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" spans="2:2" ht="15.75" customHeight="1">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" spans="2:2" ht="15.75" customHeight="1">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" spans="2:2" ht="15.75" customHeight="1">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" spans="2:2" ht="15.75" customHeight="1">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" spans="2:2" ht="15.75" customHeight="1">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" spans="2:2" ht="15.75" customHeight="1">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" spans="2:2" ht="15.75" customHeight="1">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" spans="2:2" ht="15.75" customHeight="1">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" spans="2:2" ht="15.75" customHeight="1">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" spans="2:2" ht="15.75" customHeight="1">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" spans="2:2" ht="15.75" customHeight="1">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" spans="2:2" ht="15.75" customHeight="1">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" spans="2:2" ht="15.75" customHeight="1">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" spans="2:2" ht="15.75" customHeight="1">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" spans="2:2" ht="15.75" customHeight="1">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" spans="2:2" ht="15.75" customHeight="1">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" spans="2:2" ht="15.75" customHeight="1">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" spans="2:2" ht="15.75" customHeight="1">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" spans="2:2" ht="15.75" customHeight="1">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" spans="2:2" ht="15.75" customHeight="1">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" spans="2:2" ht="15.75" customHeight="1">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" spans="2:2" ht="15.75" customHeight="1">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" spans="2:2" ht="15.75" customHeight="1">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" spans="2:2" ht="15.75" customHeight="1">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" spans="2:2" ht="15.75" customHeight="1">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" spans="2:2" ht="15.75" customHeight="1">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" spans="2:2" ht="15.75" customHeight="1">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" spans="2:2" ht="15.75" customHeight="1">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" spans="2:2" ht="15.75" customHeight="1">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" spans="2:2" ht="15.75" customHeight="1">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" spans="2:2" ht="15.75" customHeight="1">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" spans="2:2" ht="15.75" customHeight="1">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" spans="2:2" ht="15.75" customHeight="1">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" spans="2:2" ht="15.75" customHeight="1">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" spans="2:2" ht="15.75" customHeight="1">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" spans="2:2" ht="15.75" customHeight="1">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" spans="2:2" ht="15.75" customHeight="1">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" spans="2:2" ht="15.75" customHeight="1">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" spans="2:2" ht="15.75" customHeight="1">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" spans="2:2" ht="15.75" customHeight="1">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" spans="2:2" ht="15.75" customHeight="1">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" spans="2:2" ht="15.75" customHeight="1">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" spans="2:2" ht="15.75" customHeight="1">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" spans="2:2" ht="15.75" customHeight="1">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" spans="2:2" ht="15.75" customHeight="1">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" spans="2:2" ht="15.75" customHeight="1">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" spans="2:2" ht="15.75" customHeight="1">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" spans="2:2" ht="15.75" customHeight="1">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" spans="2:2" ht="15.75" customHeight="1">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" spans="2:2" ht="15.75" customHeight="1">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" spans="2:2" ht="15.75" customHeight="1">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" spans="2:2" ht="15.75" customHeight="1">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" spans="2:2" ht="15.75" customHeight="1">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" spans="2:2" ht="15.75" customHeight="1">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" spans="2:2" ht="15.75" customHeight="1">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" spans="2:2" ht="15.75" customHeight="1">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" spans="2:2" ht="15.75" customHeight="1">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" spans="2:2" ht="15.75" customHeight="1">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" spans="2:2" ht="15.75" customHeight="1">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" spans="2:2" ht="15.75" customHeight="1">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" spans="2:2" ht="15.75" customHeight="1">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" spans="2:2" ht="15.75" customHeight="1">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" spans="2:2" ht="15.75" customHeight="1">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" spans="2:2" ht="15.75" customHeight="1">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" spans="2:2" ht="15.75" customHeight="1">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" spans="2:2" ht="15.75" customHeight="1">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" spans="2:2" ht="15.75" customHeight="1">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" spans="2:2" ht="15.75" customHeight="1">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" spans="2:2" ht="15.75" customHeight="1">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" spans="2:2" ht="15.75" customHeight="1">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" spans="2:2" ht="15.75" customHeight="1">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" spans="2:2" ht="15.75" customHeight="1">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" spans="2:2" ht="15.75" customHeight="1">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" spans="2:2" ht="15.75" customHeight="1">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" spans="2:2" ht="15.75" customHeight="1">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" spans="2:2" ht="15.75" customHeight="1">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" spans="2:2" ht="15.75" customHeight="1">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" spans="2:2" ht="15.75" customHeight="1">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" spans="2:2" ht="15.75" customHeight="1">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" spans="2:2" ht="15.75" customHeight="1">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" spans="2:2" ht="15.75" customHeight="1">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" spans="2:2" ht="15.75" customHeight="1">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" spans="2:2" ht="15.75" customHeight="1">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" spans="2:2" ht="15.75" customHeight="1">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" spans="2:2" ht="15.75" customHeight="1">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" spans="2:2" ht="15.75" customHeight="1">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" spans="2:2" ht="15.75" customHeight="1">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" spans="2:2" ht="15.75" customHeight="1">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" spans="2:2" ht="15.75" customHeight="1">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" spans="2:2" ht="15.75" customHeight="1">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" spans="2:2" ht="15.75" customHeight="1">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" spans="2:2" ht="15.75" customHeight="1">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" spans="2:2" ht="15.75" customHeight="1">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" spans="2:2" ht="15.75" customHeight="1">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" spans="2:2" ht="15.75" customHeight="1">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" spans="2:2" ht="15.75" customHeight="1">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" spans="2:2" ht="15.75" customHeight="1">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" spans="2:2" ht="15.75" customHeight="1">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" spans="2:2" ht="15.75" customHeight="1">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" spans="2:2" ht="15.75" customHeight="1">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" spans="2:2" ht="15.75" customHeight="1">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" spans="2:2" ht="15.75" customHeight="1">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" spans="2:2" ht="15.75" customHeight="1">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" spans="2:2" ht="15.75" customHeight="1">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" spans="2:2" ht="15.75" customHeight="1">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" spans="2:2" ht="15.75" customHeight="1">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" spans="2:2" ht="15.75" customHeight="1">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" spans="2:2" ht="15.75" customHeight="1">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" spans="2:2" ht="15.75" customHeight="1">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" spans="2:2" ht="15.75" customHeight="1">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" spans="2:2" ht="15.75" customHeight="1">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" spans="2:2" ht="15.75" customHeight="1">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" spans="2:2" ht="15.75" customHeight="1">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" spans="2:2" ht="15.75" customHeight="1">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" spans="2:2" ht="15.75" customHeight="1">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" spans="2:2" ht="15.75" customHeight="1">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" spans="2:2" ht="15.75" customHeight="1">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" spans="2:2" ht="15.75" customHeight="1">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" spans="2:2" ht="15.75" customHeight="1">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" spans="2:2" ht="15.75" customHeight="1">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" spans="2:2" ht="15.75" customHeight="1">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" spans="2:2" ht="15.75" customHeight="1">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" spans="2:2" ht="15.75" customHeight="1">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" spans="2:2" ht="15.75" customHeight="1">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" spans="2:2" ht="15.75" customHeight="1">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" spans="2:2" ht="15.75" customHeight="1">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" spans="2:2" ht="15.75" customHeight="1">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" spans="2:2" ht="15.75" customHeight="1">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" spans="2:2" ht="15.75" customHeight="1">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" spans="2:2" ht="15.75" customHeight="1">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" spans="2:2" ht="15.75" customHeight="1">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" spans="2:2" ht="15.75" customHeight="1">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" spans="2:2" ht="15.75" customHeight="1">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" spans="2:2" ht="15.75" customHeight="1">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" spans="2:2" ht="15.75" customHeight="1">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" spans="2:2" ht="15.75" customHeight="1">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" spans="2:2" ht="15.75" customHeight="1">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" spans="2:2" ht="15.75" customHeight="1">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" spans="2:2" ht="15.75" customHeight="1">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" spans="2:2" ht="15.75" customHeight="1">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" spans="2:2" ht="15.75" customHeight="1">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" spans="2:2" ht="15.75" customHeight="1">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" spans="2:2" ht="15.75" customHeight="1">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" spans="2:2" ht="15.75" customHeight="1">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" spans="2:2" ht="15.75" customHeight="1">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" spans="2:2" ht="15.75" customHeight="1">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" spans="2:2" ht="15.75" customHeight="1">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" spans="2:2" ht="15.75" customHeight="1">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" spans="2:2" ht="15.75" customHeight="1">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" spans="2:2" ht="15.75" customHeight="1">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" spans="2:2" ht="15.75" customHeight="1">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" spans="2:2" ht="15.75" customHeight="1">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" spans="2:2" ht="15.75" customHeight="1">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" spans="2:2" ht="15.75" customHeight="1">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" spans="2:2" ht="15.75" customHeight="1">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" spans="2:2" ht="15.75" customHeight="1">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" spans="2:2" ht="15.75" customHeight="1">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" spans="2:2" ht="15.75" customHeight="1">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" spans="2:2" ht="15.75" customHeight="1">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" spans="2:2" ht="15.75" customHeight="1">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" spans="2:2" ht="15.75" customHeight="1">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" spans="2:2" ht="15.75" customHeight="1">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" spans="2:2" ht="15.75" customHeight="1">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" spans="2:2" ht="15.75" customHeight="1">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" spans="2:2" ht="15.75" customHeight="1">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" spans="2:2" ht="15.75" customHeight="1">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" spans="2:2" ht="15.75" customHeight="1">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" spans="2:2" ht="15.75" customHeight="1">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" spans="2:2" ht="15.75" customHeight="1">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" spans="2:2" ht="15.75" customHeight="1">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" spans="2:2" ht="15.75" customHeight="1">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" spans="2:2" ht="15.75" customHeight="1">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" spans="2:2" ht="15.75" customHeight="1">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" spans="2:2" ht="15.75" customHeight="1">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" spans="2:2" ht="15.75" customHeight="1">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" spans="2:2" ht="15.75" customHeight="1">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" spans="2:2" ht="15.75" customHeight="1">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" spans="2:2" ht="15.75" customHeight="1">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" spans="2:2" ht="15.75" customHeight="1">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" spans="2:2" ht="15.75" customHeight="1">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" spans="2:2" ht="15.75" customHeight="1">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" spans="2:2" ht="15.75" customHeight="1">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" spans="2:2" ht="15.75" customHeight="1">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" spans="2:2" ht="15.75" customHeight="1">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" spans="2:2" ht="15.75" customHeight="1">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" spans="2:2" ht="15.75" customHeight="1">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" spans="2:2" ht="15.75" customHeight="1">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" spans="2:2" ht="15.75" customHeight="1">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" spans="2:2" ht="15.75" customHeight="1">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" spans="2:2" ht="15.75" customHeight="1">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" spans="2:2" ht="15.75" customHeight="1">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" spans="2:2" ht="15.75" customHeight="1">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" spans="2:2" ht="15.75" customHeight="1">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" spans="2:2" ht="15.75" customHeight="1">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" spans="2:2" ht="15.75" customHeight="1">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" spans="2:2" ht="15.75" customHeight="1">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" spans="2:2" ht="15.75" customHeight="1">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" spans="2:2" ht="15.75" customHeight="1">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" spans="2:2" ht="15.75" customHeight="1">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" spans="2:2" ht="15.75" customHeight="1">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" spans="2:2" ht="15.75" customHeight="1">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" spans="2:2" ht="15.75" customHeight="1">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" spans="2:2" ht="15.75" customHeight="1">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" spans="2:2" ht="15.75" customHeight="1">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" spans="2:2" ht="15.75" customHeight="1">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" spans="2:2" ht="15.75" customHeight="1">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" spans="2:2" ht="15.75" customHeight="1">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" spans="2:2" ht="15.75" customHeight="1">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" spans="2:2" ht="15.75" customHeight="1">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" spans="2:2" ht="15.75" customHeight="1">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" spans="2:2" ht="15.75" customHeight="1">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" spans="2:2" ht="15.75" customHeight="1">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" spans="2:2" ht="15.75" customHeight="1">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" spans="2:2" ht="15.75" customHeight="1">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" spans="2:2" ht="15.75" customHeight="1">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" spans="2:2" ht="15.75" customHeight="1">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" spans="2:2" ht="15.75" customHeight="1">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" spans="2:2" ht="15.75" customHeight="1">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" spans="2:2" ht="15.75" customHeight="1">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" spans="2:2" ht="15.75" customHeight="1">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" spans="2:2" ht="15.75" customHeight="1">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" spans="2:2" ht="15.75" customHeight="1">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" spans="2:2" ht="15.75" customHeight="1">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" spans="2:2" ht="15.75" customHeight="1">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" spans="2:2" ht="15.75" customHeight="1">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" spans="2:2" ht="15.75" customHeight="1">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" spans="2:2" ht="15.75" customHeight="1">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" spans="2:2" ht="15.75" customHeight="1">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" spans="2:2" ht="15.75" customHeight="1">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" spans="2:2" ht="15.75" customHeight="1">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" spans="2:2" ht="15.75" customHeight="1">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" spans="2:2" ht="15.75" customHeight="1">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" spans="2:2" ht="15.75" customHeight="1">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" spans="2:2" ht="15.75" customHeight="1">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" spans="2:2" ht="15.75" customHeight="1">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" spans="2:2" ht="15.75" customHeight="1">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" spans="2:2" ht="15.75" customHeight="1">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" spans="2:2" ht="15.75" customHeight="1">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" spans="2:2" ht="15.75" customHeight="1">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" spans="2:2" ht="15.75" customHeight="1">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" spans="2:2" ht="15.75" customHeight="1">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" spans="2:2" ht="15.75" customHeight="1">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" spans="2:2" ht="15.75" customHeight="1">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" spans="2:2" ht="15.75" customHeight="1">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" spans="2:2" ht="15.75" customHeight="1">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" spans="2:2" ht="15.75" customHeight="1">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" spans="2:2" ht="15.75" customHeight="1">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" spans="2:2" ht="15.75" customHeight="1">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" spans="2:2" ht="15.75" customHeight="1">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" spans="2:2" ht="15.75" customHeight="1">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" spans="2:2" ht="15.75" customHeight="1">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" spans="2:2" ht="15.75" customHeight="1">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" spans="2:2" ht="15.75" customHeight="1">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" spans="2:2" ht="15.75" customHeight="1">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" spans="2:2" ht="15.75" customHeight="1">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" spans="2:2" ht="15.75" customHeight="1">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" spans="2:2" ht="15.75" customHeight="1">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" spans="2:2" ht="15.75" customHeight="1">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" spans="2:2" ht="15.75" customHeight="1">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" spans="2:2" ht="15.75" customHeight="1">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" spans="2:2" ht="15.75" customHeight="1">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" spans="2:2" ht="15.75" customHeight="1">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" spans="2:2" ht="15.75" customHeight="1">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" spans="2:2" ht="15.75" customHeight="1">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" spans="2:2" ht="15.75" customHeight="1">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" spans="2:2" ht="15.75" customHeight="1">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" spans="2:2" ht="15.75" customHeight="1">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" spans="2:2" ht="15.75" customHeight="1">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" spans="2:2" ht="15.75" customHeight="1">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" spans="2:2" ht="15.75" customHeight="1">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" spans="2:2" ht="15.75" customHeight="1">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" spans="2:2" ht="15.75" customHeight="1">
+    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" spans="2:2" ht="15.75" customHeight="1">
+    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" spans="2:2" ht="15.75" customHeight="1">
+    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" spans="2:2" ht="15.75" customHeight="1">
+    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" spans="2:2" ht="15.75" customHeight="1">
+    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" spans="2:2" ht="15.75" customHeight="1">
+    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" spans="2:2" ht="15.75" customHeight="1">
+    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" spans="2:2" ht="15.75" customHeight="1">
+    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" spans="2:2" ht="15.75" customHeight="1">
+    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" spans="2:2" ht="15.75" customHeight="1">
+    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" spans="2:2" ht="15.75" customHeight="1">
+    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" spans="2:2" ht="15.75" customHeight="1">
+    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" spans="2:2" ht="15.75" customHeight="1">
+    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" spans="2:2" ht="15.75" customHeight="1">
+    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" spans="2:2" ht="15.75" customHeight="1">
+    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" spans="2:2" ht="15.75" customHeight="1">
+    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" spans="2:2" ht="15.75" customHeight="1">
+    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" spans="2:2" ht="15.75" customHeight="1">
+    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" spans="2:2" ht="15.75" customHeight="1">
+    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" spans="2:2" ht="15.75" customHeight="1">
+    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" spans="2:2" ht="15.75" customHeight="1">
+    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" spans="2:2" ht="15.75" customHeight="1">
+    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" spans="2:2" ht="15.75" customHeight="1">
+    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" spans="2:2" ht="15.75" customHeight="1">
+    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" spans="2:2" ht="15.75" customHeight="1">
+    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" spans="2:2" ht="15.75" customHeight="1">
+    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" spans="2:2" ht="15.75" customHeight="1">
+    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" spans="2:2" ht="15.75" customHeight="1">
+    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B992" s="19"/>
     </row>
   </sheetData>
@@ -5364,14 +5384,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="88.44140625" customWidth="1"/>
+    <col min="3" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5399,7 +5419,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1">
+    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5407,7 +5427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -5415,7 +5435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1">
+    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -5423,1002 +5443,1002 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6433,14 +6453,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="103.44140625" customWidth="1"/>
+    <col min="3" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6468,7 +6488,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1">
+    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6480,1007 +6500,1007 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1"/>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatma\Desktop\CarPurchasing\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15888" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="SRS Requirments" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>Car_ID</t>
   </si>
@@ -956,12 +956,24 @@
   <si>
     <t>Users can preview their "for sale" cars using "Reseved car" button in user home page</t>
   </si>
+  <si>
+    <t>if the filtering search leads to 0 results, an error message appears having "Sorry, we don't have this car right now, please check it later"</t>
+  </si>
+  <si>
+    <t>The search results depends on the 3 filters (color, price and model)</t>
+  </si>
+  <si>
+    <t>Car_SRS_54</t>
+  </si>
+  <si>
+    <t>Car_SRS_55</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1383,20 +1395,20 @@
   <dimension ref="A1:AB992"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B54"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="150.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="150.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="53.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="43.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="43.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="43.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="53.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="53.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="43.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="43.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="43.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.5" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="43.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="43.5" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="52.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="45.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="58.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="45.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1598,7 +1610,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
     </row>
-    <row r="23" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="45.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -1632,7 +1644,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
     </row>
-    <row r="24" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="45.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +1678,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
     </row>
-    <row r="25" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="45.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1700,7 +1712,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="45.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1734,7 +1746,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
     </row>
-    <row r="27" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="63" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1768,7 +1780,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="45.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -1802,7 +1814,7 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
     </row>
-    <row r="29" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="45.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -1836,7 +1848,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
     </row>
-    <row r="30" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="55.5" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1870,7 +1882,7 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" spans="1:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="54.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +1916,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
     </row>
-    <row r="32" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="45.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1938,7 +1950,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="45.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -1972,7 +1984,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="38.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="38.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="36" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -2022,7 +2034,7 @@
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
     </row>
-    <row r="37" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="45.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
@@ -2056,7 +2068,7 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
     </row>
-    <row r="38" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="45.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -2090,7 +2102,7 @@
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
     </row>
-    <row r="39" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="45.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2124,7 +2136,7 @@
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
     </row>
-    <row r="40" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="45.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
@@ -2158,7 +2170,7 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
     </row>
-    <row r="41" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="45.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
@@ -2192,7 +2204,7 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
     </row>
-    <row r="42" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="45.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -2226,7 +2238,7 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
     </row>
-    <row r="43" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="32.25" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -2260,7 +2272,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
     </row>
-    <row r="44" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="19.5" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -2294,7 +2306,7 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
     </row>
-    <row r="45" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="43.5" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="21.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="21.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="21.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="21.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="21.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="21.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>110</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>112</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>115</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>117</v>
       </c>
@@ -2374,3000 +2386,3008 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="27" customHeight="1">
+      <c r="A55" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" customHeight="1">
+      <c r="A56" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
     </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
     </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
     </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
     </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
     </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
     </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
     </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
     </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
     </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
     </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
     </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
     </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
     </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
     </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15.75" customHeight="1">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15.75" customHeight="1">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
     </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15.75" customHeight="1">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
     </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15.75" customHeight="1">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
     </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15.75" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
     </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
     </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
     </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
     </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
     </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
     </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15.75" customHeight="1">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
     </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15.75" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
     </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15.75" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
     </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15.75" customHeight="1">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
     </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15.75" customHeight="1">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
     </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
     </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
     </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
     </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
     </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
     </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
     </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
     </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
     </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15.75" customHeight="1">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
     </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15.75" customHeight="1">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
     </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15.75" customHeight="1">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15.75" customHeight="1">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
     </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15.75" customHeight="1">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
     </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
     </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15.75" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
     </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15.75" customHeight="1">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
     </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15.75" customHeight="1">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
     </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="15.75" customHeight="1">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
     </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15.75" customHeight="1">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
     </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15.75" customHeight="1">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
     </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15.75" customHeight="1">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
     </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15.75" customHeight="1">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
     </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15.75" customHeight="1">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
     </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15.75" customHeight="1">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
     </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15.75" customHeight="1">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
     </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15.75" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15.75" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
     </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="15.75" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15.75" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
     </row>
-    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15.75" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
     </row>
-    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="15.75" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
     </row>
-    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15.75" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
     </row>
-    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15.75" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
     </row>
-    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15.75" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
     </row>
-    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15.75" customHeight="1">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
     </row>
-    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="15.75" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
     </row>
-    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15.75" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
     </row>
-    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15.75" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
     </row>
-    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15.75" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
     </row>
-    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15.75" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
     </row>
-    <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="15.75" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
     </row>
-    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15.75" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
     </row>
-    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15.75" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
     </row>
-    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15.75" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
     </row>
-    <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="15.75" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
     </row>
-    <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="15.75" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
     </row>
-    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15.75" customHeight="1">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
     </row>
-    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="15.75" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
     </row>
-    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="15.75" customHeight="1">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
     </row>
-    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15.75" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
     </row>
-    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="15.75" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
     </row>
-    <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="15.75" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
     </row>
-    <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
     </row>
-    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
     </row>
-    <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
     </row>
-    <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
     </row>
-    <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
     </row>
-    <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
     </row>
-    <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15.75" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="15.75" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15.75" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
     </row>
-    <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15.75" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
     </row>
-    <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15.75" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
     </row>
-    <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15.75" customHeight="1">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
     </row>
-    <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15.75" customHeight="1">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
     </row>
-    <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15.75" customHeight="1">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
     </row>
-    <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15.75" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
     </row>
-    <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15.75" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
     </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
     </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15.75" customHeight="1">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
     </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
     </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="15.75" customHeight="1">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
     </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
     </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
     </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15.75" customHeight="1">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
     </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15.75" customHeight="1">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
     </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15.75" customHeight="1">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
     </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15.75" customHeight="1">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
     </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15.75" customHeight="1">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
     </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
     </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15.75" customHeight="1">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
     </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15.75" customHeight="1">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
     </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15.75" customHeight="1">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
     </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15.75" customHeight="1">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
     </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="15.75" customHeight="1">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
     </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
     </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
     </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
     </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
     </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
     </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
     </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
     </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
     </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
     </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
     </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
     </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
     </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1">
       <c r="B286" s="19"/>
     </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1">
       <c r="B287" s="19"/>
     </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1">
       <c r="B288" s="19"/>
     </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1">
       <c r="B289" s="19"/>
     </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1">
       <c r="B290" s="19"/>
     </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1">
       <c r="B291" s="19"/>
     </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1">
       <c r="B292" s="19"/>
     </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1">
       <c r="B293" s="19"/>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1">
       <c r="B294" s="19"/>
     </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1">
       <c r="B295" s="19"/>
     </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1">
       <c r="B296" s="19"/>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1">
       <c r="B297" s="19"/>
     </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1">
       <c r="B298" s="19"/>
     </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1">
       <c r="B299" s="19"/>
     </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1">
       <c r="B300" s="19"/>
     </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1">
       <c r="B301" s="19"/>
     </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1">
       <c r="B302" s="19"/>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1">
       <c r="B303" s="19"/>
     </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1">
       <c r="B304" s="19"/>
     </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1">
       <c r="B305" s="19"/>
     </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1">
       <c r="B306" s="19"/>
     </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1">
       <c r="B307" s="19"/>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1">
       <c r="B308" s="19"/>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1">
       <c r="B309" s="19"/>
     </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1">
       <c r="B310" s="19"/>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1">
       <c r="B311" s="19"/>
     </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1">
       <c r="B312" s="19"/>
     </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1">
       <c r="B313" s="19"/>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1">
       <c r="B314" s="19"/>
     </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1">
       <c r="B315" s="19"/>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1">
       <c r="B316" s="19"/>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1">
       <c r="B317" s="19"/>
     </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1">
       <c r="B318" s="19"/>
     </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1">
       <c r="B319" s="19"/>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1">
       <c r="B320" s="19"/>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1">
       <c r="B321" s="19"/>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1">
       <c r="B322" s="19"/>
     </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1">
       <c r="B323" s="19"/>
     </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1">
       <c r="B324" s="19"/>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1">
       <c r="B325" s="19"/>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1">
       <c r="B326" s="19"/>
     </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1">
       <c r="B327" s="19"/>
     </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1">
       <c r="B328" s="19"/>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1">
       <c r="B329" s="19"/>
     </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1">
       <c r="B330" s="19"/>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1">
       <c r="B331" s="19"/>
     </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1">
       <c r="B332" s="19"/>
     </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1">
       <c r="B333" s="19"/>
     </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1">
       <c r="B334" s="19"/>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1">
       <c r="B335" s="19"/>
     </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1">
       <c r="B336" s="19"/>
     </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1">
       <c r="B337" s="19"/>
     </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1">
       <c r="B338" s="19"/>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1">
       <c r="B339" s="19"/>
     </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1">
       <c r="B340" s="19"/>
     </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1">
       <c r="B341" s="19"/>
     </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1">
       <c r="B342" s="19"/>
     </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1">
       <c r="B343" s="19"/>
     </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1">
       <c r="B344" s="19"/>
     </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1">
       <c r="B345" s="19"/>
     </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1">
       <c r="B346" s="19"/>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1">
       <c r="B347" s="19"/>
     </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1">
       <c r="B348" s="19"/>
     </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1">
       <c r="B349" s="19"/>
     </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1">
       <c r="B350" s="19"/>
     </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1">
       <c r="B351" s="19"/>
     </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1">
       <c r="B352" s="19"/>
     </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1">
       <c r="B353" s="19"/>
     </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1">
       <c r="B354" s="19"/>
     </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1">
       <c r="B355" s="19"/>
     </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1">
       <c r="B356" s="19"/>
     </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1">
       <c r="B357" s="19"/>
     </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1">
       <c r="B358" s="19"/>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1">
       <c r="B359" s="19"/>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1">
       <c r="B360" s="19"/>
     </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1">
       <c r="B361" s="19"/>
     </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1">
       <c r="B362" s="19"/>
     </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1">
       <c r="B363" s="19"/>
     </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1">
       <c r="B364" s="19"/>
     </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1">
       <c r="B365" s="19"/>
     </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1">
       <c r="B366" s="19"/>
     </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1">
       <c r="B367" s="19"/>
     </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1">
       <c r="B368" s="19"/>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1">
       <c r="B369" s="19"/>
     </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1">
       <c r="B370" s="19"/>
     </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1">
       <c r="B371" s="19"/>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1">
       <c r="B372" s="19"/>
     </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1">
       <c r="B373" s="19"/>
     </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1">
       <c r="B374" s="19"/>
     </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1">
       <c r="B375" s="19"/>
     </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1">
       <c r="B376" s="19"/>
     </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1">
       <c r="B377" s="19"/>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1">
       <c r="B378" s="19"/>
     </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1">
       <c r="B379" s="19"/>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1">
       <c r="B380" s="19"/>
     </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1">
       <c r="B381" s="19"/>
     </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1">
       <c r="B382" s="19"/>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1">
       <c r="B383" s="19"/>
     </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1">
       <c r="B384" s="19"/>
     </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1">
       <c r="B385" s="19"/>
     </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" ht="15.75" customHeight="1">
       <c r="B386" s="19"/>
     </row>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" ht="15.75" customHeight="1">
       <c r="B387" s="19"/>
     </row>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" ht="15.75" customHeight="1">
       <c r="B388" s="19"/>
     </row>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" ht="15.75" customHeight="1">
       <c r="B389" s="19"/>
     </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" ht="15.75" customHeight="1">
       <c r="B390" s="19"/>
     </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1">
       <c r="B391" s="19"/>
     </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" ht="15.75" customHeight="1">
       <c r="B392" s="19"/>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1">
       <c r="B393" s="19"/>
     </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1">
       <c r="B394" s="19"/>
     </row>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" ht="15.75" customHeight="1">
       <c r="B395" s="19"/>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1">
       <c r="B396" s="19"/>
     </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1">
       <c r="B397" s="19"/>
     </row>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" ht="15.75" customHeight="1">
       <c r="B398" s="19"/>
     </row>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" ht="15.75" customHeight="1">
       <c r="B399" s="19"/>
     </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" ht="15.75" customHeight="1">
       <c r="B400" s="19"/>
     </row>
-    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" ht="15.75" customHeight="1">
       <c r="B401" s="19"/>
     </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" ht="15.75" customHeight="1">
       <c r="B402" s="19"/>
     </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1">
       <c r="B403" s="19"/>
     </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1">
       <c r="B404" s="19"/>
     </row>
-    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" ht="15.75" customHeight="1">
       <c r="B405" s="19"/>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" ht="15.75" customHeight="1">
       <c r="B406" s="19"/>
     </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1">
       <c r="B407" s="19"/>
     </row>
-    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" ht="15.75" customHeight="1">
       <c r="B408" s="19"/>
     </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" ht="15.75" customHeight="1">
       <c r="B409" s="19"/>
     </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1">
       <c r="B410" s="19"/>
     </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" ht="15.75" customHeight="1">
       <c r="B411" s="19"/>
     </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1">
       <c r="B412" s="19"/>
     </row>
-    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" ht="15.75" customHeight="1">
       <c r="B413" s="19"/>
     </row>
-    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" ht="15.75" customHeight="1">
       <c r="B414" s="19"/>
     </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" ht="15.75" customHeight="1">
       <c r="B415" s="19"/>
     </row>
-    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" ht="15.75" customHeight="1">
       <c r="B416" s="19"/>
     </row>
-    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" ht="15.75" customHeight="1">
       <c r="B417" s="19"/>
     </row>
-    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" ht="15.75" customHeight="1">
       <c r="B418" s="19"/>
     </row>
-    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" ht="15.75" customHeight="1">
       <c r="B419" s="19"/>
     </row>
-    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" ht="15.75" customHeight="1">
       <c r="B420" s="19"/>
     </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" ht="15.75" customHeight="1">
       <c r="B421" s="19"/>
     </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1">
       <c r="B422" s="19"/>
     </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1">
       <c r="B423" s="19"/>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1">
       <c r="B424" s="19"/>
     </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1">
       <c r="B425" s="19"/>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" ht="15.75" customHeight="1">
       <c r="B426" s="19"/>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1">
       <c r="B427" s="19"/>
     </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1">
       <c r="B428" s="19"/>
     </row>
-    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" ht="15.75" customHeight="1">
       <c r="B429" s="19"/>
     </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1">
       <c r="B430" s="19"/>
     </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1">
       <c r="B431" s="19"/>
     </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" ht="15.75" customHeight="1">
       <c r="B432" s="19"/>
     </row>
-    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="15.75" customHeight="1">
       <c r="B433" s="19"/>
     </row>
-    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="15.75" customHeight="1">
       <c r="B434" s="19"/>
     </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="15.75" customHeight="1">
       <c r="B435" s="19"/>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1">
       <c r="B436" s="19"/>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1">
       <c r="B437" s="19"/>
     </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1">
       <c r="B438" s="19"/>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1">
       <c r="B439" s="19"/>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1">
       <c r="B440" s="19"/>
     </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1">
       <c r="B441" s="19"/>
     </row>
-    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="15.75" customHeight="1">
       <c r="B442" s="19"/>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="15.75" customHeight="1">
       <c r="B443" s="19"/>
     </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1">
       <c r="B444" s="19"/>
     </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1">
       <c r="B445" s="19"/>
     </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1">
       <c r="B446" s="19"/>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1">
       <c r="B447" s="19"/>
     </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1">
       <c r="B448" s="19"/>
     </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="15.75" customHeight="1">
       <c r="B449" s="19"/>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1">
       <c r="B450" s="19"/>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1">
       <c r="B451" s="19"/>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1">
       <c r="B452" s="19"/>
     </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1">
       <c r="B453" s="19"/>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="15.75" customHeight="1">
       <c r="B454" s="19"/>
     </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="15.75" customHeight="1">
       <c r="B455" s="19"/>
     </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="15.75" customHeight="1">
       <c r="B456" s="19"/>
     </row>
-    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="15.75" customHeight="1">
       <c r="B457" s="19"/>
     </row>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="15.75" customHeight="1">
       <c r="B458" s="19"/>
     </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="15.75" customHeight="1">
       <c r="B459" s="19"/>
     </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1">
       <c r="B460" s="19"/>
     </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1">
       <c r="B461" s="19"/>
     </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1">
       <c r="B462" s="19"/>
     </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1">
       <c r="B463" s="19"/>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1">
       <c r="B464" s="19"/>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1">
       <c r="B465" s="19"/>
     </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1">
       <c r="B466" s="19"/>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="15.75" customHeight="1">
       <c r="B467" s="19"/>
     </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="15.75" customHeight="1">
       <c r="B468" s="19"/>
     </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="15.75" customHeight="1">
       <c r="B469" s="19"/>
     </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="15.75" customHeight="1">
       <c r="B470" s="19"/>
     </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="15.75" customHeight="1">
       <c r="B471" s="19"/>
     </row>
-    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="15.75" customHeight="1">
       <c r="B472" s="19"/>
     </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="15.75" customHeight="1">
       <c r="B473" s="19"/>
     </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="15.75" customHeight="1">
       <c r="B474" s="19"/>
     </row>
-    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="15.75" customHeight="1">
       <c r="B475" s="19"/>
     </row>
-    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="15.75" customHeight="1">
       <c r="B476" s="19"/>
     </row>
-    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="15.75" customHeight="1">
       <c r="B477" s="19"/>
     </row>
-    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="15.75" customHeight="1">
       <c r="B478" s="19"/>
     </row>
-    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="15.75" customHeight="1">
       <c r="B479" s="19"/>
     </row>
-    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="15.75" customHeight="1">
       <c r="B480" s="19"/>
     </row>
-    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="15.75" customHeight="1">
       <c r="B481" s="19"/>
     </row>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="15.75" customHeight="1">
       <c r="B482" s="19"/>
     </row>
-    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="15.75" customHeight="1">
       <c r="B483" s="19"/>
     </row>
-    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="15.75" customHeight="1">
       <c r="B484" s="19"/>
     </row>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="15.75" customHeight="1">
       <c r="B485" s="19"/>
     </row>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="15.75" customHeight="1">
       <c r="B486" s="19"/>
     </row>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="15.75" customHeight="1">
       <c r="B487" s="19"/>
     </row>
-    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="15.75" customHeight="1">
       <c r="B488" s="19"/>
     </row>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="15.75" customHeight="1">
       <c r="B489" s="19"/>
     </row>
-    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="15.75" customHeight="1">
       <c r="B490" s="19"/>
     </row>
-    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="15.75" customHeight="1">
       <c r="B491" s="19"/>
     </row>
-    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="15.75" customHeight="1">
       <c r="B492" s="19"/>
     </row>
-    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="15.75" customHeight="1">
       <c r="B493" s="19"/>
     </row>
-    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="15.75" customHeight="1">
       <c r="B494" s="19"/>
     </row>
-    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="15.75" customHeight="1">
       <c r="B495" s="19"/>
     </row>
-    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="15.75" customHeight="1">
       <c r="B496" s="19"/>
     </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="15.75" customHeight="1">
       <c r="B497" s="19"/>
     </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="15.75" customHeight="1">
       <c r="B498" s="19"/>
     </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="15.75" customHeight="1">
       <c r="B499" s="19"/>
     </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="15.75" customHeight="1">
       <c r="B500" s="19"/>
     </row>
-    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="15.75" customHeight="1">
       <c r="B501" s="19"/>
     </row>
-    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="15.75" customHeight="1">
       <c r="B502" s="19"/>
     </row>
-    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="15.75" customHeight="1">
       <c r="B503" s="19"/>
     </row>
-    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="15.75" customHeight="1">
       <c r="B504" s="19"/>
     </row>
-    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="15.75" customHeight="1">
       <c r="B505" s="19"/>
     </row>
-    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="15.75" customHeight="1">
       <c r="B506" s="19"/>
     </row>
-    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="15.75" customHeight="1">
       <c r="B507" s="19"/>
     </row>
-    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="15.75" customHeight="1">
       <c r="B508" s="19"/>
     </row>
-    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="15.75" customHeight="1">
       <c r="B509" s="19"/>
     </row>
-    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="15.75" customHeight="1">
       <c r="B510" s="19"/>
     </row>
-    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="15.75" customHeight="1">
       <c r="B511" s="19"/>
     </row>
-    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="15.75" customHeight="1">
       <c r="B512" s="19"/>
     </row>
-    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="15.75" customHeight="1">
       <c r="B513" s="19"/>
     </row>
-    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="15.75" customHeight="1">
       <c r="B514" s="19"/>
     </row>
-    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="15.75" customHeight="1">
       <c r="B515" s="19"/>
     </row>
-    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="15.75" customHeight="1">
       <c r="B516" s="19"/>
     </row>
-    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="15.75" customHeight="1">
       <c r="B517" s="19"/>
     </row>
-    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="15.75" customHeight="1">
       <c r="B518" s="19"/>
     </row>
-    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="15.75" customHeight="1">
       <c r="B519" s="19"/>
     </row>
-    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="15.75" customHeight="1">
       <c r="B520" s="19"/>
     </row>
-    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="15.75" customHeight="1">
       <c r="B521" s="19"/>
     </row>
-    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="15.75" customHeight="1">
       <c r="B522" s="19"/>
     </row>
-    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="15.75" customHeight="1">
       <c r="B523" s="19"/>
     </row>
-    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="15.75" customHeight="1">
       <c r="B524" s="19"/>
     </row>
-    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="15.75" customHeight="1">
       <c r="B525" s="19"/>
     </row>
-    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="15.75" customHeight="1">
       <c r="B526" s="19"/>
     </row>
-    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="15.75" customHeight="1">
       <c r="B527" s="19"/>
     </row>
-    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="15.75" customHeight="1">
       <c r="B528" s="19"/>
     </row>
-    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="15.75" customHeight="1">
       <c r="B529" s="19"/>
     </row>
-    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="15.75" customHeight="1">
       <c r="B530" s="19"/>
     </row>
-    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="15.75" customHeight="1">
       <c r="B531" s="19"/>
     </row>
-    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="15.75" customHeight="1">
       <c r="B532" s="19"/>
     </row>
-    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="15.75" customHeight="1">
       <c r="B533" s="19"/>
     </row>
-    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="15.75" customHeight="1">
       <c r="B534" s="19"/>
     </row>
-    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="15.75" customHeight="1">
       <c r="B535" s="19"/>
     </row>
-    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="15.75" customHeight="1">
       <c r="B536" s="19"/>
     </row>
-    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="15.75" customHeight="1">
       <c r="B537" s="19"/>
     </row>
-    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="15.75" customHeight="1">
       <c r="B538" s="19"/>
     </row>
-    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="15.75" customHeight="1">
       <c r="B539" s="19"/>
     </row>
-    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="15.75" customHeight="1">
       <c r="B540" s="19"/>
     </row>
-    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="15.75" customHeight="1">
       <c r="B541" s="19"/>
     </row>
-    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="15.75" customHeight="1">
       <c r="B542" s="19"/>
     </row>
-    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="15.75" customHeight="1">
       <c r="B543" s="19"/>
     </row>
-    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="15.75" customHeight="1">
       <c r="B544" s="19"/>
     </row>
-    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" ht="15.75" customHeight="1">
       <c r="B545" s="19"/>
     </row>
-    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" ht="15.75" customHeight="1">
       <c r="B546" s="19"/>
     </row>
-    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" ht="15.75" customHeight="1">
       <c r="B547" s="19"/>
     </row>
-    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" ht="15.75" customHeight="1">
       <c r="B548" s="19"/>
     </row>
-    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" ht="15.75" customHeight="1">
       <c r="B549" s="19"/>
     </row>
-    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" ht="15.75" customHeight="1">
       <c r="B550" s="19"/>
     </row>
-    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" ht="15.75" customHeight="1">
       <c r="B551" s="19"/>
     </row>
-    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" ht="15.75" customHeight="1">
       <c r="B552" s="19"/>
     </row>
-    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" ht="15.75" customHeight="1">
       <c r="B553" s="19"/>
     </row>
-    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" ht="15.75" customHeight="1">
       <c r="B554" s="19"/>
     </row>
-    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" ht="15.75" customHeight="1">
       <c r="B555" s="19"/>
     </row>
-    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" ht="15.75" customHeight="1">
       <c r="B556" s="19"/>
     </row>
-    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" ht="15.75" customHeight="1">
       <c r="B557" s="19"/>
     </row>
-    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" ht="15.75" customHeight="1">
       <c r="B558" s="19"/>
     </row>
-    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" ht="15.75" customHeight="1">
       <c r="B559" s="19"/>
     </row>
-    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" ht="15.75" customHeight="1">
       <c r="B560" s="19"/>
     </row>
-    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="15.75" customHeight="1">
       <c r="B561" s="19"/>
     </row>
-    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="15.75" customHeight="1">
       <c r="B562" s="19"/>
     </row>
-    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="15.75" customHeight="1">
       <c r="B563" s="19"/>
     </row>
-    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="15.75" customHeight="1">
       <c r="B564" s="19"/>
     </row>
-    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="15.75" customHeight="1">
       <c r="B565" s="19"/>
     </row>
-    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="15.75" customHeight="1">
       <c r="B566" s="19"/>
     </row>
-    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="15.75" customHeight="1">
       <c r="B567" s="19"/>
     </row>
-    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="15.75" customHeight="1">
       <c r="B568" s="19"/>
     </row>
-    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="15.75" customHeight="1">
       <c r="B569" s="19"/>
     </row>
-    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="15.75" customHeight="1">
       <c r="B570" s="19"/>
     </row>
-    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="15.75" customHeight="1">
       <c r="B571" s="19"/>
     </row>
-    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="15.75" customHeight="1">
       <c r="B572" s="19"/>
     </row>
-    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="15.75" customHeight="1">
       <c r="B573" s="19"/>
     </row>
-    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="15.75" customHeight="1">
       <c r="B574" s="19"/>
     </row>
-    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="15.75" customHeight="1">
       <c r="B575" s="19"/>
     </row>
-    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="15.75" customHeight="1">
       <c r="B576" s="19"/>
     </row>
-    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="15.75" customHeight="1">
       <c r="B577" s="19"/>
     </row>
-    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="15.75" customHeight="1">
       <c r="B578" s="19"/>
     </row>
-    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="15.75" customHeight="1">
       <c r="B579" s="19"/>
     </row>
-    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="15.75" customHeight="1">
       <c r="B580" s="19"/>
     </row>
-    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="15.75" customHeight="1">
       <c r="B581" s="19"/>
     </row>
-    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="15.75" customHeight="1">
       <c r="B582" s="19"/>
     </row>
-    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="15.75" customHeight="1">
       <c r="B583" s="19"/>
     </row>
-    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="15.75" customHeight="1">
       <c r="B584" s="19"/>
     </row>
-    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="15.75" customHeight="1">
       <c r="B585" s="19"/>
     </row>
-    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="15.75" customHeight="1">
       <c r="B586" s="19"/>
     </row>
-    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="15.75" customHeight="1">
       <c r="B587" s="19"/>
     </row>
-    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="15.75" customHeight="1">
       <c r="B588" s="19"/>
     </row>
-    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="15.75" customHeight="1">
       <c r="B589" s="19"/>
     </row>
-    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="15.75" customHeight="1">
       <c r="B590" s="19"/>
     </row>
-    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="15.75" customHeight="1">
       <c r="B591" s="19"/>
     </row>
-    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="15.75" customHeight="1">
       <c r="B592" s="19"/>
     </row>
-    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="15.75" customHeight="1">
       <c r="B593" s="19"/>
     </row>
-    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="15.75" customHeight="1">
       <c r="B594" s="19"/>
     </row>
-    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="15.75" customHeight="1">
       <c r="B595" s="19"/>
     </row>
-    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="15.75" customHeight="1">
       <c r="B596" s="19"/>
     </row>
-    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="15.75" customHeight="1">
       <c r="B597" s="19"/>
     </row>
-    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="15.75" customHeight="1">
       <c r="B598" s="19"/>
     </row>
-    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="15.75" customHeight="1">
       <c r="B599" s="19"/>
     </row>
-    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="15.75" customHeight="1">
       <c r="B600" s="19"/>
     </row>
-    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="15.75" customHeight="1">
       <c r="B601" s="19"/>
     </row>
-    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="15.75" customHeight="1">
       <c r="B602" s="19"/>
     </row>
-    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="15.75" customHeight="1">
       <c r="B603" s="19"/>
     </row>
-    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="15.75" customHeight="1">
       <c r="B604" s="19"/>
     </row>
-    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="15.75" customHeight="1">
       <c r="B605" s="19"/>
     </row>
-    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="15.75" customHeight="1">
       <c r="B606" s="19"/>
     </row>
-    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="15.75" customHeight="1">
       <c r="B607" s="19"/>
     </row>
-    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="15.75" customHeight="1">
       <c r="B608" s="19"/>
     </row>
-    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="15.75" customHeight="1">
       <c r="B609" s="19"/>
     </row>
-    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="15.75" customHeight="1">
       <c r="B610" s="19"/>
     </row>
-    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="15.75" customHeight="1">
       <c r="B611" s="19"/>
     </row>
-    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="15.75" customHeight="1">
       <c r="B612" s="19"/>
     </row>
-    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="15.75" customHeight="1">
       <c r="B613" s="19"/>
     </row>
-    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="15.75" customHeight="1">
       <c r="B614" s="19"/>
     </row>
-    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="15.75" customHeight="1">
       <c r="B615" s="19"/>
     </row>
-    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="15.75" customHeight="1">
       <c r="B616" s="19"/>
     </row>
-    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="15.75" customHeight="1">
       <c r="B617" s="19"/>
     </row>
-    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="15.75" customHeight="1">
       <c r="B618" s="19"/>
     </row>
-    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="15.75" customHeight="1">
       <c r="B619" s="19"/>
     </row>
-    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="15.75" customHeight="1">
       <c r="B620" s="19"/>
     </row>
-    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="15.75" customHeight="1">
       <c r="B621" s="19"/>
     </row>
-    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="15.75" customHeight="1">
       <c r="B622" s="19"/>
     </row>
-    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="15.75" customHeight="1">
       <c r="B623" s="19"/>
     </row>
-    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="15.75" customHeight="1">
       <c r="B624" s="19"/>
     </row>
-    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="15.75" customHeight="1">
       <c r="B625" s="19"/>
     </row>
-    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="15.75" customHeight="1">
       <c r="B626" s="19"/>
     </row>
-    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="15.75" customHeight="1">
       <c r="B627" s="19"/>
     </row>
-    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="15.75" customHeight="1">
       <c r="B628" s="19"/>
     </row>
-    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="15.75" customHeight="1">
       <c r="B629" s="19"/>
     </row>
-    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="15.75" customHeight="1">
       <c r="B630" s="19"/>
     </row>
-    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="15.75" customHeight="1">
       <c r="B631" s="19"/>
     </row>
-    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="15.75" customHeight="1">
       <c r="B632" s="19"/>
     </row>
-    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="15.75" customHeight="1">
       <c r="B633" s="19"/>
     </row>
-    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="15.75" customHeight="1">
       <c r="B634" s="19"/>
     </row>
-    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="15.75" customHeight="1">
       <c r="B635" s="19"/>
     </row>
-    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="15.75" customHeight="1">
       <c r="B636" s="19"/>
     </row>
-    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="15.75" customHeight="1">
       <c r="B637" s="19"/>
     </row>
-    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="15.75" customHeight="1">
       <c r="B638" s="19"/>
     </row>
-    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="15.75" customHeight="1">
       <c r="B639" s="19"/>
     </row>
-    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="15.75" customHeight="1">
       <c r="B640" s="19"/>
     </row>
-    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="15.75" customHeight="1">
       <c r="B641" s="19"/>
     </row>
-    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="15.75" customHeight="1">
       <c r="B642" s="19"/>
     </row>
-    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="15.75" customHeight="1">
       <c r="B643" s="19"/>
     </row>
-    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="15.75" customHeight="1">
       <c r="B644" s="19"/>
     </row>
-    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="15.75" customHeight="1">
       <c r="B645" s="19"/>
     </row>
-    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="15.75" customHeight="1">
       <c r="B646" s="19"/>
     </row>
-    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="15.75" customHeight="1">
       <c r="B647" s="19"/>
     </row>
-    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="15.75" customHeight="1">
       <c r="B648" s="19"/>
     </row>
-    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="15.75" customHeight="1">
       <c r="B649" s="19"/>
     </row>
-    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="15.75" customHeight="1">
       <c r="B650" s="19"/>
     </row>
-    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="15.75" customHeight="1">
       <c r="B651" s="19"/>
     </row>
-    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="15.75" customHeight="1">
       <c r="B652" s="19"/>
     </row>
-    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="15.75" customHeight="1">
       <c r="B653" s="19"/>
     </row>
-    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="15.75" customHeight="1">
       <c r="B654" s="19"/>
     </row>
-    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="15.75" customHeight="1">
       <c r="B655" s="19"/>
     </row>
-    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="15.75" customHeight="1">
       <c r="B656" s="19"/>
     </row>
-    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="15.75" customHeight="1">
       <c r="B657" s="19"/>
     </row>
-    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="15.75" customHeight="1">
       <c r="B658" s="19"/>
     </row>
-    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="15.75" customHeight="1">
       <c r="B659" s="19"/>
     </row>
-    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="15.75" customHeight="1">
       <c r="B660" s="19"/>
     </row>
-    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="15.75" customHeight="1">
       <c r="B661" s="19"/>
     </row>
-    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="15.75" customHeight="1">
       <c r="B662" s="19"/>
     </row>
-    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="15.75" customHeight="1">
       <c r="B663" s="19"/>
     </row>
-    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="15.75" customHeight="1">
       <c r="B664" s="19"/>
     </row>
-    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="15.75" customHeight="1">
       <c r="B665" s="19"/>
     </row>
-    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="15.75" customHeight="1">
       <c r="B666" s="19"/>
     </row>
-    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="15.75" customHeight="1">
       <c r="B667" s="19"/>
     </row>
-    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="15.75" customHeight="1">
       <c r="B668" s="19"/>
     </row>
-    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="15.75" customHeight="1">
       <c r="B669" s="19"/>
     </row>
-    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="15.75" customHeight="1">
       <c r="B670" s="19"/>
     </row>
-    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="15.75" customHeight="1">
       <c r="B671" s="19"/>
     </row>
-    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="15.75" customHeight="1">
       <c r="B672" s="19"/>
     </row>
-    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="15.75" customHeight="1">
       <c r="B673" s="19"/>
     </row>
-    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="15.75" customHeight="1">
       <c r="B674" s="19"/>
     </row>
-    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="15.75" customHeight="1">
       <c r="B675" s="19"/>
     </row>
-    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="15.75" customHeight="1">
       <c r="B676" s="19"/>
     </row>
-    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="15.75" customHeight="1">
       <c r="B677" s="19"/>
     </row>
-    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="15.75" customHeight="1">
       <c r="B678" s="19"/>
     </row>
-    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="15.75" customHeight="1">
       <c r="B679" s="19"/>
     </row>
-    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="15.75" customHeight="1">
       <c r="B680" s="19"/>
     </row>
-    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="15.75" customHeight="1">
       <c r="B681" s="19"/>
     </row>
-    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="15.75" customHeight="1">
       <c r="B682" s="19"/>
     </row>
-    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="15.75" customHeight="1">
       <c r="B683" s="19"/>
     </row>
-    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="15.75" customHeight="1">
       <c r="B684" s="19"/>
     </row>
-    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="15.75" customHeight="1">
       <c r="B685" s="19"/>
     </row>
-    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="15.75" customHeight="1">
       <c r="B686" s="19"/>
     </row>
-    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="15.75" customHeight="1">
       <c r="B687" s="19"/>
     </row>
-    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="15.75" customHeight="1">
       <c r="B688" s="19"/>
     </row>
-    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="15.75" customHeight="1">
       <c r="B689" s="19"/>
     </row>
-    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="15.75" customHeight="1">
       <c r="B690" s="19"/>
     </row>
-    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="15.75" customHeight="1">
       <c r="B691" s="19"/>
     </row>
-    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="15.75" customHeight="1">
       <c r="B692" s="19"/>
     </row>
-    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="15.75" customHeight="1">
       <c r="B693" s="19"/>
     </row>
-    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="15.75" customHeight="1">
       <c r="B694" s="19"/>
     </row>
-    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="15.75" customHeight="1">
       <c r="B695" s="19"/>
     </row>
-    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="15.75" customHeight="1">
       <c r="B696" s="19"/>
     </row>
-    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="15.75" customHeight="1">
       <c r="B697" s="19"/>
     </row>
-    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="15.75" customHeight="1">
       <c r="B698" s="19"/>
     </row>
-    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="15.75" customHeight="1">
       <c r="B699" s="19"/>
     </row>
-    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="15.75" customHeight="1">
       <c r="B700" s="19"/>
     </row>
-    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="15.75" customHeight="1">
       <c r="B701" s="19"/>
     </row>
-    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="15.75" customHeight="1">
       <c r="B702" s="19"/>
     </row>
-    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="15.75" customHeight="1">
       <c r="B703" s="19"/>
     </row>
-    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="15.75" customHeight="1">
       <c r="B704" s="19"/>
     </row>
-    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="15.75" customHeight="1">
       <c r="B705" s="19"/>
     </row>
-    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="15.75" customHeight="1">
       <c r="B706" s="19"/>
     </row>
-    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="15.75" customHeight="1">
       <c r="B707" s="19"/>
     </row>
-    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="15.75" customHeight="1">
       <c r="B708" s="19"/>
     </row>
-    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="15.75" customHeight="1">
       <c r="B709" s="19"/>
     </row>
-    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="15.75" customHeight="1">
       <c r="B710" s="19"/>
     </row>
-    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="15.75" customHeight="1">
       <c r="B711" s="19"/>
     </row>
-    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="15.75" customHeight="1">
       <c r="B712" s="19"/>
     </row>
-    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="15.75" customHeight="1">
       <c r="B713" s="19"/>
     </row>
-    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="15.75" customHeight="1">
       <c r="B714" s="19"/>
     </row>
-    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="15.75" customHeight="1">
       <c r="B715" s="19"/>
     </row>
-    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="15.75" customHeight="1">
       <c r="B716" s="19"/>
     </row>
-    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="15.75" customHeight="1">
       <c r="B717" s="19"/>
     </row>
-    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="15.75" customHeight="1">
       <c r="B718" s="19"/>
     </row>
-    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="15.75" customHeight="1">
       <c r="B719" s="19"/>
     </row>
-    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="15.75" customHeight="1">
       <c r="B720" s="19"/>
     </row>
-    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="15.75" customHeight="1">
       <c r="B721" s="19"/>
     </row>
-    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="15.75" customHeight="1">
       <c r="B722" s="19"/>
     </row>
-    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="15.75" customHeight="1">
       <c r="B723" s="19"/>
     </row>
-    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="15.75" customHeight="1">
       <c r="B724" s="19"/>
     </row>
-    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="15.75" customHeight="1">
       <c r="B725" s="19"/>
     </row>
-    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="15.75" customHeight="1">
       <c r="B726" s="19"/>
     </row>
-    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="15.75" customHeight="1">
       <c r="B727" s="19"/>
     </row>
-    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="15.75" customHeight="1">
       <c r="B728" s="19"/>
     </row>
-    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="15.75" customHeight="1">
       <c r="B729" s="19"/>
     </row>
-    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="15.75" customHeight="1">
       <c r="B730" s="19"/>
     </row>
-    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="15.75" customHeight="1">
       <c r="B731" s="19"/>
     </row>
-    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="15.75" customHeight="1">
       <c r="B732" s="19"/>
     </row>
-    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="15.75" customHeight="1">
       <c r="B733" s="19"/>
     </row>
-    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="15.75" customHeight="1">
       <c r="B734" s="19"/>
     </row>
-    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="15.75" customHeight="1">
       <c r="B735" s="19"/>
     </row>
-    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="15.75" customHeight="1">
       <c r="B736" s="19"/>
     </row>
-    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="15.75" customHeight="1">
       <c r="B737" s="19"/>
     </row>
-    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="15.75" customHeight="1">
       <c r="B738" s="19"/>
     </row>
-    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="15.75" customHeight="1">
       <c r="B739" s="19"/>
     </row>
-    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="15.75" customHeight="1">
       <c r="B740" s="19"/>
     </row>
-    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="15.75" customHeight="1">
       <c r="B741" s="19"/>
     </row>
-    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="15.75" customHeight="1">
       <c r="B742" s="19"/>
     </row>
-    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="15.75" customHeight="1">
       <c r="B743" s="19"/>
     </row>
-    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="15.75" customHeight="1">
       <c r="B744" s="19"/>
     </row>
-    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="15.75" customHeight="1">
       <c r="B745" s="19"/>
     </row>
-    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="15.75" customHeight="1">
       <c r="B746" s="19"/>
     </row>
-    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="15.75" customHeight="1">
       <c r="B747" s="19"/>
     </row>
-    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="15.75" customHeight="1">
       <c r="B748" s="19"/>
     </row>
-    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="15.75" customHeight="1">
       <c r="B749" s="19"/>
     </row>
-    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="15.75" customHeight="1">
       <c r="B750" s="19"/>
     </row>
-    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="15.75" customHeight="1">
       <c r="B751" s="19"/>
     </row>
-    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="15.75" customHeight="1">
       <c r="B752" s="19"/>
     </row>
-    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="15.75" customHeight="1">
       <c r="B753" s="19"/>
     </row>
-    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="15.75" customHeight="1">
       <c r="B754" s="19"/>
     </row>
-    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="15.75" customHeight="1">
       <c r="B755" s="19"/>
     </row>
-    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="15.75" customHeight="1">
       <c r="B756" s="19"/>
     </row>
-    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="15.75" customHeight="1">
       <c r="B757" s="19"/>
     </row>
-    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="15.75" customHeight="1">
       <c r="B758" s="19"/>
     </row>
-    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="15.75" customHeight="1">
       <c r="B759" s="19"/>
     </row>
-    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="15.75" customHeight="1">
       <c r="B760" s="19"/>
     </row>
-    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="15.75" customHeight="1">
       <c r="B761" s="19"/>
     </row>
-    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="15.75" customHeight="1">
       <c r="B762" s="19"/>
     </row>
-    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="15.75" customHeight="1">
       <c r="B763" s="19"/>
     </row>
-    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="15.75" customHeight="1">
       <c r="B764" s="19"/>
     </row>
-    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="15.75" customHeight="1">
       <c r="B765" s="19"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="15.75" customHeight="1">
       <c r="B766" s="19"/>
     </row>
-    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="15.75" customHeight="1">
       <c r="B767" s="19"/>
     </row>
-    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="15.75" customHeight="1">
       <c r="B768" s="19"/>
     </row>
-    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="15.75" customHeight="1">
       <c r="B769" s="19"/>
     </row>
-    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="15.75" customHeight="1">
       <c r="B770" s="19"/>
     </row>
-    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="15.75" customHeight="1">
       <c r="B771" s="19"/>
     </row>
-    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="15.75" customHeight="1">
       <c r="B772" s="19"/>
     </row>
-    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="15.75" customHeight="1">
       <c r="B773" s="19"/>
     </row>
-    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="15.75" customHeight="1">
       <c r="B774" s="19"/>
     </row>
-    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="15.75" customHeight="1">
       <c r="B775" s="19"/>
     </row>
-    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="15.75" customHeight="1">
       <c r="B776" s="19"/>
     </row>
-    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="15.75" customHeight="1">
       <c r="B777" s="19"/>
     </row>
-    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="15.75" customHeight="1">
       <c r="B778" s="19"/>
     </row>
-    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="15.75" customHeight="1">
       <c r="B779" s="19"/>
     </row>
-    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="15.75" customHeight="1">
       <c r="B780" s="19"/>
     </row>
-    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="15.75" customHeight="1">
       <c r="B781" s="19"/>
     </row>
-    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="15.75" customHeight="1">
       <c r="B782" s="19"/>
     </row>
-    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="15.75" customHeight="1">
       <c r="B783" s="19"/>
     </row>
-    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="15.75" customHeight="1">
       <c r="B784" s="19"/>
     </row>
-    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="15.75" customHeight="1">
       <c r="B785" s="19"/>
     </row>
-    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="15.75" customHeight="1">
       <c r="B786" s="19"/>
     </row>
-    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="15.75" customHeight="1">
       <c r="B787" s="19"/>
     </row>
-    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="15.75" customHeight="1">
       <c r="B788" s="19"/>
     </row>
-    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="15.75" customHeight="1">
       <c r="B789" s="19"/>
     </row>
-    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="15.75" customHeight="1">
       <c r="B790" s="19"/>
     </row>
-    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="15.75" customHeight="1">
       <c r="B791" s="19"/>
     </row>
-    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="15.75" customHeight="1">
       <c r="B792" s="19"/>
     </row>
-    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="15.75" customHeight="1">
       <c r="B793" s="19"/>
     </row>
-    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="15.75" customHeight="1">
       <c r="B794" s="19"/>
     </row>
-    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="15.75" customHeight="1">
       <c r="B795" s="19"/>
     </row>
-    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="15.75" customHeight="1">
       <c r="B796" s="19"/>
     </row>
-    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="15.75" customHeight="1">
       <c r="B797" s="19"/>
     </row>
-    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="15.75" customHeight="1">
       <c r="B798" s="19"/>
     </row>
-    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="15.75" customHeight="1">
       <c r="B799" s="19"/>
     </row>
-    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="15.75" customHeight="1">
       <c r="B800" s="19"/>
     </row>
-    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="15.75" customHeight="1">
       <c r="B801" s="19"/>
     </row>
-    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="15.75" customHeight="1">
       <c r="B802" s="19"/>
     </row>
-    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="15.75" customHeight="1">
       <c r="B803" s="19"/>
     </row>
-    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="15.75" customHeight="1">
       <c r="B804" s="19"/>
     </row>
-    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="15.75" customHeight="1">
       <c r="B805" s="19"/>
     </row>
-    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="15.75" customHeight="1">
       <c r="B806" s="19"/>
     </row>
-    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="15.75" customHeight="1">
       <c r="B807" s="19"/>
     </row>
-    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="15.75" customHeight="1">
       <c r="B808" s="19"/>
     </row>
-    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="15.75" customHeight="1">
       <c r="B809" s="19"/>
     </row>
-    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="15.75" customHeight="1">
       <c r="B810" s="19"/>
     </row>
-    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="15.75" customHeight="1">
       <c r="B811" s="19"/>
     </row>
-    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="15.75" customHeight="1">
       <c r="B812" s="19"/>
     </row>
-    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="15.75" customHeight="1">
       <c r="B813" s="19"/>
     </row>
-    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="15.75" customHeight="1">
       <c r="B814" s="19"/>
     </row>
-    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="15.75" customHeight="1">
       <c r="B815" s="19"/>
     </row>
-    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="15.75" customHeight="1">
       <c r="B816" s="19"/>
     </row>
-    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="15.75" customHeight="1">
       <c r="B817" s="19"/>
     </row>
-    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="15.75" customHeight="1">
       <c r="B818" s="19"/>
     </row>
-    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="15.75" customHeight="1">
       <c r="B819" s="19"/>
     </row>
-    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="15.75" customHeight="1">
       <c r="B820" s="19"/>
     </row>
-    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="15.75" customHeight="1">
       <c r="B821" s="19"/>
     </row>
-    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="15.75" customHeight="1">
       <c r="B822" s="19"/>
     </row>
-    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="15.75" customHeight="1">
       <c r="B823" s="19"/>
     </row>
-    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="15.75" customHeight="1">
       <c r="B824" s="19"/>
     </row>
-    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="15.75" customHeight="1">
       <c r="B825" s="19"/>
     </row>
-    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="15.75" customHeight="1">
       <c r="B826" s="19"/>
     </row>
-    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="15.75" customHeight="1">
       <c r="B827" s="19"/>
     </row>
-    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="15.75" customHeight="1">
       <c r="B828" s="19"/>
     </row>
-    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="15.75" customHeight="1">
       <c r="B829" s="19"/>
     </row>
-    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="15.75" customHeight="1">
       <c r="B830" s="19"/>
     </row>
-    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="15.75" customHeight="1">
       <c r="B831" s="19"/>
     </row>
-    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="15.75" customHeight="1">
       <c r="B832" s="19"/>
     </row>
-    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="15.75" customHeight="1">
       <c r="B833" s="19"/>
     </row>
-    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="15.75" customHeight="1">
       <c r="B834" s="19"/>
     </row>
-    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="15.75" customHeight="1">
       <c r="B835" s="19"/>
     </row>
-    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="15.75" customHeight="1">
       <c r="B836" s="19"/>
     </row>
-    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="15.75" customHeight="1">
       <c r="B837" s="19"/>
     </row>
-    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="15.75" customHeight="1">
       <c r="B838" s="19"/>
     </row>
-    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="15.75" customHeight="1">
       <c r="B839" s="19"/>
     </row>
-    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="15.75" customHeight="1">
       <c r="B840" s="19"/>
     </row>
-    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="15.75" customHeight="1">
       <c r="B841" s="19"/>
     </row>
-    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="15.75" customHeight="1">
       <c r="B842" s="19"/>
     </row>
-    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="15.75" customHeight="1">
       <c r="B843" s="19"/>
     </row>
-    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="15.75" customHeight="1">
       <c r="B844" s="19"/>
     </row>
-    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="15.75" customHeight="1">
       <c r="B845" s="19"/>
     </row>
-    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="15.75" customHeight="1">
       <c r="B846" s="19"/>
     </row>
-    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="15.75" customHeight="1">
       <c r="B847" s="19"/>
     </row>
-    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="15.75" customHeight="1">
       <c r="B848" s="19"/>
     </row>
-    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="15.75" customHeight="1">
       <c r="B849" s="19"/>
     </row>
-    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="15.75" customHeight="1">
       <c r="B850" s="19"/>
     </row>
-    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="15.75" customHeight="1">
       <c r="B851" s="19"/>
     </row>
-    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="15.75" customHeight="1">
       <c r="B852" s="19"/>
     </row>
-    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="15.75" customHeight="1">
       <c r="B853" s="19"/>
     </row>
-    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="15.75" customHeight="1">
       <c r="B854" s="19"/>
     </row>
-    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="15.75" customHeight="1">
       <c r="B855" s="19"/>
     </row>
-    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="15.75" customHeight="1">
       <c r="B856" s="19"/>
     </row>
-    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="15.75" customHeight="1">
       <c r="B857" s="19"/>
     </row>
-    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="15.75" customHeight="1">
       <c r="B858" s="19"/>
     </row>
-    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="15.75" customHeight="1">
       <c r="B859" s="19"/>
     </row>
-    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="15.75" customHeight="1">
       <c r="B860" s="19"/>
     </row>
-    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="15.75" customHeight="1">
       <c r="B861" s="19"/>
     </row>
-    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="15.75" customHeight="1">
       <c r="B862" s="19"/>
     </row>
-    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="15.75" customHeight="1">
       <c r="B863" s="19"/>
     </row>
-    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="15.75" customHeight="1">
       <c r="B864" s="19"/>
     </row>
-    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="15.75" customHeight="1">
       <c r="B865" s="19"/>
     </row>
-    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="15.75" customHeight="1">
       <c r="B866" s="19"/>
     </row>
-    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="15.75" customHeight="1">
       <c r="B867" s="19"/>
     </row>
-    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="15.75" customHeight="1">
       <c r="B868" s="19"/>
     </row>
-    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="15.75" customHeight="1">
       <c r="B869" s="19"/>
     </row>
-    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="15.75" customHeight="1">
       <c r="B870" s="19"/>
     </row>
-    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="15.75" customHeight="1">
       <c r="B871" s="19"/>
     </row>
-    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="15.75" customHeight="1">
       <c r="B872" s="19"/>
     </row>
-    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="15.75" customHeight="1">
       <c r="B873" s="19"/>
     </row>
-    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="15.75" customHeight="1">
       <c r="B874" s="19"/>
     </row>
-    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="15.75" customHeight="1">
       <c r="B875" s="19"/>
     </row>
-    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="15.75" customHeight="1">
       <c r="B876" s="19"/>
     </row>
-    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="15.75" customHeight="1">
       <c r="B877" s="19"/>
     </row>
-    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="15.75" customHeight="1">
       <c r="B878" s="19"/>
     </row>
-    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="15.75" customHeight="1">
       <c r="B879" s="19"/>
     </row>
-    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="15.75" customHeight="1">
       <c r="B880" s="19"/>
     </row>
-    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="15.75" customHeight="1">
       <c r="B881" s="19"/>
     </row>
-    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="15.75" customHeight="1">
       <c r="B882" s="19"/>
     </row>
-    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="15.75" customHeight="1">
       <c r="B883" s="19"/>
     </row>
-    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="15.75" customHeight="1">
       <c r="B884" s="19"/>
     </row>
-    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="15.75" customHeight="1">
       <c r="B885" s="19"/>
     </row>
-    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="15.75" customHeight="1">
       <c r="B886" s="19"/>
     </row>
-    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="15.75" customHeight="1">
       <c r="B887" s="19"/>
     </row>
-    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="15.75" customHeight="1">
       <c r="B888" s="19"/>
     </row>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="15.75" customHeight="1">
       <c r="B889" s="19"/>
     </row>
-    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="15.75" customHeight="1">
       <c r="B890" s="19"/>
     </row>
-    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="15.75" customHeight="1">
       <c r="B891" s="19"/>
     </row>
-    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="15.75" customHeight="1">
       <c r="B892" s="19"/>
     </row>
-    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="15.75" customHeight="1">
       <c r="B893" s="19"/>
     </row>
-    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="15.75" customHeight="1">
       <c r="B894" s="19"/>
     </row>
-    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="15.75" customHeight="1">
       <c r="B895" s="19"/>
     </row>
-    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="15.75" customHeight="1">
       <c r="B896" s="19"/>
     </row>
-    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="15.75" customHeight="1">
       <c r="B897" s="19"/>
     </row>
-    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="15.75" customHeight="1">
       <c r="B898" s="19"/>
     </row>
-    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="15.75" customHeight="1">
       <c r="B899" s="19"/>
     </row>
-    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="15.75" customHeight="1">
       <c r="B900" s="19"/>
     </row>
-    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="15.75" customHeight="1">
       <c r="B901" s="19"/>
     </row>
-    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="15.75" customHeight="1">
       <c r="B902" s="19"/>
     </row>
-    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="15.75" customHeight="1">
       <c r="B903" s="19"/>
     </row>
-    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="15.75" customHeight="1">
       <c r="B904" s="19"/>
     </row>
-    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="15.75" customHeight="1">
       <c r="B905" s="19"/>
     </row>
-    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="15.75" customHeight="1">
       <c r="B906" s="19"/>
     </row>
-    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="15.75" customHeight="1">
       <c r="B907" s="19"/>
     </row>
-    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="15.75" customHeight="1">
       <c r="B908" s="19"/>
     </row>
-    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="15.75" customHeight="1">
       <c r="B909" s="19"/>
     </row>
-    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="15.75" customHeight="1">
       <c r="B910" s="19"/>
     </row>
-    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="15.75" customHeight="1">
       <c r="B911" s="19"/>
     </row>
-    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="15.75" customHeight="1">
       <c r="B912" s="19"/>
     </row>
-    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="15.75" customHeight="1">
       <c r="B913" s="19"/>
     </row>
-    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="15.75" customHeight="1">
       <c r="B914" s="19"/>
     </row>
-    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="15.75" customHeight="1">
       <c r="B915" s="19"/>
     </row>
-    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="15.75" customHeight="1">
       <c r="B916" s="19"/>
     </row>
-    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="15.75" customHeight="1">
       <c r="B917" s="19"/>
     </row>
-    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="15.75" customHeight="1">
       <c r="B918" s="19"/>
     </row>
-    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="15.75" customHeight="1">
       <c r="B919" s="19"/>
     </row>
-    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="15.75" customHeight="1">
       <c r="B920" s="19"/>
     </row>
-    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="15.75" customHeight="1">
       <c r="B921" s="19"/>
     </row>
-    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="15.75" customHeight="1">
       <c r="B922" s="19"/>
     </row>
-    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="15.75" customHeight="1">
       <c r="B923" s="19"/>
     </row>
-    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="15.75" customHeight="1">
       <c r="B924" s="19"/>
     </row>
-    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="15.75" customHeight="1">
       <c r="B925" s="19"/>
     </row>
-    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="15.75" customHeight="1">
       <c r="B926" s="19"/>
     </row>
-    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="15.75" customHeight="1">
       <c r="B927" s="19"/>
     </row>
-    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="15.75" customHeight="1">
       <c r="B928" s="19"/>
     </row>
-    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="15.75" customHeight="1">
       <c r="B929" s="19"/>
     </row>
-    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="15.75" customHeight="1">
       <c r="B930" s="19"/>
     </row>
-    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="15.75" customHeight="1">
       <c r="B931" s="19"/>
     </row>
-    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="15.75" customHeight="1">
       <c r="B932" s="19"/>
     </row>
-    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="15.75" customHeight="1">
       <c r="B933" s="19"/>
     </row>
-    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="15.75" customHeight="1">
       <c r="B934" s="19"/>
     </row>
-    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="15.75" customHeight="1">
       <c r="B935" s="19"/>
     </row>
-    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="15.75" customHeight="1">
       <c r="B936" s="19"/>
     </row>
-    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="15.75" customHeight="1">
       <c r="B937" s="19"/>
     </row>
-    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="15.75" customHeight="1">
       <c r="B938" s="19"/>
     </row>
-    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="15.75" customHeight="1">
       <c r="B939" s="19"/>
     </row>
-    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="15.75" customHeight="1">
       <c r="B940" s="19"/>
     </row>
-    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="15.75" customHeight="1">
       <c r="B941" s="19"/>
     </row>
-    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="15.75" customHeight="1">
       <c r="B942" s="19"/>
     </row>
-    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="15.75" customHeight="1">
       <c r="B943" s="19"/>
     </row>
-    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="15.75" customHeight="1">
       <c r="B944" s="19"/>
     </row>
-    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="15.75" customHeight="1">
       <c r="B945" s="19"/>
     </row>
-    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="15.75" customHeight="1">
       <c r="B946" s="19"/>
     </row>
-    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="15.75" customHeight="1">
       <c r="B947" s="19"/>
     </row>
-    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="15.75" customHeight="1">
       <c r="B948" s="19"/>
     </row>
-    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="15.75" customHeight="1">
       <c r="B949" s="19"/>
     </row>
-    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="15.75" customHeight="1">
       <c r="B950" s="19"/>
     </row>
-    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="15.75" customHeight="1">
       <c r="B951" s="19"/>
     </row>
-    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="15.75" customHeight="1">
       <c r="B952" s="19"/>
     </row>
-    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="15.75" customHeight="1">
       <c r="B953" s="19"/>
     </row>
-    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="15.75" customHeight="1">
       <c r="B954" s="19"/>
     </row>
-    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="15.75" customHeight="1">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="15.75" customHeight="1">
       <c r="B956" s="19"/>
     </row>
-    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="15.75" customHeight="1">
       <c r="B957" s="19"/>
     </row>
-    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="15.75" customHeight="1">
       <c r="B958" s="19"/>
     </row>
-    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="15.75" customHeight="1">
       <c r="B959" s="19"/>
     </row>
-    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="15.75" customHeight="1">
       <c r="B960" s="19"/>
     </row>
-    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="15.75" customHeight="1">
       <c r="B961" s="19"/>
     </row>
-    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="15.75" customHeight="1">
       <c r="B962" s="19"/>
     </row>
-    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="15.75" customHeight="1">
       <c r="B963" s="19"/>
     </row>
-    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="15.75" customHeight="1">
       <c r="B964" s="19"/>
     </row>
-    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" ht="15.75" customHeight="1">
       <c r="B965" s="19"/>
     </row>
-    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" ht="15.75" customHeight="1">
       <c r="B966" s="19"/>
     </row>
-    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" ht="15.75" customHeight="1">
       <c r="B967" s="19"/>
     </row>
-    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" ht="15.75" customHeight="1">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" ht="15.75" customHeight="1">
       <c r="B969" s="19"/>
     </row>
-    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" ht="15.75" customHeight="1">
       <c r="B970" s="19"/>
     </row>
-    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" ht="15.75" customHeight="1">
       <c r="B971" s="19"/>
     </row>
-    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" ht="15.75" customHeight="1">
       <c r="B972" s="19"/>
     </row>
-    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" ht="15.75" customHeight="1">
       <c r="B973" s="19"/>
     </row>
-    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" ht="15.75" customHeight="1">
       <c r="B974" s="19"/>
     </row>
-    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" ht="15.75" customHeight="1">
       <c r="B975" s="19"/>
     </row>
-    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" ht="15.75" customHeight="1">
       <c r="B976" s="19"/>
     </row>
-    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" ht="15.75" customHeight="1">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" ht="15.75" customHeight="1">
       <c r="B978" s="19"/>
     </row>
-    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" ht="15.75" customHeight="1">
       <c r="B979" s="19"/>
     </row>
-    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" ht="15.75" customHeight="1">
       <c r="B980" s="19"/>
     </row>
-    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" ht="15.75" customHeight="1">
       <c r="B981" s="19"/>
     </row>
-    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" ht="15.75" customHeight="1">
       <c r="B982" s="19"/>
     </row>
-    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" ht="15.75" customHeight="1">
       <c r="B983" s="19"/>
     </row>
-    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" ht="15.75" customHeight="1">
       <c r="B984" s="19"/>
     </row>
-    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" ht="15.75" customHeight="1">
       <c r="B985" s="19"/>
     </row>
-    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" ht="15.75" customHeight="1">
       <c r="B986" s="19"/>
     </row>
-    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" ht="15.75" customHeight="1">
       <c r="B987" s="19"/>
     </row>
-    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" ht="15.75" customHeight="1">
       <c r="B988" s="19"/>
     </row>
-    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" ht="15.75" customHeight="1">
       <c r="B989" s="19"/>
     </row>
-    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" ht="15.75" customHeight="1">
       <c r="B990" s="19"/>
     </row>
-    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" ht="15.75" customHeight="1">
       <c r="B991" s="19"/>
     </row>
-    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" ht="15.75" customHeight="1">
       <c r="B992" s="19"/>
     </row>
   </sheetData>
@@ -5384,14 +5404,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="88.44140625" customWidth="1"/>
-    <col min="3" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5419,7 +5439,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="33" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5427,7 +5447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -5435,7 +5455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="31.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -5443,1002 +5463,1002 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6453,14 +6473,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="103.44140625" customWidth="1"/>
-    <col min="3" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6488,7 +6508,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="33" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -6500,1007 +6520,1007 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:22" ht="31.5" customHeight="1"/>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirments/CAR_SRS .xlsx
+++ b/Requirments/CAR_SRS .xlsx
@@ -893,19 +893,10 @@
     <t>Car_SRS_46</t>
   </si>
   <si>
-    <t>Profile page shall review all the current logged in user information will be displayed but only address and phone number are editable.</t>
-  </si>
-  <si>
     <t>Car_SRS_47</t>
   </si>
   <si>
-    <t>In the profile page the user can edit phone number and address fields only</t>
-  </si>
-  <si>
     <t>Car_SRS_48</t>
-  </si>
-  <si>
-    <t>In the profile page there are two edit buttons beside phone number and address fields</t>
   </si>
   <si>
     <t>Car_SRS_49</t>
@@ -967,6 +958,15 @@
   </si>
   <si>
     <t>Car_SRS_55</t>
+  </si>
+  <si>
+    <t>In the profile page the user can edit Email and address fields only</t>
+  </si>
+  <si>
+    <t>In the profile page there are two edit buttons beside Email and address fields</t>
+  </si>
+  <si>
+    <t>Profile page shall review all the current logged in user information will be displayed but only address and Email are editable.</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1717,7 +1717,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2327,79 +2327,79 @@
         <v>102</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="21.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="21.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="21.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="21.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
